--- a/docs/10-31-2013-energy-cost-calculator-gasification-power-generation-model.xlsx
+++ b/docs/10-31-2013-energy-cost-calculator-gasification-power-generation-model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkai\Documents\Github\technoeconomic-assessment\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7B18453-100D-4EEE-93C9-B1CBF2BC2964}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1122996-6585-4FBA-9CA9-2EB760848E4C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="29955" yWindow="360" windowWidth="29040" windowHeight="15600"/>
   </bookViews>
   <sheets>
     <sheet name="Gasifier_EconomicExample" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,199 @@
     <sheet name="SensitivityDiagram_Relative" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="AggregateFractionOfHeatRecovered">Gasifier_EconomicExample!$B$77</definedName>
+    <definedName name="AggregateSalesPriceForHeat">Gasifier_EconomicExample!$B$80</definedName>
+    <definedName name="AnnualBiomassConsumptionDryMass">Gasifier_EconomicExample!$B$68</definedName>
+    <definedName name="AnnualBiomassConsumptionWetMass">Gasifier_EconomicExample!$B$69</definedName>
+    <definedName name="AnnualCapacityPayment">Gasifier_EconomicExample!$B$109</definedName>
+    <definedName name="AnnualCharProduction">Gasifier_EconomicExample!$B$73</definedName>
+    <definedName name="AnnualCleanGasConsumption">Gasifier_EconomicExample!$B$62</definedName>
+    <definedName name="AnnualDebtPayment">Gasifier_EconomicExample!$B$135</definedName>
+    <definedName name="AnnualDebtReserveInterest">Gasifier_EconomicExample!$B$110</definedName>
+    <definedName name="AnnualDualFuelConsumption">Gasifier_EconomicExample!$B$64</definedName>
+    <definedName name="AnnualEquityRecovery">Gasifier_EconomicExample!$B$134</definedName>
+    <definedName name="AnnualHeatSales">Gasifier_EconomicExample!$B$79</definedName>
+    <definedName name="AnnualHours">Gasifier_EconomicExample!$B$40</definedName>
+    <definedName name="AnnualIncomeFromChar">Gasifier_EconomicExample!$B$111</definedName>
+    <definedName name="AnnualNetElectricityGeneration">Gasifier_EconomicExample!$B$41</definedName>
+    <definedName name="AshContent">Gasifier_EconomicExample!$B$70</definedName>
+    <definedName name="BiomassFeedRate">Gasifier_EconomicExample!$B$67</definedName>
+    <definedName name="BiomassFuelCost">Gasifier_EconomicExample!$B$87</definedName>
+    <definedName name="BiomassFuelCostCF">Gasifier_EconomicExample!$B$194</definedName>
+    <definedName name="BiomassFuelCostPerKwh">Gasifier_EconomicExample!$C$87</definedName>
+    <definedName name="BtuPerCubicFoot">Gasifier_EconomicExample!$C$12</definedName>
+    <definedName name="BtuPerPound">Gasifier_EconomicExample!$C$14</definedName>
+    <definedName name="CapacityFactor">Gasifier_EconomicExample!$B$39</definedName>
+    <definedName name="CapacityIncome">Gasifier_EconomicExample!$B$199</definedName>
+    <definedName name="CapitalRecoveryFactorDebt">Gasifier_EconomicExample!$B$133</definedName>
+    <definedName name="CapitalRecoveryFactorEquity">Gasifier_EconomicExample!$B$132</definedName>
+    <definedName name="CarbonConcentration">Gasifier_EconomicExample!$B$71</definedName>
+    <definedName name="CarbonDioxide">Gasifier_EconomicExample!$B$50</definedName>
+    <definedName name="CH4Density">Gasifier_EconomicExample!$H$23</definedName>
+    <definedName name="CH4HigherHeatingValueKjPerM">Gasifier_EconomicExample!$J$23</definedName>
+    <definedName name="CH4HigherHeatingValueMjPerKg">Gasifier_EconomicExample!$I$23</definedName>
+    <definedName name="CH4LowerHeatingValueKjPerM">Gasifier_EconomicExample!$L$23</definedName>
+    <definedName name="CH4LowerHeatingValueMjPerKg">Gasifier_EconomicExample!$K$23</definedName>
+    <definedName name="CharIncome">Gasifier_EconomicExample!$B$201</definedName>
+    <definedName name="CharProductionRate">Gasifier_EconomicExample!$B$72</definedName>
+    <definedName name="CleanGasComposition">Gasifier_EconomicExample!$B$46</definedName>
+    <definedName name="CleanGasDensity">Gasifier_EconomicExample!$B$54</definedName>
+    <definedName name="CleanGasFlowRateMass">Gasifier_EconomicExample!$B$61</definedName>
+    <definedName name="CleanGasFlowRateVolume">Gasifier_EconomicExample!$B$60</definedName>
+    <definedName name="CleanGasHigherHeatingValue">Gasifier_EconomicExample!$B$55</definedName>
+    <definedName name="CleanGasLowerHeatingValue">Gasifier_EconomicExample!$B$56</definedName>
+    <definedName name="CleanGasMolecularMass">Gasifier_EconomicExample!$B$53</definedName>
+    <definedName name="CleanGasPowerInput">Gasifier_EconomicExample!$B$58</definedName>
+    <definedName name="CO">Gasifier_EconomicExample!$B$47</definedName>
+    <definedName name="CODensity">Gasifier_EconomicExample!$H$19</definedName>
+    <definedName name="COHigherHeatingValueKjPerM">Gasifier_EconomicExample!$J$19</definedName>
+    <definedName name="COHigherHeatingValueMjPerKg">Gasifier_EconomicExample!$I$19</definedName>
+    <definedName name="COLowerHeatingValueKjPerM">Gasifier_EconomicExample!$L$19</definedName>
+    <definedName name="COLowerHeatingValueMjPerKg">Gasifier_EconomicExample!$K$19</definedName>
+    <definedName name="CombinedTaxRate">Gasifier_EconomicExample!$B$103</definedName>
+    <definedName name="ConstantCapitalRecoveryFactor">Gasifier_EconomicExample!$B$218</definedName>
+    <definedName name="ConstantLACPerKwh">Gasifier_EconomicExample!$B$220</definedName>
+    <definedName name="ConstantLevelAnnualRevenue">Gasifier_EconomicExample!$B$219</definedName>
+    <definedName name="CostOfEquity">Gasifier_EconomicExample!$B$127</definedName>
+    <definedName name="CostOfMoney">Gasifier_EconomicExample!$B$128</definedName>
+    <definedName name="CubicFootPerPonds">Gasifier_EconomicExample!$C$20</definedName>
+    <definedName name="CubicMeterPerKg">Gasifier_EconomicExample!$E$20</definedName>
+    <definedName name="CurrentAnnualRevenueRequirements">Gasifier_EconomicExample!$B$213</definedName>
+    <definedName name="CurrentCapitalRecoveryFactor">Gasifier_EconomicExample!$B$212</definedName>
+    <definedName name="CurrentLACPerKwh">Gasifier_EconomicExample!$B$214</definedName>
+    <definedName name="DebtInterest">Gasifier_EconomicExample!$B$191</definedName>
+    <definedName name="DebtPrincipalPaid">Gasifier_EconomicExample!$B$192</definedName>
+    <definedName name="DebtRatio">Gasifier_EconomicExample!$B$123</definedName>
+    <definedName name="DebtReserve">Gasifier_EconomicExample!$B$136</definedName>
+    <definedName name="DebtReserveCF">Gasifier_EconomicExample!$B$197</definedName>
+    <definedName name="DentPrincipalRemaining">Gasifier_EconomicExample!$B$193</definedName>
+    <definedName name="Depreciation">Gasifier_EconomicExample!$B$198</definedName>
+    <definedName name="DollarPerKwh">Gasifier_EconomicExample!$E$24</definedName>
+    <definedName name="DollarPerMetricTons">Gasifier_EconomicExample!$C$18</definedName>
+    <definedName name="DollarPerMillionBtu">Gasifier_EconomicExample!$C$24</definedName>
+    <definedName name="DollarPerUSTons">Gasifier_EconomicExample!$E$18</definedName>
+    <definedName name="DualFuelCost">Gasifier_EconomicExample!$B$88</definedName>
+    <definedName name="DualFuelCostCF">Gasifier_EconomicExample!$B$195</definedName>
+    <definedName name="DualFuelFlowRate">Gasifier_EconomicExample!$B$63</definedName>
+    <definedName name="DualFuelPerKwh">Gasifier_EconomicExample!$C$88</definedName>
+    <definedName name="DualFuelPowerInput">Gasifier_EconomicExample!$B$59</definedName>
+    <definedName name="EconomicLife">Gasifier_EconomicExample!$B$126</definedName>
+    <definedName name="ElectricityCapacityPayment">Gasifier_EconomicExample!$B$106</definedName>
+    <definedName name="EmissionControlSystemCapitalCost">Gasifier_EconomicExample!$B$31</definedName>
+    <definedName name="EmissionControlSystemCapitalCostPerKwe">Gasifier_EconomicExample!$C$31</definedName>
+    <definedName name="EnergyRevenueRequired">Gasifier_EconomicExample!$B$206</definedName>
+    <definedName name="EquityInterest">Gasifier_EconomicExample!$B$187</definedName>
+    <definedName name="EquityPrincipalPaid">Gasifier_EconomicExample!$B$188</definedName>
+    <definedName name="EquityPrincipalRemaining">Gasifier_EconomicExample!$B$189</definedName>
+    <definedName name="EquityRatio">Gasifier_EconomicExample!$B$124</definedName>
+    <definedName name="EquityRecovery">Gasifier_EconomicExample!$B$186</definedName>
+    <definedName name="EscalationBiomassFuel">Gasifier_EconomicExample!$B$115</definedName>
+    <definedName name="EscalationCharSales">Gasifier_EconomicExample!$B$119</definedName>
+    <definedName name="EscalationDualFuel">Gasifier_EconomicExample!$B$116</definedName>
+    <definedName name="EscalationHeatSales">Gasifier_EconomicExample!$B$118</definedName>
+    <definedName name="EscalationOther">Gasifier_EconomicExample!$B$120</definedName>
+    <definedName name="EscalationProductionTaxCredit">Gasifier_EconomicExample!$B$117</definedName>
+    <definedName name="FederalTaxRate">Gasifier_EconomicExample!$B$100</definedName>
+    <definedName name="FractionOfInputEnergy">Gasifier_EconomicExample!$B$45</definedName>
+    <definedName name="GasCleaningSystemCapitalCost">Gasifier_EconomicExample!$B$29</definedName>
+    <definedName name="GasCleaningSystemCapitalCostPerKwe">Gasifier_EconomicExample!$C$29</definedName>
+    <definedName name="GasifierSystemCapitalCost">Gasifier_EconomicExample!$B$28</definedName>
+    <definedName name="GasifierSystemCapitalCostPerKwe">Gasifier_EconomicExample!$C$28</definedName>
+    <definedName name="GasolineDensity">Gasifier_EconomicExample!$H$11</definedName>
+    <definedName name="GasolineHigherHeatingValueKjPerL">Gasifier_EconomicExample!$J$11</definedName>
+    <definedName name="GasolineHigherHeatingValueMjPerKg">Gasifier_EconomicExample!$I$11</definedName>
+    <definedName name="GasolineLowerHeatingValueKjPerL">Gasifier_EconomicExample!$L$11</definedName>
+    <definedName name="GasolineLowerHeatingValueMjPerKg">Gasifier_EconomicExample!$K$11</definedName>
+    <definedName name="GeneralInflation">Gasifier_EconomicExample!$B$114</definedName>
+    <definedName name="GrossCHPEfficiency">Gasifier_EconomicExample!$B$83</definedName>
+    <definedName name="GrossElectricalCapacity">Gasifier_EconomicExample!$B$36</definedName>
+    <definedName name="H2Density">Gasifier_EconomicExample!$H$21</definedName>
+    <definedName name="H2HigherHeatingValueKjPerM">Gasifier_EconomicExample!$J$21</definedName>
+    <definedName name="H2HigherHeatingValueMjPerKg">Gasifier_EconomicExample!$I$21</definedName>
+    <definedName name="H2LowerHeatingValueKjPerM">Gasifier_EconomicExample!$L$21</definedName>
+    <definedName name="H2LowerHeatingValueMjPerKg">Gasifier_EconomicExample!$K$21</definedName>
+    <definedName name="HeatIncome">Gasifier_EconomicExample!$B$200</definedName>
+    <definedName name="HeatIncomePerUnitElecEnergy">Gasifier_EconomicExample!$B$82</definedName>
+    <definedName name="HeatRecoverySystemCapitalCost">Gasifier_EconomicExample!$B$32</definedName>
+    <definedName name="HeatRecoverySystemCapitalCostPerKwe">Gasifier_EconomicExample!$C$32</definedName>
+    <definedName name="HeavyDieselDensity">Gasifier_EconomicExample!$H$15</definedName>
+    <definedName name="HeavyDieselHigherHeatingValueKjPerL">Gasifier_EconomicExample!$J$15</definedName>
+    <definedName name="HeavyDieselHigherHeatingValueMjPerKg">Gasifier_EconomicExample!$I$15</definedName>
+    <definedName name="HeavyDieselLowerHeatingValueKjPerL">Gasifier_EconomicExample!$L$15</definedName>
+    <definedName name="HeavyDieselLowerHeatingValueMjPerKg">Gasifier_EconomicExample!$K$15</definedName>
+    <definedName name="HHVEfficiencyOfGasificationSystem">Gasifier_EconomicExample!$B$42</definedName>
+    <definedName name="HigherHeatingValue">Gasifier_EconomicExample!$B$65</definedName>
+    <definedName name="Hydrocarbons">Gasifier_EconomicExample!$B$49</definedName>
+    <definedName name="HydrogenGas">Gasifier_EconomicExample!$B$48</definedName>
+    <definedName name="Insurance">Gasifier_EconomicExample!$B$92</definedName>
+    <definedName name="InsurancePerKwh">Gasifier_EconomicExample!$C$92</definedName>
+    <definedName name="InterestRateOnDebt">Gasifier_EconomicExample!$B$125</definedName>
+    <definedName name="InterestRateOnDebtReserve">Gasifier_EconomicExample!$B$107</definedName>
+    <definedName name="InterstOnDebtReserve">Gasifier_EconomicExample!$B$202</definedName>
+    <definedName name="KjPerCubicMeter">Gasifier_EconomicExample!$E$12</definedName>
+    <definedName name="KjPerKg">Gasifier_EconomicExample!$E$14</definedName>
+    <definedName name="LaborCost">Gasifier_EconomicExample!$B$89</definedName>
+    <definedName name="LaborCostPerKwh">Gasifier_EconomicExample!$C$89</definedName>
+    <definedName name="LAC">Gasifier_EconomicExample!$E$237</definedName>
+    <definedName name="LACCostOfMoney">Gasifier_EconomicExample!$B$209</definedName>
+    <definedName name="LightDieselDensity">Gasifier_EconomicExample!$H$13</definedName>
+    <definedName name="LightDieselHigherHeatingValueKjPerL">Gasifier_EconomicExample!$J$13</definedName>
+    <definedName name="LightDieselHigherHeatingValueMjPerKg">Gasifier_EconomicExample!$I$13</definedName>
+    <definedName name="LightDieselLowerHeatingValueKjPerL">Gasifier_EconomicExample!$L$13</definedName>
+    <definedName name="LightDieselLowerHeatingValueMjPerKg">Gasifier_EconomicExample!$K$13</definedName>
+    <definedName name="MaintenanceCost">Gasifier_EconomicExample!$B$90</definedName>
+    <definedName name="MaintenanceCostPerKwh">Gasifier_EconomicExample!$C$90</definedName>
+    <definedName name="Management">Gasifier_EconomicExample!$B$94</definedName>
+    <definedName name="ManagementPerKwh">Gasifier_EconomicExample!$C$94</definedName>
+    <definedName name="MetricTonsPerHour">Gasifier_EconomicExample!$E$16</definedName>
+    <definedName name="MoistureContent">Gasifier_EconomicExample!$B$66</definedName>
+    <definedName name="NaturalGasDensity">Gasifier_EconomicExample!$H$17</definedName>
+    <definedName name="NaturalGasHigherHeatingValueKjPerL">Gasifier_EconomicExample!$J$17</definedName>
+    <definedName name="NaturalGasHigherHeatingValueMjPerKg">Gasifier_EconomicExample!$I$17</definedName>
+    <definedName name="NaturalGasLowerHeatingValueKjPerL">Gasifier_EconomicExample!$L$17</definedName>
+    <definedName name="NaturalGasLowerHeatingValueMjPerKg">Gasifier_EconomicExample!$K$17</definedName>
+    <definedName name="NetCHPEfficiency">Gasifier_EconomicExample!$B$84</definedName>
+    <definedName name="NetElectricalCapacity">Gasifier_EconomicExample!$B$37</definedName>
+    <definedName name="NetHHVEfficiencyofPowerGeneration">Gasifier_EconomicExample!$B$43</definedName>
+    <definedName name="NitrogenGas">Gasifier_EconomicExample!$B$52</definedName>
+    <definedName name="NonFuelExpensesCF">Gasifier_EconomicExample!$B$196</definedName>
+    <definedName name="OtherOperatingExpenses">Gasifier_EconomicExample!$B$95</definedName>
+    <definedName name="OtherOperatingExpensesPerKwh">Gasifier_EconomicExample!$C$95</definedName>
+    <definedName name="OverallNetSystemEfficiency">Gasifier_EconomicExample!$B$44</definedName>
+    <definedName name="Oxygen">Gasifier_EconomicExample!$B$51</definedName>
+    <definedName name="ParasiticLoad">Gasifier_EconomicExample!$B$38</definedName>
+    <definedName name="PowerGenerationCapitalCost">Gasifier_EconomicExample!$B$30</definedName>
+    <definedName name="PowerGenerationCapitalCostPerKwe">Gasifier_EconomicExample!$C$30</definedName>
+    <definedName name="PresentWorth">Gasifier_EconomicExample!$B$210</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Gasifier_EconomicExample!$A$242:$K$269</definedName>
+    <definedName name="ProductionTaxCredit">Gasifier_EconomicExample!$B$102</definedName>
+    <definedName name="RealCostOfMoney">Gasifier_EconomicExample!$B$217</definedName>
+    <definedName name="RebtRecovery">Gasifier_EconomicExample!$B$190</definedName>
+    <definedName name="RecoveredHeat">Gasifier_EconomicExample!$B$78</definedName>
+    <definedName name="SalesPriceForChar">Gasifier_EconomicExample!$B$108</definedName>
+    <definedName name="StateTaxRate">Gasifier_EconomicExample!$B$101</definedName>
+    <definedName name="TaxCredit">Gasifier_EconomicExample!$B$204</definedName>
+    <definedName name="Taxes">Gasifier_EconomicExample!$B$205</definedName>
+    <definedName name="TaxWithoutCredit">Gasifier_EconomicExample!$B$203</definedName>
+    <definedName name="TotalCostOfPlant">Gasifier_EconomicExample!$B$129</definedName>
+    <definedName name="TotalDebtCost">Gasifier_EconomicExample!$B$131</definedName>
+    <definedName name="TotalEquityCost">Gasifier_EconomicExample!$B$130</definedName>
+    <definedName name="TotalExpensesIncludingFuel">Gasifier_EconomicExample!$B$97</definedName>
+    <definedName name="TotalExpensesIncludingFuelPerKwh">Gasifier_EconomicExample!$C$97</definedName>
+    <definedName name="TotalFacilityCapitalCost">Gasifier_EconomicExample!$B$33</definedName>
+    <definedName name="TotalFacilityCapitalCostPerKwe">Gasifier_EconomicExample!$C$33</definedName>
+    <definedName name="TotalFuelPowerInput">Gasifier_EconomicExample!$B$57</definedName>
+    <definedName name="TotalHearProductionRate">Gasifier_EconomicExample!$B$76</definedName>
+    <definedName name="TotalIncomeFromHeatSales">Gasifier_EconomicExample!$B$81</definedName>
+    <definedName name="TotalNonFuelExpenses">Gasifier_EconomicExample!$B$96</definedName>
+    <definedName name="TotalNonFuelExpensesPerKwh">Gasifier_EconomicExample!$C$96</definedName>
+    <definedName name="TotalPresentWorth">Gasifier_EconomicExample!$B$211</definedName>
+    <definedName name="USTonsPerHour">Gasifier_EconomicExample!$C$16</definedName>
+    <definedName name="Utilities">Gasifier_EconomicExample!$B$93</definedName>
+    <definedName name="UtilitiesPerKwh">Gasifier_EconomicExample!$C$93</definedName>
+    <definedName name="WasteTreatment">Gasifier_EconomicExample!$B$91</definedName>
+    <definedName name="WasteTreatmentPerKwh">Gasifier_EconomicExample!$C$91</definedName>
+    <definedName name="Year">Gasifier_EconomicExample!$C$185</definedName>
   </definedNames>
   <calcPr calcId="181029" iterate="1" iterateCount="1000" iterateDelta="10000" calcOnSave="0"/>
   <extLst>
@@ -100,9 +292,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Annual Hours</t>
-  </si>
-  <si>
     <t>Year</t>
   </si>
   <si>
@@ -166,9 +355,6 @@
     <t>Generalized Revenue Requirements Model</t>
   </si>
   <si>
-    <t>Capacity Factor (%)</t>
-  </si>
-  <si>
     <t>Income other than energy</t>
   </si>
   <si>
@@ -376,9 +562,6 @@
     <t>Escalation--PTC:  Specified index for production tax credit</t>
   </si>
   <si>
-    <t>Total Facility Capital Cost ($)</t>
-  </si>
-  <si>
     <t>Capital Cost</t>
   </si>
   <si>
@@ -388,12 +571,6 @@
     <t>Recovered heat (kWth)</t>
   </si>
   <si>
-    <t>Gross Electrical Capacity (kWe)</t>
-  </si>
-  <si>
-    <t>Parasitic Load (kWe)</t>
-  </si>
-  <si>
     <t>Enter $/MMBtu</t>
   </si>
   <si>
@@ -427,9 +604,6 @@
     <t>Capital Cost: Total installed cost of plant including electrical plus heat recovery and distribution</t>
   </si>
   <si>
-    <t>Net Electrical Capacity (kWe)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Gross Electrical Capacity:  Total gross generating capacity </t>
   </si>
   <si>
@@ -526,33 +700,7 @@
     <t>Total Expenses Including Fuel ($/y)</t>
   </si>
   <si>
-    <t>Gas Cleaning System Capital Cost ($)</t>
-  </si>
-  <si>
-    <t>Emission Control System Capital Cost ($)</t>
-  </si>
-  <si>
-    <t>($/kWe-net)</t>
-  </si>
-  <si>
     <t>($)</t>
-  </si>
-  <si>
-    <t>Heat Recovery System Capital Cost ($)</t>
-  </si>
-  <si>
-    <r>
-      <t>Enter Btu/ft</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>3</t>
-    </r>
   </si>
   <si>
     <r>
@@ -567,9 +715,6 @@
       </rPr>
       <t>3</t>
     </r>
-  </si>
-  <si>
-    <t>Annual Net Electricity Generation (kWh)</t>
   </si>
   <si>
     <t>Net Electrical Capacity:  Net power available for on-site use or grid sales</t>
@@ -628,19 +773,10 @@
     </r>
   </si>
   <si>
-    <t>Gasifier and Feedstock Handling System Capital Cost ($)</t>
-  </si>
-  <si>
     <t>Example:  Biomass Gasification/Power Generation</t>
   </si>
   <si>
     <t>This simplified model computes both the current $ and constant $ level annual cost of electricity for a model gasification-power generation facility</t>
-  </si>
-  <si>
-    <t>Overall Net System Efficiency (%)</t>
-  </si>
-  <si>
-    <t>Dual Fuel:  Fraction of Input Energy (%)</t>
   </si>
   <si>
     <t>Gasoline</t>
@@ -724,6 +860,400 @@
   </si>
   <si>
     <r>
+      <t>CO</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>O</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>Clean Gas Power Input (kW)</t>
+  </si>
+  <si>
+    <t>Dual Fuel Power Input (kW)</t>
+  </si>
+  <si>
+    <r>
+      <t>Clean Gas Flow Rate (m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/h)</t>
+    </r>
+  </si>
+  <si>
+    <t>Dual Fuel Flow Rate (L/h)</t>
+  </si>
+  <si>
+    <t>Higher Heating Value (kJ/L)</t>
+  </si>
+  <si>
+    <t>Lower Heating Value (kJ/L)</t>
+  </si>
+  <si>
+    <r>
+      <t>(kJ/m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Clean Gas Flow Rate (kg/h)</t>
+  </si>
+  <si>
+    <t>Clean gas flow rate in dry metric tons per year</t>
+  </si>
+  <si>
+    <t>Annual Clean Gas Consumption (t/y)</t>
+  </si>
+  <si>
+    <t>Annual Dual Fuel Consumption (L/y)</t>
+  </si>
+  <si>
+    <t>Higher Heating Value of Biomass Feedstock to Gasifier (kJ/kg)</t>
+  </si>
+  <si>
+    <t>Higher heating value of biomass fed to gasifier, dry basis</t>
+  </si>
+  <si>
+    <t>Moisture Content of Biomass Feedstock to Gasifier (% wet basis)</t>
+  </si>
+  <si>
+    <t>Wet basis moisture content of biomass fed to gasifier</t>
+  </si>
+  <si>
+    <t>Biomass Feed Rate (kg/h)--dry basis</t>
+  </si>
+  <si>
+    <t>Annual Biomass Consumption (t/y)--dry basis</t>
+  </si>
+  <si>
+    <t>Annual Biomass Consumption (t/y)--wet basis</t>
+  </si>
+  <si>
+    <t>Ash Content of Biomass (% dry matter)</t>
+  </si>
+  <si>
+    <t>Overall system efficiency:  biomass into gasifier to electricity</t>
+  </si>
+  <si>
+    <t>Carbon Concentration of Char (% dry basis)</t>
+  </si>
+  <si>
+    <t>Annual Char Production (t/y)--dry</t>
+  </si>
+  <si>
+    <t>Char Production Rate (kg/h)--dry</t>
+  </si>
+  <si>
+    <t>Approximate annual char production in dry metric tons per year</t>
+  </si>
+  <si>
+    <t>Income--Char/Ash</t>
+  </si>
+  <si>
+    <t>Annual Income from Char/Ash Sales ($/y)</t>
+  </si>
+  <si>
+    <t>Biomass Fuel Cost ($/t)--use negative value for tipping fee</t>
+  </si>
+  <si>
+    <t>Dual Fuel Cost ($/L)</t>
+  </si>
+  <si>
+    <t>Waste Treatment/Disposal ($/y)--for char/ash, see below</t>
+  </si>
+  <si>
+    <t>Sales Price for Char/Ash ($/t)--for disposal, include above</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biomass Fuel Cost </t>
+  </si>
+  <si>
+    <t>Dual Fuel Cost</t>
+  </si>
+  <si>
+    <t>Escalation--Dual Fuel (%/y)</t>
+  </si>
+  <si>
+    <t>Escalation--Biomass Fuel (%/y)</t>
+  </si>
+  <si>
+    <t>Fraction in Year</t>
+  </si>
+  <si>
+    <t>Escalation--Production Tax Credit (%/y)</t>
+  </si>
+  <si>
+    <t>Escalation--Heat sales (%/y)</t>
+  </si>
+  <si>
+    <t>Escalation--Char/Ash sales (%/y)</t>
+  </si>
+  <si>
+    <t>Heat Sales Price Conversion:</t>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  Default assumes heavy diesel fuel, see table above for other fuels</t>
+    </r>
+  </si>
+  <si>
+    <t>Biomass Fuel Cost:  Cost of biomass fuel for gasifier in $/dry metric ton, to convert from $/short ton, see calculator above</t>
+  </si>
+  <si>
+    <t>Production Tax Credit on Electrical Energy.</t>
+  </si>
+  <si>
+    <t>Value, if any, of residual char/ash, in $/dry metric ton</t>
+  </si>
+  <si>
+    <t>Escalation--Char/Ash:  escalation rate applied to sales of char or ash</t>
+  </si>
+  <si>
+    <t>Capital costs shown are for example only.  Actual costs may vary.</t>
+  </si>
+  <si>
+    <t>Capacity Payment:  Payment made from power purchaser if plant can guarantee capacity (depends on contract)</t>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  Dual fuel, if any.  Default assumes heavy diesel fuel.  For biomass derived fuel gas only, insert zero</t>
+    </r>
+  </si>
+  <si>
+    <t>Sensitivity Analysis</t>
+  </si>
+  <si>
+    <t>Enter base, minimum, and maximum values in input cells</t>
+  </si>
+  <si>
+    <t>Fuel Cost</t>
+  </si>
+  <si>
+    <t>Heat Price</t>
+  </si>
+  <si>
+    <t>Debt Ratio</t>
+  </si>
+  <si>
+    <t>Debt Interest Rate</t>
+  </si>
+  <si>
+    <t>Cost of Equity</t>
+  </si>
+  <si>
+    <t>Capacity Factor</t>
+  </si>
+  <si>
+    <t>Case</t>
+  </si>
+  <si>
+    <t>Relative Change</t>
+  </si>
+  <si>
+    <t>LAC Current</t>
+  </si>
+  <si>
+    <t>LAC Constant</t>
+  </si>
+  <si>
+    <t>Relative Change in COE</t>
+  </si>
+  <si>
+    <t>Efficiency</t>
+  </si>
+  <si>
+    <t>COE Current</t>
+  </si>
+  <si>
+    <t>COE Constant</t>
+  </si>
+  <si>
+    <t>(%)</t>
+  </si>
+  <si>
+    <t>($/kWh)</t>
+  </si>
+  <si>
+    <t>($/t)</t>
+  </si>
+  <si>
+    <t>Formula Values</t>
+  </si>
+  <si>
+    <t>Base</t>
+  </si>
+  <si>
+    <t>Net Power Generation Efficiency:  heat sales price =</t>
+  </si>
+  <si>
+    <r>
+      <t>Enter Btu/ft</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gasifier and Feedstock Handling System Capital Cost ($)</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas Cleaning System Capital Cost ($)</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Power Generation/Interconnect System Capital Cost ($)</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Emission Control System Capital Cost ($)</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heat Recovery System Capital Cost ($)</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>($/kWe-net)</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Facility Capital Cost ($)</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gross Electrical Capacity (kWe)</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Net Electrical Capacity (kWe)</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parasitic Load (kWe)</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Capacity Factor (%)</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Annual Hours</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Annual Net Electricity Generation (kWh)</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>HHV Efficiency of Gasification System--Biomass to Clean Gas (%)</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Net HHV Efficiency of Power Generation incl. Dual Fuel (%)</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Overall Net System Efficiency (%)</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dual Fuel:  Fraction of Input Energy (%)</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clean Gas Composition (% by volume, dry)</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>Hydrocarbons (as CH</t>
     </r>
     <r>
@@ -743,51 +1273,11 @@
       </rPr>
       <t>)</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>CO</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>N</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>O</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <t>Clean Gas Molecular Mass (kg/kmol)</t>
+    <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -810,9 +1300,30 @@
       </rPr>
       <t>)</t>
     </r>
-  </si>
-  <si>
-    <t>Clean Gas Composition (% by volume, dry)</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Clean Gas Higher Heating Value (kJ/m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -835,305 +1346,11 @@
       </rPr>
       <t>)</t>
     </r>
-  </si>
-  <si>
-    <t>Clean Gas Power Input (kW)</t>
-  </si>
-  <si>
-    <t>Net HHV Efficiency of Power Generation incl. Dual Fuel (%)</t>
+    <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <t>Total Fuel Power Input (kW)</t>
-  </si>
-  <si>
-    <t>Dual Fuel Power Input (kW)</t>
-  </si>
-  <si>
-    <r>
-      <t>Clean Gas Higher Heating Value (kJ/m</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Clean Gas Flow Rate (m</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>/h)</t>
-    </r>
-  </si>
-  <si>
-    <t>Dual Fuel Flow Rate (L/h)</t>
-  </si>
-  <si>
-    <t>Higher Heating Value (kJ/L)</t>
-  </si>
-  <si>
-    <t>Lower Heating Value (kJ/L)</t>
-  </si>
-  <si>
-    <r>
-      <t>(kJ/m</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>Clean Gas Flow Rate (kg/h)</t>
-  </si>
-  <si>
-    <t>Clean gas flow rate in dry metric tons per year</t>
-  </si>
-  <si>
-    <t>Annual Clean Gas Consumption (t/y)</t>
-  </si>
-  <si>
-    <t>Annual Dual Fuel Consumption (L/y)</t>
-  </si>
-  <si>
-    <t>Higher Heating Value of Biomass Feedstock to Gasifier (kJ/kg)</t>
-  </si>
-  <si>
-    <t>Higher heating value of biomass fed to gasifier, dry basis</t>
-  </si>
-  <si>
-    <t>Moisture Content of Biomass Feedstock to Gasifier (% wet basis)</t>
-  </si>
-  <si>
-    <t>Wet basis moisture content of biomass fed to gasifier</t>
-  </si>
-  <si>
-    <t>Biomass Feed Rate (kg/h)--dry basis</t>
-  </si>
-  <si>
-    <t>HHV Efficiency of Gasification System--Biomass to Clean Gas (%)</t>
-  </si>
-  <si>
-    <t>Annual Biomass Consumption (t/y)--dry basis</t>
-  </si>
-  <si>
-    <t>Annual Biomass Consumption (t/y)--wet basis</t>
-  </si>
-  <si>
-    <t>Ash Content of Biomass (% dry matter)</t>
-  </si>
-  <si>
-    <t>Overall system efficiency:  biomass into gasifier to electricity</t>
-  </si>
-  <si>
-    <t>Carbon Concentration of Char (% dry basis)</t>
-  </si>
-  <si>
-    <t>Annual Char Production (t/y)--dry</t>
-  </si>
-  <si>
-    <t>Char Production Rate (kg/h)--dry</t>
-  </si>
-  <si>
-    <t>Approximate annual char production in dry metric tons per year</t>
-  </si>
-  <si>
-    <t>Income--Char/Ash</t>
-  </si>
-  <si>
-    <t>Annual Income from Char/Ash Sales ($/y)</t>
-  </si>
-  <si>
-    <t>Biomass Fuel Cost ($/t)--use negative value for tipping fee</t>
-  </si>
-  <si>
-    <t>Dual Fuel Cost ($/L)</t>
-  </si>
-  <si>
-    <t>Waste Treatment/Disposal ($/y)--for char/ash, see below</t>
-  </si>
-  <si>
-    <t>Sales Price for Char/Ash ($/t)--for disposal, include above</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biomass Fuel Cost </t>
-  </si>
-  <si>
-    <t>Dual Fuel Cost</t>
-  </si>
-  <si>
-    <t>Escalation--Dual Fuel (%/y)</t>
-  </si>
-  <si>
-    <t>Escalation--Biomass Fuel (%/y)</t>
-  </si>
-  <si>
-    <t>Fraction in Year</t>
-  </si>
-  <si>
-    <t>Escalation--Production Tax Credit (%/y)</t>
-  </si>
-  <si>
-    <t>Escalation--Heat sales (%/y)</t>
-  </si>
-  <si>
-    <t>Escalation--Char/Ash sales (%/y)</t>
-  </si>
-  <si>
-    <t>Heat Sales Price Conversion:</t>
-  </si>
-  <si>
-    <r>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  Default assumes heavy diesel fuel, see table above for other fuels</t>
-    </r>
-  </si>
-  <si>
-    <t>Biomass Fuel Cost:  Cost of biomass fuel for gasifier in $/dry metric ton, to convert from $/short ton, see calculator above</t>
-  </si>
-  <si>
-    <t>Power Generation/Interconnect System Capital Cost ($)</t>
-  </si>
-  <si>
-    <t>Production Tax Credit on Electrical Energy.</t>
-  </si>
-  <si>
-    <t>Value, if any, of residual char/ash, in $/dry metric ton</t>
-  </si>
-  <si>
-    <t>Escalation--Char/Ash:  escalation rate applied to sales of char or ash</t>
-  </si>
-  <si>
-    <t>Capital costs shown are for example only.  Actual costs may vary.</t>
-  </si>
-  <si>
-    <t>Capacity Payment:  Payment made from power purchaser if plant can guarantee capacity (depends on contract)</t>
-  </si>
-  <si>
-    <r>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  Dual fuel, if any.  Default assumes heavy diesel fuel.  For biomass derived fuel gas only, insert zero</t>
-    </r>
-  </si>
-  <si>
-    <t>Sensitivity Analysis</t>
-  </si>
-  <si>
-    <t>Enter base, minimum, and maximum values in input cells</t>
-  </si>
-  <si>
-    <t>Fuel Cost</t>
-  </si>
-  <si>
-    <t>Heat Price</t>
-  </si>
-  <si>
-    <t>Debt Ratio</t>
-  </si>
-  <si>
-    <t>Debt Interest Rate</t>
-  </si>
-  <si>
-    <t>Cost of Equity</t>
-  </si>
-  <si>
-    <t>Capacity Factor</t>
-  </si>
-  <si>
-    <t>Case</t>
-  </si>
-  <si>
-    <t>Relative Change</t>
-  </si>
-  <si>
-    <t>LAC Current</t>
-  </si>
-  <si>
-    <t>LAC Constant</t>
-  </si>
-  <si>
-    <t>Relative Change in COE</t>
-  </si>
-  <si>
-    <t>Efficiency</t>
-  </si>
-  <si>
-    <t>COE Current</t>
-  </si>
-  <si>
-    <t>COE Constant</t>
-  </si>
-  <si>
-    <t>(%)</t>
-  </si>
-  <si>
-    <t>($/kWh)</t>
-  </si>
-  <si>
-    <t>($/t)</t>
-  </si>
-  <si>
-    <t>Formula Values</t>
-  </si>
-  <si>
-    <t>Base</t>
-  </si>
-  <si>
-    <t>Net Power Generation Efficiency:  heat sales price =</t>
+    <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1141,21 +1358,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="6">
-    <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="#,##0.0"/>
-    <numFmt numFmtId="171" formatCode="#,##0.000"/>
-    <numFmt numFmtId="172" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="171" formatCode="#,##0.0"/>
+    <numFmt numFmtId="175" formatCode="#,##0.000"/>
+    <numFmt numFmtId="176" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="11">
     <font>
       <sz val="9"/>
       <name val="Helv"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Geneva"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="16"/>
@@ -1207,6 +1426,7 @@
     </font>
     <font>
       <sz val="12"/>
+      <color indexed="8"/>
       <name val="Verdana"/>
       <family val="2"/>
     </font>
@@ -1701,13 +1921,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1725,10 +1945,10 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="168" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1740,9 +1960,9 @@
     </xf>
     <xf numFmtId="3" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="169" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1760,18 +1980,18 @@
     <xf numFmtId="2" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="168" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="171" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
@@ -1784,12 +2004,12 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1818,16 +2038,16 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="171" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="4" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="171" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="175" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="172" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1844,10 +2064,10 @@
     <xf numFmtId="3" fontId="3" fillId="4" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="3" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1862,10 +2082,10 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="3" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1885,7 +2105,7 @@
     <xf numFmtId="3" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="3" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1894,13 +2114,13 @@
     <xf numFmtId="3" fontId="3" fillId="7" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="175" fontId="3" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="171" fontId="3" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="3" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="7" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1912,22 +2132,22 @@
     <xf numFmtId="3" fontId="3" fillId="6" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="6" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="3" fillId="6" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="6" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="3" fillId="6" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="3" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="3" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="3" fillId="3" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="3" fillId="7" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="171" fontId="3" fillId="7" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="7" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="3" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1939,13 +2159,13 @@
     <xf numFmtId="3" fontId="3" fillId="7" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="175" fontId="3" fillId="7" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="171" fontId="3" fillId="7" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="7" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="171" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="3" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1969,7 +2189,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="7" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1977,7 +2197,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="7" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="7" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="172" fontId="7" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="7" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1990,7 +2210,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2005,7 +2225,7 @@
     <xf numFmtId="3" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2014,22 +2234,22 @@
     <xf numFmtId="2" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2041,7 +2261,7 @@
     <xf numFmtId="3" fontId="3" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="3" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2050,10 +2270,10 @@
     <xf numFmtId="2" fontId="3" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="3" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="3" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2289,7 +2509,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2369-4408-9813-46327B40A789}"/>
+              <c16:uniqueId val="{00000000-5F19-4D99-BF85-37BA6F9E2919}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2469,7 +2689,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2369-4408-9813-46327B40A789}"/>
+              <c16:uniqueId val="{00000001-5F19-4D99-BF85-37BA6F9E2919}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2647,7 +2867,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-2369-4408-9813-46327B40A789}"/>
+              <c16:uniqueId val="{00000002-5F19-4D99-BF85-37BA6F9E2919}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2825,7 +3045,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-2369-4408-9813-46327B40A789}"/>
+              <c16:uniqueId val="{00000003-5F19-4D99-BF85-37BA6F9E2919}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3005,7 +3225,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-2369-4408-9813-46327B40A789}"/>
+              <c16:uniqueId val="{00000004-5F19-4D99-BF85-37BA6F9E2919}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3183,7 +3403,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-2369-4408-9813-46327B40A789}"/>
+              <c16:uniqueId val="{00000005-5F19-4D99-BF85-37BA6F9E2919}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3361,7 +3581,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-2369-4408-9813-46327B40A789}"/>
+              <c16:uniqueId val="{00000006-5F19-4D99-BF85-37BA6F9E2919}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3373,11 +3593,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="263128432"/>
+        <c:axId val="224194840"/>
         <c:axId val="1"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="263128432"/>
+        <c:axId val="224194840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3420,8 +3640,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.42619311875693672"/>
-              <c:y val="0.86460032626427408"/>
+              <c:x val="0.42619317585301841"/>
+              <c:y val="0.86460026375590115"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -3509,8 +3729,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.2208657047724751E-2"/>
-              <c:y val="0.24469820554649266"/>
+              <c:x val="1.2208690580344123E-2"/>
+              <c:y val="0.24469829160062029"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -3550,7 +3770,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="263128432"/>
+        <c:crossAx val="224194840"/>
         <c:crossesAt val="-100000000"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3570,10 +3790,12 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15094339622641509"/>
-          <c:y val="0.92659053833605221"/>
-          <c:w val="0.7635960044395117"/>
-          <c:h val="7.01468189233279E-2"/>
+          <c:wMode val="edge"/>
+          <c:hMode val="edge"/>
+          <c:x val="0.15094336541265674"/>
+          <c:y val="0.92659063279937803"/>
+          <c:w val="0.91453939924176142"/>
+          <c:h val="0.99673733091055927"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3839,7 +4061,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3008-4CAB-BA30-5F469FB69C50}"/>
+              <c16:uniqueId val="{00000000-7D0E-407C-B25E-91CB8895A283}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4019,7 +4241,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3008-4CAB-BA30-5F469FB69C50}"/>
+              <c16:uniqueId val="{00000001-7D0E-407C-B25E-91CB8895A283}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4197,7 +4419,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3008-4CAB-BA30-5F469FB69C50}"/>
+              <c16:uniqueId val="{00000002-7D0E-407C-B25E-91CB8895A283}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4375,7 +4597,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-3008-4CAB-BA30-5F469FB69C50}"/>
+              <c16:uniqueId val="{00000003-7D0E-407C-B25E-91CB8895A283}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4555,7 +4777,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-3008-4CAB-BA30-5F469FB69C50}"/>
+              <c16:uniqueId val="{00000004-7D0E-407C-B25E-91CB8895A283}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4733,7 +4955,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-3008-4CAB-BA30-5F469FB69C50}"/>
+              <c16:uniqueId val="{00000005-7D0E-407C-B25E-91CB8895A283}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4911,7 +5133,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-3008-4CAB-BA30-5F469FB69C50}"/>
+              <c16:uniqueId val="{00000006-7D0E-407C-B25E-91CB8895A283}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4923,11 +5145,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="349480632"/>
+        <c:axId val="224194512"/>
         <c:axId val="1"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="349480632"/>
+        <c:axId val="224194512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4970,8 +5192,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.42286348501664817"/>
-              <c:y val="0.86460032626427408"/>
+              <c:x val="0.42286345873432485"/>
+              <c:y val="0.86460026375590115"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -5059,8 +5281,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.2208657047724751E-2"/>
-              <c:y val="0.21370309951060359"/>
+              <c:x val="1.2208690580344123E-2"/>
+              <c:y val="0.21370310707888193"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -5100,7 +5322,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="349480632"/>
+        <c:crossAx val="224194512"/>
         <c:crossesAt val="-100000000"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5120,10 +5342,12 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.14761376248612654"/>
-          <c:y val="0.92659053833605221"/>
-          <c:w val="0.7635960044395117"/>
-          <c:h val="7.01468189233279E-2"/>
+          <c:wMode val="edge"/>
+          <c:hMode val="edge"/>
+          <c:x val="0.14761376494604841"/>
+          <c:y val="0.92659063279937803"/>
+          <c:w val="0.91120979877515307"/>
+          <c:h val="0.99673733091055927"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -5189,7 +5413,7 @@
     <tabColor indexed="12"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="130" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
@@ -5203,7 +5427,7 @@
     <tabColor indexed="13"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="130" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
@@ -5228,10 +5452,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1025" name="AutoShape 1">
+        <xdr:cNvPr id="1689" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72729D8E-BFAE-4BA3-9DAF-D7E8FC91FC58}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E49138D8-6749-45BC-AC1E-CE8B7351D939}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5280,10 +5504,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1026" name="AutoShape 2">
+        <xdr:cNvPr id="1690" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8CB2CE2-6DC3-4745-AF18-53BB6B580EDF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FE9381C-2FD2-455F-B3E2-DA8E1FBAA6E7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5332,10 +5556,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1027" name="AutoShape 3">
+        <xdr:cNvPr id="1691" name="AutoShape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FD582EF-53F4-49C5-9D6F-1F869F70605F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0669B2F-8795-44E2-972A-3467D81E4D3D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5384,10 +5608,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1028" name="AutoShape 4">
+        <xdr:cNvPr id="1692" name="AutoShape 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A84D1293-1B1A-49C9-851C-C95B55688642}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6611A7D-FF5D-4D7F-A524-05A3B9F4910B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5436,10 +5660,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1029" name="AutoShape 5">
+        <xdr:cNvPr id="1693" name="AutoShape 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC0DF305-C47E-4D22-AB26-C7A122096B1E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{064C0103-CE33-439F-BDD2-7989C3825B8D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5488,10 +5712,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1030" name="AutoShape 6">
+        <xdr:cNvPr id="1694" name="AutoShape 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF1927F5-172B-4278-976F-DE36208C9282}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3E11C02-BA6A-43BA-AE76-6CB9D369742B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5540,10 +5764,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1031" name="AutoShape 7">
+        <xdr:cNvPr id="1695" name="AutoShape 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF06DB48-3168-4ED6-96BA-6BB8A3A9D2AB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78ED70A6-FC7E-4223-949A-3CB29CE30B8E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5599,10 +5823,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1032" name="AutoShape 8">
+        <xdr:cNvPr id="1696" name="AutoShape 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4973C2B5-AE8E-4169-B1D0-6F5712B43A3B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B6B1F9D-BA8A-4E8C-9F2A-2CCF399E028C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5651,10 +5875,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1033" name="AutoShape 9">
+        <xdr:cNvPr id="1697" name="AutoShape 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41AE4E8C-BEB2-4664-A610-A0775919F1DD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76288558-F77E-4FED-B4C0-8D0276D85B54}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5703,10 +5927,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1034" name="AutoShape 10">
+        <xdr:cNvPr id="1698" name="AutoShape 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B4C3306-7355-4C84-A409-45877BEF3F01}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E224580-46F1-4A47-BA21-4121201C1E18}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5755,10 +5979,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1035" name="AutoShape 11">
+        <xdr:cNvPr id="1699" name="AutoShape 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE56A30D-2F4B-4EC6-B9CB-3D48410B03DC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44A8B400-0049-411D-AB19-46CA672C4957}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5807,10 +6031,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1036" name="AutoShape 12">
+        <xdr:cNvPr id="1700" name="AutoShape 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1A3C4D1-5659-4A95-B20F-245CBC24D6DB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D5341CF-BC76-4534-8EEB-A7B0BA30F352}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5859,10 +6083,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1037" name="AutoShape 13">
+        <xdr:cNvPr id="1701" name="AutoShape 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A4ECAFC-C5E2-4045-A5C9-77A1223D9F87}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77D1F573-2612-42F3-BE70-2F3ABE4C84A4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5911,10 +6135,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1038" name="AutoShape 14">
+        <xdr:cNvPr id="1702" name="AutoShape 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A940F7C-A657-4D3F-8EE9-F2237199B23E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3140FFCB-3D39-4E04-962A-E80B3C3B913E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5963,10 +6187,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1039" name="AutoShape 15">
+        <xdr:cNvPr id="1703" name="AutoShape 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F21399F-6E8F-49F6-A722-3BD3B3A7B600}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBC9462A-7BC0-4786-8EB0-173480CAB20E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6007,13 +6231,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8582025" cy="5838825"/>
+    <xdr:ext cx="8572500" cy="5819775"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E41284D-D801-4016-85B4-854FDADFD1F1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37145E14-A9F1-429D-AE9F-B38B50E143CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6040,13 +6264,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8582025" cy="5838825"/>
+    <xdr:ext cx="8572500" cy="5819775"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C9D26EF-BE34-42AE-8605-6E42346BBE63}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B60A3A14-67E5-4EEE-A55A-2D018D0A238C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6371,7 +6595,9 @@
   </sheetPr>
   <dimension ref="A1:BE291"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A197" workbookViewId="0">
+      <selection activeCell="B220" sqref="B220"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12"/>
   <cols>
@@ -6402,49 +6628,49 @@
   <sheetData>
     <row r="1" spans="1:12" ht="20.25">
       <c r="A1" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="20.25">
       <c r="A2" s="1" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="2" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="12.75" thickBot="1"/>
     <row r="9" spans="1:12">
       <c r="C9" s="129" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D9" s="92"/>
       <c r="E9" s="94"/>
       <c r="G9" s="129" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="H9" s="92"/>
       <c r="I9" s="92"/>
@@ -6454,41 +6680,41 @@
     </row>
     <row r="10" spans="1:12" ht="48.75" thickBot="1">
       <c r="C10" s="95" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="D10" s="93"/>
       <c r="E10" s="96" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G10" s="95" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="H10" s="97" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="I10" s="97" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="J10" s="97" t="s">
-        <v>211</v>
+        <v>188</v>
       </c>
       <c r="K10" s="97" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="L10" s="98" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="25.5">
       <c r="C11" s="78" t="s">
-        <v>169</v>
+        <v>253</v>
       </c>
       <c r="D11" s="79"/>
       <c r="E11" s="80" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="G11" s="116" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="H11" s="112">
         <v>750</v>
@@ -6497,14 +6723,14 @@
         <v>47.3</v>
       </c>
       <c r="J11" s="112">
-        <f>I11*H11</f>
+        <f>GasolineHigherHeatingValueMjPerKg*GasolineDensity</f>
         <v>35475</v>
       </c>
       <c r="K11" s="113">
         <v>44</v>
       </c>
       <c r="L11" s="122">
-        <f>K11*H11</f>
+        <f>GasolineLowerHeatingValueMjPerKg*GasolineDensity</f>
         <v>33000</v>
       </c>
     </row>
@@ -6513,10 +6739,10 @@
         <v>150</v>
       </c>
       <c r="D12" s="82" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E12" s="83">
-        <f>C12*1.055056*35.31</f>
+        <f>BtuPerCubicFoot*1.055056*35.31</f>
         <v>5588.104104</v>
       </c>
       <c r="G12" s="99"/>
@@ -6528,14 +6754,14 @@
     </row>
     <row r="13" spans="1:12" ht="24">
       <c r="C13" s="78" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D13" s="79"/>
       <c r="E13" s="80" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G13" s="116" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="H13" s="112">
         <v>810</v>
@@ -6544,14 +6770,14 @@
         <v>46.1</v>
       </c>
       <c r="J13" s="112">
-        <f>I13*H13</f>
+        <f>LightDieselHigherHeatingValueMjPerKg*LightDieselDensity</f>
         <v>37341</v>
       </c>
       <c r="K13" s="113">
         <v>43.2</v>
       </c>
       <c r="L13" s="122">
-        <f>K13*H13</f>
+        <f>LightDieselLowerHeatingValueMjPerKg*LightDieselDensity</f>
         <v>34992</v>
       </c>
     </row>
@@ -6560,10 +6786,10 @@
         <v>8000</v>
       </c>
       <c r="D14" s="82" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E14" s="83">
-        <f>C14*1.055056/0.4535924</f>
+        <f>BtuPerPound*1.055056/0.4535924</f>
         <v>18608.001368629633</v>
       </c>
       <c r="G14" s="99"/>
@@ -6575,14 +6801,14 @@
     </row>
     <row r="15" spans="1:12" ht="24">
       <c r="C15" s="78" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D15" s="79"/>
       <c r="E15" s="80" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G15" s="116" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="H15" s="112">
         <v>850</v>
@@ -6591,24 +6817,24 @@
         <v>45.5</v>
       </c>
       <c r="J15" s="112">
-        <f>I15*H15</f>
+        <f>HeavyDieselHigherHeatingValueMjPerKg*HeavyDieselDensity</f>
         <v>38675</v>
       </c>
       <c r="K15" s="113">
         <v>42.8</v>
       </c>
       <c r="L15" s="122">
-        <f>K15*H15</f>
+        <f>HeavyDieselLowerHeatingValueMjPerKg*HeavyDieselDensity</f>
         <v>36380</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="14.25" thickBot="1">
       <c r="C16" s="84">
-        <f>E16/0.907</f>
+        <f>MetricTonsPerHour/0.907</f>
         <v>26.460859977949283</v>
       </c>
       <c r="D16" s="82" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E16" s="85">
         <v>24</v>
@@ -6617,23 +6843,23 @@
       <c r="H16" s="109"/>
       <c r="I16" s="110"/>
       <c r="J16" s="110" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="K16" s="110"/>
       <c r="L16" s="111" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="24">
       <c r="C17" s="78" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D17" s="79"/>
       <c r="E17" s="80" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G17" s="117" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="H17" s="114">
         <v>0.72399999999999998</v>
@@ -6642,14 +6868,14 @@
         <v>50</v>
       </c>
       <c r="J17" s="123">
-        <f>I17*H17*1000</f>
+        <f>NaturalGasHigherHeatingValueMjPerKg*NaturalGasDensity*1000</f>
         <v>36199.999999999993</v>
       </c>
       <c r="K17" s="115">
         <v>45</v>
       </c>
       <c r="L17" s="124">
-        <f>K17*H17*1000</f>
+        <f>NaturalGasLowerHeatingValueMjPerKg*NaturalGasDensity*1000</f>
         <v>32580</v>
       </c>
     </row>
@@ -6658,10 +6884,10 @@
         <v>20</v>
       </c>
       <c r="D18" s="82" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E18" s="87">
-        <f>C18/0.907</f>
+        <f>DollarPerMetricTons/0.907</f>
         <v>22.050716648291068</v>
       </c>
       <c r="G18" s="103"/>
@@ -6673,14 +6899,14 @@
     </row>
     <row r="19" spans="1:12" ht="25.5">
       <c r="C19" s="78" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="D19" s="79"/>
       <c r="E19" s="80" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="G19" s="117" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="H19" s="114">
         <f>101325*28/8314/298</f>
@@ -6690,14 +6916,14 @@
         <v>10.1</v>
       </c>
       <c r="J19" s="123">
-        <f>I19*H19*1000</f>
+        <f>COHigherHeatingValueMjPerKg*CODensity*1000</f>
         <v>11565.641684681616</v>
       </c>
       <c r="K19" s="115">
         <v>10.1</v>
       </c>
       <c r="L19" s="124">
-        <f>K19*H19*1000</f>
+        <f>COLowerHeatingValueMjPerKg*CODensity*1000</f>
         <v>11565.641684681616</v>
       </c>
     </row>
@@ -6706,10 +6932,10 @@
         <v>5.6</v>
       </c>
       <c r="D20" s="82" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E20" s="87">
-        <f>C20/35.31*2.205</f>
+        <f>CubicFootPerPonds/35.31*2.205</f>
         <v>0.34970263381478334</v>
       </c>
       <c r="G20" s="103"/>
@@ -6721,7 +6947,7 @@
     </row>
     <row r="21" spans="1:12" ht="26.25" customHeight="1" thickBot="1">
       <c r="G21" s="117" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="H21" s="114">
         <f>101325*2/8314/298</f>
@@ -6731,20 +6957,20 @@
         <v>142</v>
       </c>
       <c r="J21" s="123">
-        <f>I21*H21*1000</f>
+        <f>H2HigherHeatingValueMjPerKg*H2Density*1000</f>
         <v>11614.717957742499</v>
       </c>
       <c r="K21" s="115">
         <v>120</v>
       </c>
       <c r="L21" s="124">
-        <f>K21*H21*1000</f>
+        <f>H2LowerHeatingValueMjPerKg*H2Density*1000</f>
         <v>9815.2546121767609</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="12.75" thickBot="1">
       <c r="C22" s="129" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="D22" s="92"/>
       <c r="E22" s="94"/>
@@ -6757,14 +6983,14 @@
     </row>
     <row r="23" spans="1:12" ht="24.75" thickBot="1">
       <c r="C23" s="78" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D23" s="79"/>
       <c r="E23" s="88" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G23" s="118" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="H23" s="119">
         <f>101325*16/8314/298</f>
@@ -6774,14 +7000,14 @@
         <v>55.5</v>
       </c>
       <c r="J23" s="125">
-        <f>I23*H23*1000</f>
+        <f>CH4HigherHeatingValueMjPerKg*CH4Density*1000</f>
         <v>36316.442065054012</v>
       </c>
       <c r="K23" s="120">
         <v>50</v>
       </c>
       <c r="L23" s="126">
-        <f>K23*H23*1000</f>
+        <f>CH4LowerHeatingValueMjPerKg*CH4Density*1000</f>
         <v>32717.515373922539</v>
       </c>
     </row>
@@ -6790,101 +7016,101 @@
         <v>5</v>
       </c>
       <c r="D24" s="89" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E24" s="90">
-        <f>C24/1055*3.6</f>
+        <f>DollarPerMillionBtu/1055*3.6</f>
         <v>1.7061611374407586E-2</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="18" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B27" s="72" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C27" s="71" t="s">
-        <v>166</v>
+        <v>259</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="11" t="s">
-        <v>178</v>
+        <v>254</v>
       </c>
       <c r="B28" s="13">
         <v>300000</v>
       </c>
       <c r="C28" s="24">
-        <f t="shared" ref="C28:C33" si="0">B28/$B$37</f>
+        <f>GasifierSystemCapitalCost/NetElectricalCapacity</f>
         <v>600</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="11" t="s">
-        <v>164</v>
+        <v>255</v>
       </c>
       <c r="B29" s="13">
         <v>50000</v>
       </c>
       <c r="C29" s="24">
-        <f t="shared" si="0"/>
+        <f>GasCleaningSystemCapitalCost/NetElectricalCapacity</f>
         <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="11" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="B30" s="13">
         <v>450000</v>
       </c>
       <c r="C30" s="24">
-        <f t="shared" si="0"/>
+        <f>PowerGenerationCapitalCost/NetElectricalCapacity</f>
         <v>900</v>
       </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="11" t="s">
-        <v>165</v>
+        <v>257</v>
       </c>
       <c r="B31" s="13">
         <v>25000</v>
       </c>
       <c r="C31" s="24">
-        <f t="shared" si="0"/>
+        <f>EmissionControlSystemCapitalCost/NetElectricalCapacity</f>
         <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="11" t="s">
-        <v>168</v>
+        <v>258</v>
       </c>
       <c r="B32" s="73">
         <v>50000</v>
       </c>
       <c r="C32" s="24">
-        <f t="shared" si="0"/>
+        <f>HeatRecoverySystemCapitalCost/NetElectricalCapacity</f>
         <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="34" t="s">
-        <v>114</v>
+        <v>260</v>
       </c>
       <c r="B33" s="70">
-        <f>SUM(B28:B32)</f>
+        <f>GasifierSystemCapitalCost + GasCleaningSystemCapitalCost + PowerGenerationCapitalCost + EmissionControlSystemCapitalCost + HeatRecoverySystemCapitalCost</f>
         <v>875000</v>
       </c>
       <c r="C33" s="24">
-        <f t="shared" si="0"/>
+        <f>TotalFacilityCapitalCost/NetElectricalCapacity</f>
         <v>1750</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -6893,76 +7119,76 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="33" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B35" s="32"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="11" t="s">
-        <v>118</v>
+        <v>261</v>
       </c>
       <c r="B36" s="12">
         <v>650</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="11" t="s">
-        <v>131</v>
+        <v>262</v>
       </c>
       <c r="B37" s="12">
         <v>500</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="34" t="s">
-        <v>119</v>
+        <v>263</v>
       </c>
       <c r="B38" s="42">
-        <f>B36-B37</f>
+        <f>GrossElectricalCapacity-NetElectricalCapacity</f>
         <v>150</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="11" t="s">
-        <v>44</v>
+        <v>264</v>
       </c>
       <c r="B39" s="12">
         <v>85</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="34" t="s">
-        <v>22</v>
+        <v>265</v>
       </c>
       <c r="B40" s="24">
-        <f>B39/100*8760</f>
+        <f>CapacityFactor/100*8760</f>
         <v>7446</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="34" t="s">
-        <v>171</v>
+        <v>266</v>
       </c>
       <c r="B41" s="24">
-        <f>B37*B40</f>
+        <f>NetElectricalCapacity*AnnualHours</f>
         <v>3723000</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="11" t="s">
-        <v>223</v>
+        <v>267</v>
       </c>
       <c r="B42" s="91">
         <v>65</v>
@@ -6970,7 +7196,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="11" t="s">
-        <v>205</v>
+        <v>268</v>
       </c>
       <c r="B43" s="40">
         <v>23</v>
@@ -6978,36 +7204,36 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="34" t="s">
-        <v>181</v>
+        <v>269</v>
       </c>
       <c r="B44" s="74">
-        <f>B42*B43/100</f>
+        <f>HHVEfficiencyOfGasificationSystem*NetHHVEfficiencyofPowerGeneration/100</f>
         <v>14.95</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="11" t="s">
-        <v>182</v>
+        <v>270</v>
       </c>
       <c r="B45" s="40">
         <v>20</v>
       </c>
       <c r="D45" s="132" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="11" t="s">
-        <v>202</v>
+        <v>271</v>
       </c>
       <c r="B46" s="121"/>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="11" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="B47" s="40">
         <v>20</v>
@@ -7015,7 +7241,7 @@
     </row>
     <row r="48" spans="1:4" ht="13.5">
       <c r="A48" s="11" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="B48" s="40">
         <v>12</v>
@@ -7023,7 +7249,7 @@
     </row>
     <row r="49" spans="1:4" ht="13.5">
       <c r="A49" s="11" t="s">
-        <v>196</v>
+        <v>272</v>
       </c>
       <c r="B49" s="40">
         <v>5</v>
@@ -7031,7 +7257,7 @@
     </row>
     <row r="50" spans="1:4" ht="13.5">
       <c r="A50" s="11" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="B50" s="40">
         <v>12</v>
@@ -7039,7 +7265,7 @@
     </row>
     <row r="51" spans="1:4" ht="13.5">
       <c r="A51" s="11" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="B51" s="40">
         <v>0</v>
@@ -7047,179 +7273,179 @@
     </row>
     <row r="52" spans="1:4" ht="13.5">
       <c r="A52" s="34" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="B52" s="74">
-        <f>100-SUM(B47:B51)</f>
+        <f>100-(CO+HydrogenGas+Hydrocarbons+CarbonDioxide+Oxygen)</f>
         <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="34" t="s">
-        <v>200</v>
+        <v>273</v>
       </c>
       <c r="B53" s="75">
-        <f>(B47*28+B48*2+B49*16+B50*44+B51*32+B52*28)/100</f>
+        <f>(CO*28+HydrogenGas*2+Hydrocarbons*16+CarbonDioxide*44+Oxygen*32+NitrogenGas*28)/100</f>
         <v>26.2</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="13.5">
       <c r="A54" s="34" t="s">
-        <v>201</v>
+        <v>274</v>
       </c>
       <c r="B54" s="76">
-        <f>101325*B53/8314/298</f>
+        <f>101325*CleanGasMolecularMass/8314/298</f>
         <v>1.0714986284959629</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="13.5">
       <c r="A55" s="34" t="s">
-        <v>208</v>
+        <v>275</v>
       </c>
       <c r="B55" s="42">
-        <f>(B47*J19+B48*J21+B49*J23)/100</f>
+        <f>(CO*COHigherHeatingValueKjPerM+HydrogenGas*H2HigherHeatingValueKjPerM+Hydrocarbons*CH4HigherHeatingValueKjPerM)/100</f>
         <v>5522.7165951181241</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="13.5">
       <c r="A56" s="34" t="s">
-        <v>203</v>
+        <v>276</v>
       </c>
       <c r="B56" s="42">
-        <f>(B47*L19+B48*L21+B49*L23)/100</f>
+        <f>(CO*COLowerHeatingValueKjPerM+HydrogenGas*H2LowerHeatingValueKjPerM+Hydrocarbons*CH4LowerHeatingValueKjPerM)/100</f>
         <v>5126.8346590936617</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="34" t="s">
-        <v>206</v>
+        <v>277</v>
       </c>
       <c r="B57" s="42">
-        <f>B37/(B43/100)</f>
+        <f>NetElectricalCapacity/(NetHHVEfficiencyofPowerGeneration/100)</f>
         <v>2173.913043478261</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="34" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="B58" s="42">
-        <f>B57*(1-B45/100)</f>
+        <f>TotalFuelPowerInput*(1-FractionOfInputEnergy/100)</f>
         <v>1739.130434782609</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="34" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="B59" s="42">
-        <f>B57*B45/100</f>
+        <f>TotalFuelPowerInput*FractionOfInputEnergy/100</f>
         <v>434.78260869565219</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="13.5">
       <c r="A60" s="34" t="s">
-        <v>209</v>
+        <v>186</v>
       </c>
       <c r="B60" s="42">
-        <f>B58/B55*3600</f>
+        <f>CleanGasPowerInput/CleanGasHigherHeatingValue*3600</f>
         <v>1133.6575863320179</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="34" t="s">
-        <v>214</v>
+        <v>191</v>
       </c>
       <c r="B61" s="42">
-        <f>B60*B54</f>
+        <f>CleanGasFlowRateVolume*CleanGasDensity</f>
         <v>1214.7125489388009</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="34" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="B62" s="42">
-        <f>B61*B40/1000</f>
+        <f>CleanGasFlowRateMass*AnnualHours/1000</f>
         <v>9044.749639398311</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="34" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="B63" s="42">
-        <f>B59/J15*3600</f>
+        <f>DualFuelPowerInput/HeavyDieselHigherHeatingValueKjPerL*3600</f>
         <v>40.471037913493163</v>
       </c>
       <c r="D63" s="132" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="34" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="B64" s="42">
-        <f>B63*B40</f>
+        <f>DualFuelFlowRate*AnnualHours</f>
         <v>301347.34830387007</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="11" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="B65" s="12">
         <v>18608</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>219</v>
+        <v>196</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="11" t="s">
-        <v>220</v>
+        <v>197</v>
       </c>
       <c r="B66" s="40">
         <v>15</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="34" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="B67" s="42">
-        <f>B58/(B42/100)/B65*3600</f>
+        <f>CleanGasPowerInput/(HHVEfficiencyOfGasificationSystem/100)/HigherHeatingValue*3600</f>
         <v>517.6325786442053</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="34" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="B68" s="42">
-        <f>B67*B40/1000</f>
+        <f>BiomassFeedRate*AnnualHours/1000</f>
         <v>3854.2921805847523</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="34" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="B69" s="42">
-        <f>B68/(1-B66/100)</f>
+        <f>AnnualBiomassConsumptionDryMass/(1-MoistureContent/100)</f>
         <v>4534.4613889232378</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="11" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="B70" s="12">
         <v>5</v>
@@ -7227,7 +7453,7 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="11" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="B71" s="12">
         <v>30</v>
@@ -7235,23 +7461,23 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="34" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="B72" s="42">
-        <f>B70/100*B67/(1-B71/100)</f>
+        <f>AshContent/100*BiomassFeedRate/(1-CarbonConcentration/100)</f>
         <v>36.973755617443238</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="34" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="B73" s="42">
-        <f>B72*B40/1000</f>
+        <f>CharProductionRate*AnnualHours/1000</f>
         <v>275.30658432748231</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -7259,101 +7485,101 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="30" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B75" s="27"/>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="34" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B76" s="24">
-        <f>B57-B36</f>
+        <f>TotalFuelPowerInput-GrossElectricalCapacity</f>
         <v>1523.913043478261</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="11" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B77" s="13">
         <v>50</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="34" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B78" s="24">
-        <f>B76*B77/100</f>
+        <f>TotalHearProductionRate*AggregateFractionOfHeatRecovered/100</f>
         <v>761.95652173913049</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="34" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B79" s="24">
-        <f>B78*B40</f>
+        <f>RecoveredHeat*AnnualHours</f>
         <v>5673528.2608695654</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="11" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B80" s="77">
         <v>0.01</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="34" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B81" s="24">
-        <f>B79*B80</f>
+        <f>AnnualHeatSales*AggregateSalesPriceForHeat</f>
         <v>56735.282608695656</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="34" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B82" s="50">
-        <f>B81/B41</f>
+        <f>TotalIncomeFromHeatSales/AnnualNetElectricityGeneration</f>
         <v>1.5239130434782609E-2</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="34" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B83" s="41">
-        <f>(B36*B40+B79)/(B57*B40)*100</f>
+        <f>(GrossElectricalCapacity*AnnualHours+AnnualHeatSales)/(TotalFuelPowerInput*AnnualHours)*100</f>
         <v>64.95</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="34" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B84" s="41">
-        <f>(B41+B79)/(B57*B40)*100</f>
+        <f>(AnnualNetElectricityGeneration+AnnualHeatSales)/(TotalFuelPowerInput*AnnualHours)*100</f>
         <v>58.050000000000004</v>
       </c>
     </row>
@@ -7362,168 +7588,168 @@
     </row>
     <row r="86" spans="1:4" ht="24">
       <c r="A86" s="18" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B86" s="10"/>
       <c r="C86" s="47" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="11" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
       <c r="B87" s="46">
         <v>22.05</v>
       </c>
       <c r="C87" s="38">
-        <f>B68*B87/B41</f>
+        <f>AnnualBiomassConsumptionDryMass*BiomassFuelCost/AnnualNetElectricityGeneration</f>
         <v>2.2827596718209452E-2</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="11" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="B88" s="46">
         <v>0.3</v>
       </c>
       <c r="C88" s="38">
-        <f>B88*B64/B$41</f>
+        <f>DualFuelCost*AnnualDualFuelConsumption/AnnualNetElectricityGeneration</f>
         <v>2.4282622748095894E-2</v>
       </c>
       <c r="D88" s="132" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="11" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B89" s="48">
         <v>20000</v>
       </c>
       <c r="C89" s="38">
-        <f t="shared" ref="C89:C95" si="1">B89/B$41</f>
+        <f>LaborCost/AnnualNetElectricityGeneration</f>
         <v>5.3720118184260009E-3</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="11" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B90" s="48">
         <v>4000</v>
       </c>
       <c r="C90" s="38">
-        <f t="shared" si="1"/>
+        <f>MaintenanceCost/AnnualNetElectricityGeneration</f>
         <v>1.0744023636852001E-3</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="11" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="B91" s="48">
         <v>2000</v>
       </c>
       <c r="C91" s="38">
-        <f t="shared" si="1"/>
+        <f>WasteTreatment/AnnualNetElectricityGeneration</f>
         <v>5.3720118184260007E-4</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="11" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B92" s="48">
         <v>1000</v>
       </c>
       <c r="C92" s="38">
-        <f t="shared" si="1"/>
+        <f>Insurance/AnnualNetElectricityGeneration</f>
         <v>2.6860059092130003E-4</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="11" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B93" s="48">
         <v>1000</v>
       </c>
       <c r="C93" s="38">
-        <f t="shared" si="1"/>
+        <f>Utilities/AnnualNetElectricityGeneration</f>
         <v>2.6860059092130003E-4</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="11" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B94" s="48">
         <v>1000</v>
       </c>
       <c r="C94" s="38">
-        <f t="shared" si="1"/>
+        <f>Management/AnnualNetElectricityGeneration</f>
         <v>2.6860059092130003E-4</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="11" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B95" s="48">
         <v>1000</v>
       </c>
       <c r="C95" s="38">
-        <f t="shared" si="1"/>
+        <f>OtherOperatingExpenses/AnnualNetElectricityGeneration</f>
         <v>2.6860059092130003E-4</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="34" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B96" s="49">
-        <f>SUM(B89:B95)</f>
+        <f>LaborCost+MaintenanceCost+WasteTreatment+Insurance+Utilities+Management+OtherOperatingExpenses</f>
         <v>30000</v>
       </c>
       <c r="C96" s="38">
-        <f>SUM(C89:C95)</f>
+        <f>LaborCostPerKwh+MaintenanceCostPerKwh+WasteTreatmentPerKwh+InsurancePerKwh+UtilitiesPerKwh+ManagementPerKwh+OtherOperatingExpensesPerKwh</f>
         <v>8.0580177276390001E-3</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="34" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B97" s="24">
-        <f>B87*B68+B88*B64+B96</f>
+        <f>BiomassFuelCost*AnnualBiomassConsumptionDryMass+DualFuelCost*AnnualDualFuelConsumption+TotalNonFuelExpenses</f>
         <v>205391.34707305481</v>
       </c>
       <c r="C97" s="38">
-        <f>C87+C88+C96</f>
+        <f>BiomassFuelCostPerKwh+DualFuelPerKwh+TotalNonFuelExpensesPerKwh</f>
         <v>5.5168237193944349E-2</v>
       </c>
     </row>
@@ -7532,7 +7758,7 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B99" s="3"/>
     </row>
@@ -7544,7 +7770,7 @@
         <v>34</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -7555,18 +7781,18 @@
         <v>9.6</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B102" s="28">
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>250</v>
+        <v>225</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -7574,11 +7800,11 @@
         <v>2</v>
       </c>
       <c r="B103" s="36">
-        <f>B101+B100*(1-B101/100)</f>
+        <f>StateTaxRate+FederalTaxRate*(1-StateTaxRate/100)</f>
         <v>40.335999999999999</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -7586,41 +7812,41 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B105" s="3"/>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="11" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B106" s="15">
         <v>0</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B107" s="14">
         <v>2</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="11" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="B108" s="14">
         <v>0</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -7628,7 +7854,7 @@
         <v>14</v>
       </c>
       <c r="B109" s="24">
-        <f>B106*B37</f>
+        <f>ElectricityCapacityPayment*NetElectricalCapacity</f>
         <v>0</v>
       </c>
     </row>
@@ -7637,16 +7863,16 @@
         <v>13</v>
       </c>
       <c r="B110" s="24">
-        <f>B136*B107/100</f>
+        <f>DebtReserve*InterestRateOnDebtReserve/100</f>
         <v>1263.820748253388</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="34" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="B111" s="24">
-        <f>B108*B73</f>
+        <f>SalesPriceForChar*AnnualCharProduction</f>
         <v>0</v>
       </c>
     </row>
@@ -7655,35 +7881,35 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B113" s="16"/>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B114" s="14">
         <v>2.1</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="11" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="B115" s="14">
         <v>2.1</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="11" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="B116" s="14">
         <v>2.1</v>
@@ -7691,46 +7917,46 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="11" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="B117" s="14">
         <v>2.1</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="11" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="B118" s="14">
         <v>2.1</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="11" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="B119" s="14">
         <v>2.1</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B120" s="14">
         <v>2.1</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -7738,7 +7964,7 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B122" s="16"/>
     </row>
@@ -7750,7 +7976,7 @@
         <v>90</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -7758,56 +7984,56 @@
         <v>4</v>
       </c>
       <c r="B124" s="37">
-        <f>100-B123</f>
+        <f>100-DebtRatio</f>
         <v>10</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B125" s="14">
         <v>5</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B126" s="23">
         <v>20</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B127" s="14">
         <v>15</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="34" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B128" s="37">
-        <f>B123/100*B125+B124/100*B127</f>
+        <f>DebtRatio/100*InterestRateOnDebt+EquityRatio/100*CostOfEquity</f>
         <v>6</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -7815,7 +8041,7 @@
         <v>5</v>
       </c>
       <c r="B129" s="24">
-        <f>B33</f>
+        <f>TotalFacilityCapitalCost</f>
         <v>875000</v>
       </c>
     </row>
@@ -7824,7 +8050,7 @@
         <v>6</v>
       </c>
       <c r="B130" s="24">
-        <f>B129*B124/100</f>
+        <f>TotalCostOfPlant*EquityRatio/100</f>
         <v>87500</v>
       </c>
     </row>
@@ -7833,7 +8059,7 @@
         <v>7</v>
       </c>
       <c r="B131" s="24">
-        <f>B129*B123/100</f>
+        <f>TotalCostOfPlant*DebtRatio/100</f>
         <v>787500</v>
       </c>
     </row>
@@ -7842,11 +8068,11 @@
         <v>8</v>
       </c>
       <c r="B132" s="38">
-        <f>B127/100*(1+B127/100)^B126/((1+B127/100)^B126-1)</f>
+        <f>CostOfEquity/100*(1+CostOfEquity/100)^EconomicLife/((1+CostOfEquity/100)^EconomicLife-1)</f>
         <v>0.1597614704057439</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -7854,7 +8080,7 @@
         <v>9</v>
       </c>
       <c r="B133" s="38">
-        <f>B125/100*(1+B125/100)^B126/((1+B125/100)^B126-1)</f>
+        <f>InterestRateOnDebt/100*(1+InterestRateOnDebt/100)^EconomicLife/((1+InterestRateOnDebt/100)^EconomicLife-1)</f>
         <v>8.0242587190691314E-2</v>
       </c>
     </row>
@@ -7863,11 +8089,11 @@
         <v>10</v>
       </c>
       <c r="B134" s="24">
-        <f>B132*B130</f>
+        <f>CapitalRecoveryFactorEquity*TotalEquityCost</f>
         <v>13979.128660502591</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -7875,11 +8101,11 @@
         <v>11</v>
       </c>
       <c r="B135" s="24">
-        <f>B131*B133</f>
+        <f>TotalDebtCost*CapitalRecoveryFactorDebt</f>
         <v>63191.037412669408</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -7887,35 +8113,35 @@
         <v>12</v>
       </c>
       <c r="B136" s="13">
-        <f>B135</f>
+        <f>AnnualDebtPayment</f>
         <v>63191.037412669408</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B138" s="3"/>
       <c r="D138" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="24">
       <c r="A139" s="69"/>
       <c r="B139" s="127" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="D139" s="22" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E139" s="22" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F139" s="22" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -7941,7 +8167,7 @@
         <v>16</v>
       </c>
       <c r="B141" s="19">
-        <f t="shared" ref="B141:B159" si="2">F141</f>
+        <f t="shared" ref="B141:B159" si="0">F141</f>
         <v>0.05</v>
       </c>
       <c r="D141" s="43">
@@ -7959,7 +8185,7 @@
         <v>17</v>
       </c>
       <c r="B142" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
       <c r="D142" s="43">
@@ -7977,7 +8203,7 @@
         <v>18</v>
       </c>
       <c r="B143" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
       <c r="D143" s="43">
@@ -7995,7 +8221,7 @@
         <v>19</v>
       </c>
       <c r="B144" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
       <c r="D144" s="43">
@@ -8013,7 +8239,7 @@
         <v>20</v>
       </c>
       <c r="B145" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
       <c r="D145" s="43">
@@ -8028,10 +8254,10 @@
     </row>
     <row r="146" spans="1:8">
       <c r="A146" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B146" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
       <c r="D146" s="43">
@@ -8046,10 +8272,10 @@
     </row>
     <row r="147" spans="1:8">
       <c r="A147" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B147" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
       <c r="D147" s="43">
@@ -8064,10 +8290,10 @@
     </row>
     <row r="148" spans="1:8">
       <c r="A148" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B148" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
       <c r="D148" s="43">
@@ -8082,10 +8308,10 @@
     </row>
     <row r="149" spans="1:8">
       <c r="A149" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B149" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
       <c r="D149" s="43">
@@ -8100,10 +8326,10 @@
     </row>
     <row r="150" spans="1:8">
       <c r="A150" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B150" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
       <c r="D150" s="43">
@@ -8118,10 +8344,10 @@
     </row>
     <row r="151" spans="1:8">
       <c r="A151" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B151" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
       <c r="D151" s="43">
@@ -8136,10 +8362,10 @@
     </row>
     <row r="152" spans="1:8">
       <c r="A152" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B152" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
       <c r="D152" s="43">
@@ -8154,10 +8380,10 @@
     </row>
     <row r="153" spans="1:8">
       <c r="A153" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B153" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
       <c r="D153" s="43">
@@ -8172,10 +8398,10 @@
     </row>
     <row r="154" spans="1:8">
       <c r="A154" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B154" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
       <c r="D154" s="43">
@@ -8192,10 +8418,10 @@
     </row>
     <row r="155" spans="1:8">
       <c r="A155" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B155" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
       <c r="D155" s="43">
@@ -8210,10 +8436,10 @@
     </row>
     <row r="156" spans="1:8">
       <c r="A156" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B156" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
       <c r="D156" s="43">
@@ -8228,10 +8454,10 @@
     </row>
     <row r="157" spans="1:8">
       <c r="A157" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B157" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
       <c r="D157" s="43">
@@ -8246,10 +8472,10 @@
     </row>
     <row r="158" spans="1:8">
       <c r="A158" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B158" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
       <c r="D158" s="43">
@@ -8264,10 +8490,10 @@
     </row>
     <row r="159" spans="1:8">
       <c r="A159" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B159" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
       <c r="D159" s="43">
@@ -8306,13 +8532,13 @@
     </row>
     <row r="162" spans="1:4" ht="24">
       <c r="A162" s="128" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B162" s="127" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -8365,7 +8591,7 @@
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B169" s="29">
         <v>0</v>
@@ -8373,7 +8599,7 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B170" s="23">
         <v>0</v>
@@ -8381,7 +8607,7 @@
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B171" s="23">
         <v>0</v>
@@ -8389,7 +8615,7 @@
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B172" s="23">
         <v>0</v>
@@ -8397,7 +8623,7 @@
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B173" s="23">
         <v>0</v>
@@ -8405,7 +8631,7 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B174" s="23">
         <v>0</v>
@@ -8413,7 +8639,7 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B175" s="23">
         <v>0</v>
@@ -8421,7 +8647,7 @@
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B176" s="23">
         <v>0</v>
@@ -8429,7 +8655,7 @@
     </row>
     <row r="177" spans="1:34">
       <c r="A177" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B177" s="23">
         <v>0</v>
@@ -8437,7 +8663,7 @@
     </row>
     <row r="178" spans="1:34">
       <c r="A178" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B178" s="23">
         <v>0</v>
@@ -8445,7 +8671,7 @@
     </row>
     <row r="179" spans="1:34">
       <c r="A179" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B179" s="23">
         <v>0</v>
@@ -8453,7 +8679,7 @@
     </row>
     <row r="180" spans="1:34">
       <c r="A180" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B180" s="23">
         <v>0</v>
@@ -8461,7 +8687,7 @@
     </row>
     <row r="181" spans="1:34">
       <c r="A181" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B181" s="23">
         <v>0</v>
@@ -8469,7 +8695,7 @@
     </row>
     <row r="182" spans="1:34">
       <c r="A182" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B182" s="23">
         <v>0</v>
@@ -8480,7 +8706,7 @@
     </row>
     <row r="184" spans="1:34">
       <c r="A184" s="18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B184" s="10"/>
       <c r="C184" s="3"/>
@@ -8502,21 +8728,21 @@
     </row>
     <row r="185" spans="1:34">
       <c r="A185" s="58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B185" s="58">
         <v>1</v>
       </c>
       <c r="C185" s="58">
-        <f t="shared" ref="C185:K185" si="3">B185+1</f>
+        <f t="shared" ref="C185:K185" si="1">B185+1</f>
         <v>2</v>
       </c>
       <c r="D185" s="58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E185" s="58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="F185" s="58">
@@ -8536,11 +8762,11 @@
         <v>8</v>
       </c>
       <c r="J185" s="58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="K185" s="58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="L185" s="58">
@@ -8548,39 +8774,39 @@
         <v>11</v>
       </c>
       <c r="M185" s="58">
-        <f t="shared" ref="M185:U185" si="4">L185+1</f>
+        <f t="shared" ref="M185:U185" si="2">L185+1</f>
         <v>12</v>
       </c>
       <c r="N185" s="58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="O185" s="58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="P185" s="58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="Q185" s="58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="R185" s="58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="S185" s="58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="T185" s="58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="U185" s="58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="V185" s="64" t="s">
@@ -8589,86 +8815,86 @@
     </row>
     <row r="186" spans="1:34">
       <c r="A186" s="51" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B186" s="59">
-        <f t="shared" ref="B186:K186" si="5">$B$134</f>
+        <f>AnnualEquityRecovery</f>
         <v>13979.128660502591</v>
       </c>
       <c r="C186" s="59">
-        <f t="shared" si="5"/>
+        <f>AnnualEquityRecovery</f>
         <v>13979.128660502591</v>
       </c>
       <c r="D186" s="59">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="D186:K186" si="3">$B$134</f>
         <v>13979.128660502591</v>
       </c>
       <c r="E186" s="59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>13979.128660502591</v>
       </c>
       <c r="F186" s="59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>13979.128660502591</v>
       </c>
       <c r="G186" s="59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>13979.128660502591</v>
       </c>
       <c r="H186" s="59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>13979.128660502591</v>
       </c>
       <c r="I186" s="59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>13979.128660502591</v>
       </c>
       <c r="J186" s="59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>13979.128660502591</v>
       </c>
       <c r="K186" s="59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>13979.128660502591</v>
       </c>
       <c r="L186" s="59">
-        <f t="shared" ref="L186:U186" si="6">$B$134</f>
+        <f t="shared" ref="L186:U186" si="4">$B$134</f>
         <v>13979.128660502591</v>
       </c>
       <c r="M186" s="59">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>13979.128660502591</v>
       </c>
       <c r="N186" s="59">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>13979.128660502591</v>
       </c>
       <c r="O186" s="59">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>13979.128660502591</v>
       </c>
       <c r="P186" s="59">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>13979.128660502591</v>
       </c>
       <c r="Q186" s="59">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>13979.128660502591</v>
       </c>
       <c r="R186" s="59">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>13979.128660502591</v>
       </c>
       <c r="S186" s="59">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>13979.128660502591</v>
       </c>
       <c r="T186" s="59">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>13979.128660502591</v>
       </c>
       <c r="U186" s="60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>13979.128660502591</v>
       </c>
       <c r="V186" s="65">
@@ -8688,22 +8914,22 @@
     </row>
     <row r="187" spans="1:34">
       <c r="A187" s="52" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B187" s="45">
-        <f>B127/100*B130</f>
+        <f>CostOfEquity/100*TotalEquityCost</f>
         <v>13125</v>
       </c>
       <c r="C187" s="45">
-        <f t="shared" ref="C187:K187" si="7">$B$127/100*B189</f>
+        <f>CostOfEquity/100*EquityPrincipalRemaining</f>
         <v>12996.88070092461</v>
       </c>
       <c r="D187" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="D187:K187" si="5">$B$127/100*C189</f>
         <v>12849.543506987911</v>
       </c>
       <c r="E187" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>12680.10573396071</v>
       </c>
       <c r="F187" s="45">
@@ -8723,11 +8949,11 @@
         <v>11707.129443087553</v>
       </c>
       <c r="J187" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>11366.329560475298</v>
       </c>
       <c r="K187" s="45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>10974.409695471204</v>
       </c>
       <c r="L187" s="45">
@@ -8735,43 +8961,43 @@
         <v>10523.701850716498</v>
       </c>
       <c r="M187" s="45">
-        <f t="shared" ref="M187:U187" si="8">$B$127/100*L189</f>
+        <f t="shared" ref="M187:U187" si="6">$B$127/100*L189</f>
         <v>10005.387829248584</v>
       </c>
       <c r="N187" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>9409.3267045604825</v>
       </c>
       <c r="O187" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>8723.8564111691667</v>
       </c>
       <c r="P187" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>7935.5655737691532</v>
       </c>
       <c r="Q187" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>7029.0311107591369</v>
       </c>
       <c r="R187" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>5986.516478297619</v>
       </c>
       <c r="S187" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>4787.6246509668727</v>
       </c>
       <c r="T187" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3408.8990495365156</v>
       </c>
       <c r="U187" s="61">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>1823.3646078916042</v>
       </c>
       <c r="V187" s="66">
-        <f t="shared" ref="V187:V206" si="9">SUM(B187:U187)</f>
+        <f t="shared" ref="V187:V206" si="7">SUM(B187:U187)</f>
         <v>192082.57321005152</v>
       </c>
       <c r="Y187" s="4"/>
@@ -8787,22 +9013,22 @@
     </row>
     <row r="188" spans="1:34">
       <c r="A188" s="52" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B188" s="45">
-        <f t="shared" ref="B188:K188" si="10">B186-B187</f>
+        <f>EquityRecovery-EquityInterest</f>
         <v>854.12866050259072</v>
       </c>
       <c r="C188" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="C188:K188" si="8">C186-C187</f>
         <v>982.24795957798051</v>
       </c>
       <c r="D188" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>1129.5851535146794</v>
       </c>
       <c r="E188" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>1299.0229265418802</v>
       </c>
       <c r="F188" s="45">
@@ -8818,59 +9044,59 @@
         <v>1975.6514934043807</v>
       </c>
       <c r="I188" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>2271.9992174150375</v>
       </c>
       <c r="J188" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>2612.7991000272923</v>
       </c>
       <c r="K188" s="45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>3004.7189650313867</v>
       </c>
       <c r="L188" s="45">
-        <f t="shared" ref="L188:U188" si="11">L186-L187</f>
+        <f t="shared" ref="L188:U188" si="9">L186-L187</f>
         <v>3455.4268097860931</v>
       </c>
       <c r="M188" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>3973.7408312540065</v>
       </c>
       <c r="N188" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>4569.8019559421082</v>
       </c>
       <c r="O188" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>5255.272249333424</v>
       </c>
       <c r="P188" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>6043.5630867334376</v>
       </c>
       <c r="Q188" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>6950.0975497434538</v>
       </c>
       <c r="R188" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>7992.6121822049718</v>
       </c>
       <c r="S188" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>9191.5040095357181</v>
       </c>
       <c r="T188" s="45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>10570.229610966075</v>
       </c>
       <c r="U188" s="61">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>12155.764052610986</v>
       </c>
       <c r="V188" s="66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>87500.000000000306</v>
       </c>
       <c r="W188" s="4"/>
@@ -8887,22 +9113,22 @@
     </row>
     <row r="189" spans="1:34">
       <c r="A189" s="52" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B189" s="45">
-        <f>B130-B188</f>
+        <f>TotalEquityCost-EquityPrincipalPaid</f>
         <v>86645.871339497404</v>
       </c>
       <c r="C189" s="45">
-        <f t="shared" ref="C189:K189" si="12">B189-C188</f>
+        <f t="shared" ref="C189:K189" si="10">B189-C188</f>
         <v>85663.623379919416</v>
       </c>
       <c r="D189" s="45">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>84534.038226404737</v>
       </c>
       <c r="E189" s="45">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>83235.015299862862</v>
       </c>
       <c r="F189" s="45">
@@ -8922,11 +9148,11 @@
         <v>75775.530403168654</v>
       </c>
       <c r="J189" s="45">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>73162.731303141365</v>
       </c>
       <c r="K189" s="45">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>70158.012338109984</v>
       </c>
       <c r="L189" s="45">
@@ -8934,43 +9160,43 @@
         <v>66702.585528323893</v>
       </c>
       <c r="M189" s="45">
-        <f t="shared" ref="M189:U189" si="13">L189-M188</f>
+        <f t="shared" ref="M189:U189" si="11">L189-M188</f>
         <v>62728.844697069886</v>
       </c>
       <c r="N189" s="45">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>58159.042741127778</v>
       </c>
       <c r="O189" s="45">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>52903.770491794356</v>
       </c>
       <c r="P189" s="45">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>46860.207405060915</v>
       </c>
       <c r="Q189" s="45">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>39910.10985531746</v>
       </c>
       <c r="R189" s="45">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>31917.497673112488</v>
       </c>
       <c r="S189" s="45">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>22725.99366357677</v>
       </c>
       <c r="T189" s="45">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>12155.764052610695</v>
       </c>
       <c r="U189" s="61">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>-2.9103830456733704E-10</v>
       </c>
       <c r="V189" s="67" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="Y189" s="4"/>
       <c r="Z189" s="4"/>
@@ -8985,90 +9211,90 @@
     </row>
     <row r="190" spans="1:34">
       <c r="A190" s="52" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B190" s="45">
-        <f t="shared" ref="B190:K190" si="14">$B$135</f>
+        <f>AnnualDebtPayment</f>
         <v>63191.037412669408</v>
       </c>
       <c r="C190" s="45">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="C190:K190" si="12">$B$135</f>
         <v>63191.037412669408</v>
       </c>
       <c r="D190" s="45">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>63191.037412669408</v>
       </c>
       <c r="E190" s="45">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>63191.037412669408</v>
       </c>
       <c r="F190" s="45">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>63191.037412669408</v>
       </c>
       <c r="G190" s="45">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>63191.037412669408</v>
       </c>
       <c r="H190" s="45">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>63191.037412669408</v>
       </c>
       <c r="I190" s="45">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>63191.037412669408</v>
       </c>
       <c r="J190" s="45">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>63191.037412669408</v>
       </c>
       <c r="K190" s="45">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>63191.037412669408</v>
       </c>
       <c r="L190" s="45">
-        <f t="shared" ref="L190:U190" si="15">$B$135</f>
+        <f t="shared" ref="L190:U190" si="13">$B$135</f>
         <v>63191.037412669408</v>
       </c>
       <c r="M190" s="45">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>63191.037412669408</v>
       </c>
       <c r="N190" s="45">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>63191.037412669408</v>
       </c>
       <c r="O190" s="45">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>63191.037412669408</v>
       </c>
       <c r="P190" s="45">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>63191.037412669408</v>
       </c>
       <c r="Q190" s="45">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>63191.037412669408</v>
       </c>
       <c r="R190" s="45">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>63191.037412669408</v>
       </c>
       <c r="S190" s="45">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>63191.037412669408</v>
       </c>
       <c r="T190" s="45">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>63191.037412669408</v>
       </c>
       <c r="U190" s="61">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>63191.037412669408</v>
       </c>
       <c r="V190" s="66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>1263820.7482533883</v>
       </c>
       <c r="Y190" s="4"/>
@@ -9084,22 +9310,22 @@
     </row>
     <row r="191" spans="1:34">
       <c r="A191" s="52" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B191" s="45">
-        <f>B125/100*B131</f>
+        <f>InterestRateOnDebt/100*TotalDebtCost</f>
         <v>39375</v>
       </c>
       <c r="C191" s="45">
-        <f t="shared" ref="C191:K191" si="16">$B$125/100*B193</f>
+        <f t="shared" ref="C191:K191" si="14">$B$125/100*B193</f>
         <v>38184.19812936653</v>
       </c>
       <c r="D191" s="45">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>36933.856165201389</v>
       </c>
       <c r="E191" s="45">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>35620.997102827991</v>
       </c>
       <c r="F191" s="45">
@@ -9119,11 +9345,11 @@
         <v>29679.481103305228</v>
       </c>
       <c r="J191" s="45">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>28003.90328783702</v>
       </c>
       <c r="K191" s="45">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>26244.546581595405</v>
       </c>
       <c r="L191" s="45">
@@ -9131,43 +9357,43 @@
         <v>24397.222040041703</v>
       </c>
       <c r="M191" s="45">
-        <f t="shared" ref="M191:U191" si="17">$B$125/100*L193</f>
+        <f t="shared" ref="M191:U191" si="15">$B$125/100*L193</f>
         <v>22457.53127141032</v>
       </c>
       <c r="N191" s="45">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>20420.855964347364</v>
       </c>
       <c r="O191" s="45">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>18282.346891931262</v>
       </c>
       <c r="P191" s="45">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>16036.912365894355</v>
       </c>
       <c r="Q191" s="45">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>13679.206113555603</v>
       </c>
       <c r="R191" s="45">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>11203.614548599913</v>
       </c>
       <c r="S191" s="45">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>8604.2434053964371</v>
       </c>
       <c r="T191" s="45">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>5874.9037050327897</v>
       </c>
       <c r="U191" s="61">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>3009.0970196509584</v>
       </c>
       <c r="V191" s="66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>476320.74825338868</v>
       </c>
       <c r="Y191" s="4"/>
@@ -9183,22 +9409,22 @@
     </row>
     <row r="192" spans="1:34">
       <c r="A192" s="52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B192" s="45">
-        <f t="shared" ref="B192:K192" si="18">B190-B191</f>
+        <f>RebtRecovery-DebtInterest</f>
         <v>23816.037412669408</v>
       </c>
       <c r="C192" s="45">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="C192:K192" si="16">C190-C191</f>
         <v>25006.839283302877</v>
       </c>
       <c r="D192" s="45">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>26257.181247468019</v>
       </c>
       <c r="E192" s="45">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>27570.040309841417</v>
       </c>
       <c r="F192" s="45">
@@ -9214,59 +9440,59 @@
         <v>31915.767913680171</v>
       </c>
       <c r="I192" s="45">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>33511.556309364183</v>
       </c>
       <c r="J192" s="45">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>35187.134124832388</v>
       </c>
       <c r="K192" s="45">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>36946.490831073999</v>
       </c>
       <c r="L192" s="45">
-        <f t="shared" ref="L192:U192" si="19">L190-L191</f>
+        <f t="shared" ref="L192:U192" si="17">L190-L191</f>
         <v>38793.815372627709</v>
       </c>
       <c r="M192" s="45">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>40733.506141259088</v>
       </c>
       <c r="N192" s="45">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>42770.181448322044</v>
       </c>
       <c r="O192" s="45">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>44908.69052073815</v>
       </c>
       <c r="P192" s="45">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>47154.125046775051</v>
       </c>
       <c r="Q192" s="45">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>49511.831299113808</v>
       </c>
       <c r="R192" s="45">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>51987.422864069493</v>
       </c>
       <c r="S192" s="45">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>54586.794007272969</v>
       </c>
       <c r="T192" s="45">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>57316.133707636618</v>
       </c>
       <c r="U192" s="61">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>60181.940393018449</v>
       </c>
       <c r="V192" s="66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>787499.9999999993</v>
       </c>
       <c r="W192" s="4"/>
@@ -9283,22 +9509,22 @@
     </row>
     <row r="193" spans="1:34">
       <c r="A193" s="52" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B193" s="45">
-        <f>$B$131-B192</f>
+        <f>TotalDebtCost-DebtPrincipalPaid</f>
         <v>763683.96258733061</v>
       </c>
       <c r="C193" s="45">
-        <f t="shared" ref="C193:K193" si="20">B193-C192</f>
+        <f t="shared" ref="C193:K193" si="18">B193-C192</f>
         <v>738677.12330402771</v>
       </c>
       <c r="D193" s="45">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>712419.94205655972</v>
       </c>
       <c r="E193" s="45">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>684849.90174671833</v>
       </c>
       <c r="F193" s="45">
@@ -9318,11 +9544,11 @@
         <v>560078.0657567404</v>
       </c>
       <c r="J193" s="45">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>524890.93163190805</v>
       </c>
       <c r="K193" s="45">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>487944.44080083404</v>
       </c>
       <c r="L193" s="45">
@@ -9330,43 +9556,43 @@
         <v>449150.62542820635</v>
       </c>
       <c r="M193" s="45">
-        <f t="shared" ref="M193:U193" si="21">L193-M192</f>
+        <f t="shared" ref="M193:U193" si="19">L193-M192</f>
         <v>408417.11928694724</v>
       </c>
       <c r="N193" s="45">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>365646.93783862522</v>
       </c>
       <c r="O193" s="45">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>320738.24731788709</v>
       </c>
       <c r="P193" s="45">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>273584.12227111205</v>
       </c>
       <c r="Q193" s="45">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>224072.29097199824</v>
       </c>
       <c r="R193" s="45">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>172084.86810792875</v>
       </c>
       <c r="S193" s="45">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>117498.07410065578</v>
       </c>
       <c r="T193" s="45">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>60181.940393019162</v>
       </c>
       <c r="U193" s="61">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>7.1304384618997574E-10</v>
       </c>
       <c r="V193" s="67" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="Y193" s="4"/>
       <c r="Z193" s="4"/>
@@ -9381,90 +9607,90 @@
     </row>
     <row r="194" spans="1:34">
       <c r="A194" s="52" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="B194" s="45">
-        <f>B68*B87</f>
+        <f>AnnualBiomassConsumptionDryMass*BiomassFuelCost</f>
         <v>84987.142581893786</v>
       </c>
       <c r="C194" s="45">
-        <f t="shared" ref="C194:U194" si="22">$B$194*(1+$B$115/100)^(C185-1)</f>
+        <f>BiomassFuelCostCF*(1+EscalationBiomassFuel/100)^(Year-1)</f>
         <v>86771.872576113543</v>
       </c>
       <c r="D194" s="45">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="D194:U194" si="20">$B$194*(1+$B$115/100)^(D185-1)</f>
         <v>88594.081900211924</v>
       </c>
       <c r="E194" s="45">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>90454.557620116364</v>
       </c>
       <c r="F194" s="45">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>92354.103330138794</v>
       </c>
       <c r="G194" s="45">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>94293.539500071696</v>
       </c>
       <c r="H194" s="45">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>96273.703829573191</v>
       </c>
       <c r="I194" s="45">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>98295.451609994212</v>
       </c>
       <c r="J194" s="45">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>100359.65609380408</v>
       </c>
       <c r="K194" s="45">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>102467.20887177394</v>
       </c>
       <c r="L194" s="45">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>104619.02025808119</v>
       </c>
       <c r="M194" s="45">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>106816.0196835009</v>
       </c>
       <c r="N194" s="45">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>109059.15609685438</v>
       </c>
       <c r="O194" s="45">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>111349.3983748883</v>
       </c>
       <c r="P194" s="45">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>113687.73574076097</v>
       </c>
       <c r="Q194" s="45">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>116075.17819131693</v>
       </c>
       <c r="R194" s="45">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>118512.75693333457</v>
       </c>
       <c r="S194" s="45">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>121001.52482893459</v>
       </c>
       <c r="T194" s="45">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>123542.55685034218</v>
       </c>
       <c r="U194" s="61">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>126136.95054419937</v>
       </c>
       <c r="V194" s="66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>2085651.6154159051</v>
       </c>
       <c r="Y194" s="4"/>
@@ -9480,90 +9706,90 @@
     </row>
     <row r="195" spans="1:34">
       <c r="A195" s="52" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="B195" s="45">
-        <f>B64*B88</f>
+        <f>AnnualDualFuelConsumption*DualFuelCost</f>
         <v>90404.204491161014</v>
       </c>
       <c r="C195" s="45">
-        <f>$B195*(1+$B$116/100)^(C185-1)</f>
+        <f>DualFuelCostCF*(1+EscalationDualFuel/100)^(Year-1)</f>
         <v>92302.692785475389</v>
       </c>
       <c r="D195" s="45">
-        <f t="shared" ref="D195:U195" si="23">$B195*(1+$B$116/100)^(D185-1)</f>
+        <f t="shared" ref="D195:U195" si="21">$B195*(1+$B$116/100)^(D185-1)</f>
         <v>94241.049333970353</v>
       </c>
       <c r="E195" s="45">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>96220.11136998373</v>
       </c>
       <c r="F195" s="45">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>98240.733708753367</v>
       </c>
       <c r="G195" s="45">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>100303.78911663717</v>
       </c>
       <c r="H195" s="45">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>102410.16868808655</v>
       </c>
       <c r="I195" s="45">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>104560.78223053635</v>
       </c>
       <c r="J195" s="45">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>106756.55865737759</v>
       </c>
       <c r="K195" s="45">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>108998.44638918251</v>
       </c>
       <c r="L195" s="45">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>111287.41376335533</v>
       </c>
       <c r="M195" s="45">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>113624.44945238579</v>
       </c>
       <c r="N195" s="45">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>116010.56289088586</v>
       </c>
       <c r="O195" s="45">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>118446.78471159445</v>
       </c>
       <c r="P195" s="45">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>120934.16719053793</v>
       </c>
       <c r="Q195" s="45">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>123473.7847015392</v>
       </c>
       <c r="R195" s="45">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>126066.73418027152</v>
       </c>
       <c r="S195" s="45">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>128714.13559805723</v>
       </c>
       <c r="T195" s="45">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>131417.13244561639</v>
       </c>
       <c r="U195" s="45">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>134176.89222697433</v>
       </c>
       <c r="V195" s="66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>2218590.5939323823</v>
       </c>
       <c r="Y195" s="4"/>
@@ -9579,90 +9805,90 @@
     </row>
     <row r="196" spans="1:34">
       <c r="A196" s="52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B196" s="45">
-        <f>B96</f>
+        <f>TotalNonFuelExpenses</f>
         <v>30000</v>
       </c>
       <c r="C196" s="45">
-        <f t="shared" ref="C196:U196" si="24">$B$196*(1+$B$120/100)^(C185-1)</f>
+        <f>NonFuelExpensesCF*(1+EscalationOther/100)^(Year-1)</f>
         <v>30629.999999999996</v>
       </c>
       <c r="D196" s="45">
-        <f t="shared" si="24"/>
+        <f t="shared" ref="D196:U196" si="22">$B$196*(1+$B$120/100)^(D185-1)</f>
         <v>31273.229999999992</v>
       </c>
       <c r="E196" s="45">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>31929.96782999999</v>
       </c>
       <c r="F196" s="45">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>32600.497154429984</v>
       </c>
       <c r="G196" s="45">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>33285.107594673012</v>
       </c>
       <c r="H196" s="45">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>33984.094854161143</v>
       </c>
       <c r="I196" s="45">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>34697.760846098521</v>
       </c>
       <c r="J196" s="45">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>35426.413823866584</v>
       </c>
       <c r="K196" s="45">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>36170.368514167778</v>
       </c>
       <c r="L196" s="45">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>36929.946252965296</v>
       </c>
       <c r="M196" s="45">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>37705.475124277567</v>
       </c>
       <c r="N196" s="45">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>38497.290101887382</v>
       </c>
       <c r="O196" s="45">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>39305.733194027016</v>
       </c>
       <c r="P196" s="45">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>40131.153591101582</v>
       </c>
       <c r="Q196" s="45">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>40973.907816514708</v>
       </c>
       <c r="R196" s="45">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>41834.359880661512</v>
       </c>
       <c r="S196" s="45">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>42712.881438155404</v>
       </c>
       <c r="T196" s="45">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>43609.851948356656</v>
       </c>
       <c r="U196" s="61">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>44525.658839272146</v>
       </c>
       <c r="V196" s="66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>736223.69880461623</v>
       </c>
       <c r="Y196" s="4"/>
@@ -9678,10 +9904,10 @@
     </row>
     <row r="197" spans="1:34">
       <c r="A197" s="52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B197" s="45">
-        <f>$B$136</f>
+        <f>DebtReserve</f>
         <v>63191.037412669408</v>
       </c>
       <c r="C197" s="45">
@@ -9743,7 +9969,7 @@
         <v>-63191.037412669408</v>
       </c>
       <c r="V197" s="66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y197" s="4"/>
@@ -9759,14 +9985,14 @@
     </row>
     <row r="198" spans="1:34">
       <c r="A198" s="52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B198" s="45">
-        <f>$B$129*$B140</f>
+        <f>TotalCostOfPlant*B140</f>
         <v>43750</v>
       </c>
       <c r="C198" s="45">
-        <f>$B$129*$B141</f>
+        <f>TotalCostOfPlant*B141</f>
         <v>43750</v>
       </c>
       <c r="D198" s="45">
@@ -9842,7 +10068,7 @@
         <v>43750</v>
       </c>
       <c r="V198" s="66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>875000</v>
       </c>
       <c r="Y198" s="4"/>
@@ -9858,90 +10084,90 @@
     </row>
     <row r="199" spans="1:34">
       <c r="A199" s="52" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="B199" s="45">
-        <f t="shared" ref="B199:U199" si="25">$B$109</f>
+        <f>AnnualCapacityPayment</f>
         <v>0</v>
       </c>
       <c r="C199" s="45">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="C199:U199" si="23">$B$109</f>
         <v>0</v>
       </c>
       <c r="D199" s="45">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="E199" s="45">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="F199" s="45">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="G199" s="45">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H199" s="45">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I199" s="45">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="J199" s="45">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="K199" s="45">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L199" s="45">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="M199" s="45">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N199" s="45">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="O199" s="45">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="P199" s="45">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q199" s="45">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="R199" s="45">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="S199" s="45">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="T199" s="45">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="U199" s="61">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="V199" s="66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y199" s="4"/>
@@ -9957,90 +10183,90 @@
     </row>
     <row r="200" spans="1:34">
       <c r="A200" s="52" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="B200" s="45">
-        <f>B81</f>
+        <f>TotalIncomeFromHeatSales</f>
         <v>56735.282608695656</v>
       </c>
       <c r="C200" s="45">
-        <f>$B200*(1+$B$118/100)^(C185-1)</f>
+        <f>HeatIncome*(1+EscalationHeatSales/100)^(Year-1)</f>
         <v>57926.723543478256</v>
       </c>
       <c r="D200" s="45">
-        <f t="shared" ref="D200:U200" si="26">$B200*(1+$B$118/100)^(D185-1)</f>
+        <f t="shared" ref="D200:U200" si="24">$B200*(1+$B$118/100)^(D185-1)</f>
         <v>59143.184737891293</v>
       </c>
       <c r="E200" s="45">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>60385.191617387005</v>
       </c>
       <c r="F200" s="45">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>61653.280641352125</v>
       </c>
       <c r="G200" s="45">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>62947.999534820512</v>
       </c>
       <c r="H200" s="45">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>64269.907525051734</v>
       </c>
       <c r="I200" s="45">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>65619.575583077807</v>
       </c>
       <c r="J200" s="45">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>66997.586670322431</v>
       </c>
       <c r="K200" s="45">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>68404.535990399192</v>
       </c>
       <c r="L200" s="45">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>69841.03124619757</v>
       </c>
       <c r="M200" s="45">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>71307.692902367722</v>
       </c>
       <c r="N200" s="45">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>72805.154453317416</v>
       </c>
       <c r="O200" s="45">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>74334.062696837078</v>
       </c>
       <c r="P200" s="45">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>75895.078013470658</v>
       </c>
       <c r="Q200" s="45">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>77488.874651753518</v>
       </c>
       <c r="R200" s="45">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>79116.141019440343</v>
       </c>
       <c r="S200" s="45">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>80777.57998084859</v>
       </c>
       <c r="T200" s="45">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>82473.90916044639</v>
       </c>
       <c r="U200" s="61">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>84205.861252815768</v>
       </c>
       <c r="V200" s="66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>1392328.6538299709</v>
       </c>
       <c r="Y200" s="4"/>
@@ -10056,10 +10282,10 @@
     </row>
     <row r="201" spans="1:34">
       <c r="A201" s="52" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="B201" s="45">
-        <f>B111</f>
+        <f>AnnualIncomeFromChar</f>
         <v>0</v>
       </c>
       <c r="C201" s="45">
@@ -10067,79 +10293,79 @@
         <v>0</v>
       </c>
       <c r="D201" s="45">
-        <f t="shared" ref="D201:U201" si="27">$B201*(1+$B$119/100)^(D185-1)</f>
+        <f t="shared" ref="D201:U201" si="25">$B201*(1+$B$119/100)^(D185-1)</f>
         <v>0</v>
       </c>
       <c r="E201" s="45">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="F201" s="45">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="G201" s="45">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="H201" s="45">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="I201" s="45">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="J201" s="45">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="K201" s="45">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="L201" s="45">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="M201" s="45">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N201" s="45">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="O201" s="45">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="P201" s="45">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Q201" s="45">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="R201" s="45">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="S201" s="45">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="T201" s="45">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="U201" s="45">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="V201" s="66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y201" s="4"/>
@@ -10155,90 +10381,90 @@
     </row>
     <row r="202" spans="1:34">
       <c r="A202" s="52" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B202" s="45">
-        <f t="shared" ref="B202:U202" si="28">$B$110</f>
+        <f>AnnualDebtReserveInterest</f>
         <v>1263.820748253388</v>
       </c>
       <c r="C202" s="45">
-        <f t="shared" si="28"/>
+        <f t="shared" ref="C202:U202" si="26">$B$110</f>
         <v>1263.820748253388</v>
       </c>
       <c r="D202" s="45">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>1263.820748253388</v>
       </c>
       <c r="E202" s="45">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>1263.820748253388</v>
       </c>
       <c r="F202" s="45">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>1263.820748253388</v>
       </c>
       <c r="G202" s="45">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>1263.820748253388</v>
       </c>
       <c r="H202" s="45">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>1263.820748253388</v>
       </c>
       <c r="I202" s="45">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>1263.820748253388</v>
       </c>
       <c r="J202" s="45">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>1263.820748253388</v>
       </c>
       <c r="K202" s="45">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>1263.820748253388</v>
       </c>
       <c r="L202" s="45">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>1263.820748253388</v>
       </c>
       <c r="M202" s="45">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>1263.820748253388</v>
       </c>
       <c r="N202" s="45">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>1263.820748253388</v>
       </c>
       <c r="O202" s="45">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>1263.820748253388</v>
       </c>
       <c r="P202" s="45">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>1263.820748253388</v>
       </c>
       <c r="Q202" s="45">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>1263.820748253388</v>
       </c>
       <c r="R202" s="45">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>1263.820748253388</v>
       </c>
       <c r="S202" s="45">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>1263.820748253388</v>
       </c>
       <c r="T202" s="45">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>1263.820748253388</v>
       </c>
       <c r="U202" s="61">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>1263.820748253388</v>
       </c>
       <c r="V202" s="66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>25276.41496506775</v>
       </c>
       <c r="Y202" s="4"/>
@@ -10254,90 +10480,90 @@
     </row>
     <row r="203" spans="1:34">
       <c r="A203" s="52" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B203" s="45">
-        <f>(($B$103/100)/(1-$B$103/100))*(B$188+B$192+B$187-B$198+B$197)</f>
+        <f>((CombinedTaxRate/100)/(1-CombinedTaxRate/100))*(EquityPrincipalPaid+DebtPrincipalPaid+EquityInterest-Depreciation+DebtReserveCF)</f>
         <v>38694.681948996018</v>
       </c>
       <c r="C203" s="45">
-        <f t="shared" ref="C203:U203" si="29">(($B$103/100)/(1-$B$103/100))*(C$188+C$192+C$187-C$198+C$197)</f>
+        <f t="shared" ref="C203:U203" si="27">(($B$103/100)/(1-$B$103/100))*(C$188+C$192+C$187-C$198+C$197)</f>
         <v>-3220.7360723160145</v>
       </c>
       <c r="D203" s="45">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>-2375.439185306006</v>
       </c>
       <c r="E203" s="45">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>-1487.8774539454973</v>
       </c>
       <c r="F203" s="45">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>-555.93763601696128</v>
       </c>
       <c r="G203" s="45">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>422.59917280800329</v>
       </c>
       <c r="H203" s="45">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>1450.0628220742144</v>
       </c>
       <c r="I203" s="45">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>2528.8996538037409</v>
       </c>
       <c r="J203" s="45">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>3661.6783271197305</v>
       </c>
       <c r="K203" s="45">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>4851.0959341015268</v>
       </c>
       <c r="L203" s="45">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>6099.9844214324157</v>
       </c>
       <c r="M203" s="45">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>7411.3173331298422</v>
       </c>
       <c r="N203" s="45">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>8788.2168904121463</v>
       </c>
       <c r="O203" s="45">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>10233.961425558567</v>
       </c>
       <c r="P203" s="45">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>11751.993187462307</v>
       </c>
       <c r="Q203" s="45">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>13345.926537461235</v>
       </c>
       <c r="R203" s="45">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>15019.556554960103</v>
       </c>
       <c r="S203" s="45">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>16776.868073333921</v>
       </c>
       <c r="T203" s="45">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>18622.045167626427</v>
       </c>
       <c r="U203" s="45">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>-22160.981558973723</v>
       </c>
       <c r="V203" s="66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>129857.91554372199</v>
       </c>
       <c r="Y203" s="4"/>
@@ -10353,14 +10579,14 @@
     </row>
     <row r="204" spans="1:34">
       <c r="A204" s="52" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B204" s="45">
-        <f>$B$41*$B$102*$B163</f>
+        <f>AnnualNetElectricityGeneration*ProductionTaxCredit*B163</f>
         <v>33507</v>
       </c>
       <c r="C204" s="45">
-        <f>$B$41*$B$102*((1+$B$117/100)^(C185-1))*$B164</f>
+        <f>AnnualNetElectricityGeneration*ProductionTaxCredit*((1+EscalationProductionTaxCredit/100)^(Year-1))*$B164</f>
         <v>34210.646999999997</v>
       </c>
       <c r="D204" s="45">
@@ -10436,7 +10662,7 @@
         <v>0</v>
       </c>
       <c r="V204" s="66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>174720.79392810984</v>
       </c>
       <c r="Y204" s="4"/>
@@ -10452,90 +10678,90 @@
     </row>
     <row r="205" spans="1:34">
       <c r="A205" s="52" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B205" s="45">
-        <f>(($B$103/100)/(1-$B$103/100))*(B$188+B$192+B$187-B$198+B$197-B$204)</f>
+        <f>((CombinedTaxRate/100)/(1-CombinedTaxRate/100))*(EquityPrincipalPaid+DebtPrincipalPaid+EquityInterest-Depreciation+DebtReserveCF-TaxCredit)</f>
         <v>16042.188787290472</v>
       </c>
       <c r="C205" s="45">
-        <f t="shared" ref="C205:U205" si="30">(($B$103/100)/(1-$B$103/100))*(C$188+C$192+C$187-C$198+C$197-C$204)</f>
+        <f>((CombinedTaxRate/100)/(1-CombinedTaxRate/100))*(C$188+C$192+C$187-C$198+C$197-C$204)</f>
         <v>-26348.931590417378</v>
       </c>
       <c r="D205" s="45">
-        <f t="shared" si="30"/>
+        <f t="shared" ref="D205:U205" si="28">(($B$103/100)/(1-$B$103/100))*(D$188+D$192+D$187-D$198+D$197-D$204)</f>
         <v>-25989.32680928749</v>
       </c>
       <c r="E205" s="45">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>-25597.656718030594</v>
       </c>
       <c r="F205" s="45">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>-25172.02226464784</v>
       </c>
       <c r="G205" s="45">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>422.59917280800329</v>
       </c>
       <c r="H205" s="45">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>1450.0628220742144</v>
       </c>
       <c r="I205" s="45">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>2528.8996538037409</v>
       </c>
       <c r="J205" s="45">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>3661.6783271197305</v>
       </c>
       <c r="K205" s="45">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>4851.0959341015268</v>
       </c>
       <c r="L205" s="45">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>6099.9844214324157</v>
       </c>
       <c r="M205" s="45">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>7411.3173331298422</v>
       </c>
       <c r="N205" s="45">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>8788.2168904121463</v>
       </c>
       <c r="O205" s="45">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>10233.961425558567</v>
       </c>
       <c r="P205" s="45">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>11751.993187462307</v>
       </c>
       <c r="Q205" s="45">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>13345.926537461235</v>
       </c>
       <c r="R205" s="45">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>15019.556554960103</v>
       </c>
       <c r="S205" s="45">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>16776.868073333921</v>
       </c>
       <c r="T205" s="45">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>18622.045167626427</v>
       </c>
       <c r="U205" s="45">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>-22160.981558973723</v>
       </c>
       <c r="V205" s="66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>11737.475347217634</v>
       </c>
       <c r="Y205" s="4"/>
@@ -10551,90 +10777,90 @@
     </row>
     <row r="206" spans="1:34">
       <c r="A206" s="53" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B206" s="62">
-        <f>B186+B190+B194+B195+B196+B205+B197-B199-B202-B200-B201</f>
+        <f>EquityRecovery+RebtRecovery+BiomassFuelCostCF+DualFuelCostCF+NonFuelExpensesCF+Taxes+DebtReserveCF-CapacityIncome-InterstOnDebtReserve-HeatIncome-CharIncome</f>
         <v>303795.63598923758</v>
       </c>
       <c r="C206" s="62">
-        <f t="shared" ref="C206:U206" si="31">C186+C190+C194+C195+C196+C205+C197-C199-C202-C200-C201</f>
+        <f t="shared" ref="C206:U206" si="29">C186+C190+C194+C195+C196+C205+C197-C199-C202-C200-C201</f>
         <v>201335.25555261195</v>
       </c>
       <c r="D206" s="62">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>204882.1950119221</v>
       </c>
       <c r="E206" s="62">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>208528.13380960113</v>
       </c>
       <c r="F206" s="62">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>212276.3766122408</v>
       </c>
       <c r="G206" s="62">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>241263.38117428799</v>
       </c>
       <c r="H206" s="62">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>245754.46799376199</v>
       </c>
       <c r="I206" s="62">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>250369.66408227367</v>
       </c>
       <c r="J206" s="62">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>255113.06555676417</v>
       </c>
       <c r="K206" s="62">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>259988.92904374521</v>
       </c>
       <c r="L206" s="62">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>265001.67877455533</v>
       </c>
       <c r="M206" s="62">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>270155.91401584499</v>
       </c>
       <c r="N206" s="62">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>275456.41685164097</v>
       </c>
       <c r="O206" s="62">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>280908.1603341499</v>
       </c>
       <c r="P206" s="62">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>286516.3170213108</v>
       </c>
       <c r="Q206" s="62">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>292286.26791999716</v>
       </c>
       <c r="R206" s="62">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>298223.61185470596</v>
       </c>
       <c r="S206" s="62">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>304334.17528255121</v>
       </c>
       <c r="T206" s="62">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>310624.02257641393</v>
       </c>
       <c r="U206" s="62">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>211187.9667109056</v>
       </c>
       <c r="V206" s="57">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>5178001.6361685218</v>
       </c>
       <c r="Y206" s="4"/>
@@ -10682,7 +10908,7 @@
     </row>
     <row r="208" spans="1:34">
       <c r="A208" s="18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B208" s="10"/>
       <c r="C208" s="10"/>
@@ -10717,10 +10943,10 @@
     </row>
     <row r="209" spans="1:57">
       <c r="A209" s="54" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B209" s="55">
-        <f>B127/100</f>
+        <f>CostOfEquity/100</f>
         <v>0.15</v>
       </c>
       <c r="C209" s="59"/>
@@ -10756,86 +10982,86 @@
     </row>
     <row r="210" spans="1:57">
       <c r="A210" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B210" s="24">
-        <f t="shared" ref="B210:U210" si="32">B206*(1+$B$209)^-B185</f>
+        <f>EnergyRevenueRequired*(1+LACCostOfMoney)^-B185</f>
         <v>264170.11825151095</v>
       </c>
       <c r="C210" s="24">
-        <f t="shared" si="32"/>
+        <f>C206*(1+$B$209)^-C185</f>
         <v>152238.37848968769</v>
       </c>
       <c r="D210" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" ref="D210:U210" si="30">D206*(1+$B$209)^-D185</f>
         <v>134713.36895663492</v>
       </c>
       <c r="E210" s="24">
-        <f t="shared" si="32"/>
+        <f>E206*(1+$B$209)^-E185</f>
         <v>119226.63730309781</v>
       </c>
       <c r="F210" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>105538.87590502414</v>
       </c>
       <c r="G210" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>104304.8175645734</v>
       </c>
       <c r="H210" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>92388.207245449303</v>
       </c>
       <c r="I210" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>81846.287305764359</v>
       </c>
       <c r="J210" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>72519.055358121608</v>
       </c>
       <c r="K210" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>64265.287020616794</v>
       </c>
       <c r="L210" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>56960.314860599618</v>
       </c>
       <c r="M210" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>50494.071994775593</v>
       </c>
       <c r="N210" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>44769.368586409182</v>
       </c>
       <c r="O210" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>39700.373317379992</v>
       </c>
       <c r="P210" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>35211.275283262978</v>
       </c>
       <c r="Q210" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>31235.104720536623</v>
       </c>
       <c r="R210" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>27712.69357652944</v>
       </c>
       <c r="S210" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>24591.759218699626</v>
       </c>
       <c r="T210" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>21826.096588813922</v>
       </c>
       <c r="U210" s="49">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>12903.643674924595</v>
       </c>
       <c r="V210" s="68"/>
@@ -10852,7 +11078,7 @@
     </row>
     <row r="211" spans="1:57">
       <c r="A211" s="56" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B211" s="57">
         <f>SUM(B210:U210)</f>
@@ -10881,10 +11107,10 @@
     </row>
     <row r="212" spans="1:57">
       <c r="A212" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B212" s="38">
-        <f>B209*(1+B209)^B126/((1+B209)^B126-1)</f>
+        <f>LACCostOfMoney*(1+LACCostOfMoney)^EconomicLife/((1+LACCostOfMoney)^EconomicLife-1)</f>
         <v>0.1597614704057439</v>
       </c>
       <c r="C212" s="44"/>
@@ -10910,10 +11136,10 @@
     </row>
     <row r="213" spans="1:57" ht="12.75" thickBot="1">
       <c r="A213" s="54" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B213" s="65">
-        <f>B211*B212</f>
+        <f>TotalPresentWorth*CurrentCapitalRecoveryFactor</f>
         <v>245491.98930773581</v>
       </c>
       <c r="C213" s="44"/>
@@ -10952,10 +11178,10 @@
     </row>
     <row r="214" spans="1:57" ht="12.75" thickBot="1">
       <c r="A214" s="130" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B214" s="131">
-        <f>B213/B41</f>
+        <f>CurrentAnnualRevenueRequirements/AnnualNetElectricityGeneration</f>
         <v>6.5939293394503301E-2</v>
       </c>
       <c r="C214" s="63"/>
@@ -11010,7 +11236,7 @@
     </row>
     <row r="216" spans="1:57">
       <c r="A216" s="18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B216" s="20"/>
       <c r="F216" s="4"/>
@@ -11029,10 +11255,10 @@
     </row>
     <row r="217" spans="1:57">
       <c r="A217" s="34" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B217" s="38">
-        <f>(1+B209)/(1+B114/100)-1</f>
+        <f>(1+LACCostOfMoney)/(1+GeneralInflation/100)-1</f>
         <v>0.12634671890303628</v>
       </c>
       <c r="F217" s="4"/>
@@ -11051,10 +11277,10 @@
     </row>
     <row r="218" spans="1:57">
       <c r="A218" s="34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B218" s="38">
-        <f>B217*(1+B217)^B126/((1+B217)^B126-1)</f>
+        <f>RealCostOfMoney*(1+RealCostOfMoney)^EconomicLife/((1+RealCostOfMoney)^EconomicLife-1)</f>
         <v>0.13923864551402346</v>
       </c>
       <c r="F218" s="4"/>
@@ -11073,10 +11299,10 @@
     </row>
     <row r="219" spans="1:57" ht="12.75" thickBot="1">
       <c r="A219" s="54" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B219" s="65">
-        <f>B211*B218</f>
+        <f>TotalPresentWorth*ConstantCapitalRecoveryFactor</f>
         <v>213956.29364790398</v>
       </c>
       <c r="F219" s="4"/>
@@ -11095,10 +11321,10 @@
     </row>
     <row r="220" spans="1:57" ht="12.75" thickBot="1">
       <c r="A220" s="130" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B220" s="131">
-        <f>B219/B41</f>
+        <f>ConstantLevelAnnualRevenue/AnnualNetElectricityGeneration</f>
         <v>5.7468786905158199E-2</v>
       </c>
       <c r="F220" s="4"/>
@@ -11170,7 +11396,7 @@
     </row>
     <row r="224" spans="1:57" ht="15">
       <c r="A224" s="134" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="B224" s="10"/>
       <c r="C224" s="10"/>
@@ -11231,7 +11457,7 @@
     </row>
     <row r="225" spans="1:56">
       <c r="A225" s="11" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="B225" s="4"/>
       <c r="C225" s="4"/>
@@ -11276,7 +11502,7 @@
     </row>
     <row r="227" spans="1:56">
       <c r="B227" s="164" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C227" s="165"/>
       <c r="D227" s="165"/>
@@ -11284,7 +11510,7 @@
       <c r="F227" s="165"/>
       <c r="G227" s="166"/>
       <c r="I227" s="164" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="J227" s="165"/>
       <c r="K227" s="165"/>
@@ -11292,7 +11518,7 @@
       <c r="M227" s="165"/>
       <c r="N227" s="166"/>
       <c r="P227" s="164" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="Q227" s="165"/>
       <c r="R227" s="165"/>
@@ -11300,7 +11526,7 @@
       <c r="T227" s="165"/>
       <c r="U227" s="166"/>
       <c r="W227" s="164" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="X227" s="165"/>
       <c r="Y227" s="165"/>
@@ -11308,7 +11534,7 @@
       <c r="AA227" s="165"/>
       <c r="AB227" s="166"/>
       <c r="AD227" s="164" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="AE227" s="165"/>
       <c r="AF227" s="165"/>
@@ -11316,7 +11542,7 @@
       <c r="AH227" s="165"/>
       <c r="AI227" s="166"/>
       <c r="AK227" s="164" t="s">
-        <v>262</v>
+        <v>237</v>
       </c>
       <c r="AL227" s="165"/>
       <c r="AM227" s="165"/>
@@ -11324,7 +11550,7 @@
       <c r="AO227" s="165"/>
       <c r="AP227" s="166"/>
       <c r="AR227" s="135" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
       <c r="AS227" s="136"/>
       <c r="AT227" s="136"/>
@@ -11335,7 +11561,7 @@
         <v>0.01</v>
       </c>
       <c r="AY227" s="164" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
       <c r="AZ227" s="165"/>
       <c r="BA227" s="165"/>
@@ -11346,285 +11572,285 @@
     <row r="228" spans="1:56" ht="36">
       <c r="A228" s="138"/>
       <c r="B228" s="139" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
       <c r="C228" s="97" t="s">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c r="D228" s="97" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E228" s="97" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="F228" s="97" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="G228" s="98" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="I228" s="139" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
       <c r="J228" s="97" t="s">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c r="K228" s="97" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="L228" s="97" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="M228" s="97" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="N228" s="98" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="P228" s="139" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
       <c r="Q228" s="97" t="s">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c r="R228" s="97" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="S228" s="97" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="T228" s="97" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="U228" s="98" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="W228" s="139" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
       <c r="X228" s="97" t="s">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c r="Y228" s="97" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="Z228" s="97" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="AA228" s="97" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="AB228" s="98" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="AD228" s="139" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
       <c r="AE228" s="97" t="s">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c r="AF228" s="97" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="AG228" s="97" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="AH228" s="97" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="AI228" s="98" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="AK228" s="139" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
       <c r="AL228" s="97" t="s">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c r="AM228" s="97" t="s">
-        <v>262</v>
+        <v>237</v>
       </c>
       <c r="AN228" s="97" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="AO228" s="97" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="AP228" s="98" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="AR228" s="139" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
       <c r="AS228" s="97" t="s">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c r="AT228" s="97" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="AU228" s="97" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="AV228" s="97" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="AW228" s="98" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="AY228" s="139" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
       <c r="AZ228" s="97" t="s">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c r="BA228" s="97" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
       <c r="BB228" s="97" t="s">
-        <v>270</v>
+        <v>245</v>
       </c>
       <c r="BC228" s="97" t="s">
-        <v>271</v>
+        <v>246</v>
       </c>
       <c r="BD228" s="98" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
     </row>
     <row r="229" spans="1:56">
       <c r="A229" s="138"/>
       <c r="B229" s="139"/>
       <c r="C229" s="97" t="s">
-        <v>272</v>
+        <v>247</v>
       </c>
       <c r="D229" s="97" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="E229" s="97" t="s">
-        <v>273</v>
+        <v>248</v>
       </c>
       <c r="F229" s="97" t="s">
-        <v>273</v>
+        <v>248</v>
       </c>
       <c r="G229" s="96" t="s">
-        <v>272</v>
+        <v>247</v>
       </c>
       <c r="I229" s="139"/>
       <c r="J229" s="97" t="s">
-        <v>272</v>
+        <v>247</v>
       </c>
       <c r="K229" s="97" t="s">
-        <v>274</v>
+        <v>249</v>
       </c>
       <c r="L229" s="97" t="s">
-        <v>273</v>
+        <v>248</v>
       </c>
       <c r="M229" s="97" t="s">
-        <v>273</v>
+        <v>248</v>
       </c>
       <c r="N229" s="96" t="s">
-        <v>272</v>
+        <v>247</v>
       </c>
       <c r="P229" s="139"/>
       <c r="Q229" s="97" t="s">
-        <v>272</v>
+        <v>247</v>
       </c>
       <c r="R229" s="97" t="s">
-        <v>273</v>
+        <v>248</v>
       </c>
       <c r="S229" s="97" t="s">
-        <v>273</v>
+        <v>248</v>
       </c>
       <c r="T229" s="97" t="s">
-        <v>273</v>
+        <v>248</v>
       </c>
       <c r="U229" s="96" t="s">
-        <v>272</v>
+        <v>247</v>
       </c>
       <c r="W229" s="139"/>
       <c r="X229" s="97" t="s">
-        <v>272</v>
+        <v>247</v>
       </c>
       <c r="Y229" s="97" t="s">
-        <v>272</v>
+        <v>247</v>
       </c>
       <c r="Z229" s="97" t="s">
-        <v>273</v>
+        <v>248</v>
       </c>
       <c r="AA229" s="97" t="s">
-        <v>273</v>
+        <v>248</v>
       </c>
       <c r="AB229" s="96" t="s">
-        <v>272</v>
+        <v>247</v>
       </c>
       <c r="AD229" s="139"/>
       <c r="AE229" s="97" t="s">
-        <v>272</v>
+        <v>247</v>
       </c>
       <c r="AF229" s="97" t="s">
-        <v>272</v>
+        <v>247</v>
       </c>
       <c r="AG229" s="97" t="s">
-        <v>273</v>
+        <v>248</v>
       </c>
       <c r="AH229" s="97" t="s">
-        <v>273</v>
+        <v>248</v>
       </c>
       <c r="AI229" s="96" t="s">
-        <v>272</v>
+        <v>247</v>
       </c>
       <c r="AK229" s="139"/>
       <c r="AL229" s="97" t="s">
-        <v>272</v>
+        <v>247</v>
       </c>
       <c r="AM229" s="97" t="s">
-        <v>272</v>
+        <v>247</v>
       </c>
       <c r="AN229" s="97" t="s">
-        <v>273</v>
+        <v>248</v>
       </c>
       <c r="AO229" s="97" t="s">
-        <v>273</v>
+        <v>248</v>
       </c>
       <c r="AP229" s="96" t="s">
-        <v>272</v>
+        <v>247</v>
       </c>
       <c r="AR229" s="139"/>
       <c r="AS229" s="97" t="s">
-        <v>272</v>
+        <v>247</v>
       </c>
       <c r="AT229" s="97" t="s">
-        <v>272</v>
+        <v>247</v>
       </c>
       <c r="AU229" s="97" t="s">
-        <v>273</v>
+        <v>248</v>
       </c>
       <c r="AV229" s="97" t="s">
-        <v>273</v>
+        <v>248</v>
       </c>
       <c r="AW229" s="96" t="s">
-        <v>272</v>
+        <v>247</v>
       </c>
       <c r="AY229" s="139"/>
       <c r="AZ229" s="97" t="s">
-        <v>272</v>
+        <v>247</v>
       </c>
       <c r="BA229" s="97" t="s">
-        <v>272</v>
+        <v>247</v>
       </c>
       <c r="BB229" s="97" t="s">
-        <v>273</v>
+        <v>248</v>
       </c>
       <c r="BC229" s="97" t="s">
-        <v>273</v>
+        <v>248</v>
       </c>
       <c r="BD229" s="96" t="s">
-        <v>272</v>
+        <v>247</v>
       </c>
     </row>
     <row r="230" spans="1:56" ht="24">
       <c r="A230" s="138"/>
       <c r="B230" s="140" t="s">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="C230" s="141"/>
       <c r="D230" s="141"/>
@@ -11638,7 +11864,7 @@
       </c>
       <c r="G230" s="143"/>
       <c r="I230" s="140" t="s">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="J230" s="141"/>
       <c r="K230" s="141"/>
@@ -11652,7 +11878,7 @@
       </c>
       <c r="N230" s="143"/>
       <c r="P230" s="140" t="s">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="Q230" s="141"/>
       <c r="R230" s="141"/>
@@ -11666,7 +11892,7 @@
       </c>
       <c r="U230" s="143"/>
       <c r="W230" s="140" t="s">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="X230" s="141"/>
       <c r="Y230" s="141"/>
@@ -11680,7 +11906,7 @@
       </c>
       <c r="AB230" s="143"/>
       <c r="AD230" s="140" t="s">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="AE230" s="141"/>
       <c r="AF230" s="141"/>
@@ -11694,7 +11920,7 @@
       </c>
       <c r="AI230" s="143"/>
       <c r="AK230" s="140" t="s">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="AL230" s="141"/>
       <c r="AM230" s="141"/>
@@ -11708,7 +11934,7 @@
       </c>
       <c r="AP230" s="143"/>
       <c r="AR230" s="140" t="s">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="AS230" s="141"/>
       <c r="AT230" s="141"/>
@@ -11722,7 +11948,7 @@
       </c>
       <c r="AW230" s="143"/>
       <c r="AY230" s="140" t="s">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="AZ230" s="141"/>
       <c r="BA230" s="141"/>
@@ -11738,7 +11964,7 @@
     </row>
     <row r="231" spans="1:56">
       <c r="B231" s="144">
-        <f t="shared" ref="B231:B238" si="33">B232-1</f>
+        <f t="shared" ref="B231:B238" si="31">B232-1</f>
         <v>-10</v>
       </c>
       <c r="C231" s="145">
@@ -11760,7 +11986,7 @@
         <v>-37.073406436846049</v>
       </c>
       <c r="I231" s="144">
-        <f t="shared" ref="I231:I238" si="34">I232-1</f>
+        <f t="shared" ref="I231:I238" si="32">I232-1</f>
         <v>-10</v>
       </c>
       <c r="J231" s="145">
@@ -11771,7 +11997,7 @@
         <v>0</v>
       </c>
       <c r="L231" s="147">
-        <f t="dataTable" ref="L231:M251" dt2D="0" dtr="0" r1="B87" ca="1"/>
+        <f t="dataTable" ref="L231:M251" dt2D="0" dtr="0" r1="B87"/>
         <v>4.0285788510028633E-2</v>
       </c>
       <c r="M231" s="147">
@@ -11782,7 +12008,7 @@
         <v>-38.904731251810993</v>
       </c>
       <c r="P231" s="144">
-        <f t="shared" ref="P231:P238" si="35">P232-1</f>
+        <f t="shared" ref="P231:P238" si="33">P232-1</f>
         <v>-10</v>
       </c>
       <c r="Q231" s="145">
@@ -11804,7 +12030,7 @@
         <v>25.971821799514249</v>
       </c>
       <c r="W231" s="144">
-        <f t="shared" ref="W231:W238" si="36">W232-1</f>
+        <f t="shared" ref="W231:W238" si="34">W232-1</f>
         <v>-10</v>
       </c>
       <c r="X231" s="145">
@@ -11826,7 +12052,7 @@
         <v>46.318416226768719</v>
       </c>
       <c r="AD231" s="144">
-        <f t="shared" ref="AD231:AD238" si="37">AD232-1</f>
+        <f t="shared" ref="AD231:AD238" si="35">AD232-1</f>
         <v>-10</v>
       </c>
       <c r="AE231" s="145">
@@ -11848,7 +12074,7 @@
         <v>-7.9070987206451209</v>
       </c>
       <c r="AK231" s="144">
-        <f t="shared" ref="AK231:AK238" si="38">AK232-1</f>
+        <f t="shared" ref="AK231:AK238" si="36">AK232-1</f>
         <v>-10</v>
       </c>
       <c r="AL231" s="145">
@@ -11870,7 +12096,7 @@
         <v>-8.9133288488068807</v>
       </c>
       <c r="AR231" s="144">
-        <f t="shared" ref="AR231:AR238" si="39">AR232-1</f>
+        <f t="shared" ref="AR231:AR238" si="37">AR232-1</f>
         <v>-10</v>
       </c>
       <c r="AS231" s="145">
@@ -11892,7 +12118,7 @@
         <v>155.66244160863673</v>
       </c>
       <c r="AY231" s="144">
-        <f t="shared" ref="AY231:AY238" si="40">AY232-1</f>
+        <f t="shared" ref="AY231:AY238" si="38">AY232-1</f>
         <v>-10</v>
       </c>
       <c r="AZ231" s="145">
@@ -11903,7 +12129,7 @@
         <v>40</v>
       </c>
       <c r="BB231" s="147">
-        <f t="dataTable" ref="BB231:BC251" dt2D="0" dtr="0" r1="B39"/>
+        <f t="dataTable" ref="BB231:BC251" dt2D="0" dtr="0" r1="B39" ca="1"/>
         <v>0.1036284698833688</v>
       </c>
       <c r="BC231" s="147">
@@ -11916,7 +12142,7 @@
     </row>
     <row r="232" spans="1:56">
       <c r="B232" s="144">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>-9</v>
       </c>
       <c r="C232" s="145">
@@ -11938,11 +12164,11 @@
         <v>-33.366065793161454</v>
       </c>
       <c r="I232" s="144">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>-9</v>
       </c>
       <c r="J232" s="145">
-        <f t="shared" ref="J232:J251" si="41">IF(ISERROR((K232-K$241)/K$241*100),"error",(K232-K$241)/K$241*100)</f>
+        <f t="shared" ref="J232:J251" si="39">IF(ISERROR((K232-K$241)/K$241*100),"error",(K232-K$241)/K$241*100)</f>
         <v>-90.000000000000014</v>
       </c>
       <c r="K232" s="152">
@@ -11960,11 +12186,11 @@
         <v>-35.014258126629919</v>
       </c>
       <c r="P232" s="144">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>-9</v>
       </c>
       <c r="Q232" s="145">
-        <f t="shared" ref="Q232:Q251" si="42">IF(ISERROR((R232-R$241)/R$241*100),"error",(R232-R$241)/R$241*100)</f>
+        <f t="shared" ref="Q232:Q251" si="40">IF(ISERROR((R232-R$241)/R$241*100),"error",(R232-R$241)/R$241*100)</f>
         <v>-89.999999999999986</v>
       </c>
       <c r="R232" s="153">
@@ -11982,11 +12208,11 @@
         <v>23.374639619562835</v>
       </c>
       <c r="W232" s="144">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>-9</v>
       </c>
       <c r="X232" s="145">
-        <f t="shared" ref="X232:X251" si="43">IF(ISERROR((Y232-Y$241)/Y$241*100),"error",(Y232-Y$241)/Y$241*100)</f>
+        <f t="shared" ref="X232:X251" si="41">IF(ISERROR((Y232-Y$241)/Y$241*100),"error",(Y232-Y$241)/Y$241*100)</f>
         <v>-90</v>
       </c>
       <c r="Y232" s="145">
@@ -12004,11 +12230,11 @@
         <v>41.686574604091845</v>
       </c>
       <c r="AD232" s="144">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>-9</v>
       </c>
       <c r="AE232" s="145">
-        <f t="shared" ref="AE232:AE251" si="44">IF(ISERROR((AF232-AF$241)/AF$241*100),"error",(AF232-AF$241)/AF$241*100)</f>
+        <f t="shared" ref="AE232:AE251" si="42">IF(ISERROR((AF232-AF$241)/AF$241*100),"error",(AF232-AF$241)/AF$241*100)</f>
         <v>-72</v>
       </c>
       <c r="AF232" s="154">
@@ -12026,11 +12252,11 @@
         <v>-7.2135501424374855</v>
       </c>
       <c r="AK232" s="144">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>-9</v>
       </c>
       <c r="AL232" s="145">
-        <f t="shared" ref="AL232:AL251" si="45">IF(ISERROR((AM232-AM$241)/AM$241*100),"error",(AM232-AM$241)/AM$241*100)</f>
+        <f t="shared" ref="AL232:AL251" si="43">IF(ISERROR((AM232-AM$241)/AM$241*100),"error",(AM232-AM$241)/AM$241*100)</f>
         <v>-84</v>
       </c>
       <c r="AM232" s="154">
@@ -12048,11 +12274,11 @@
         <v>-8.1764995087131798</v>
       </c>
       <c r="AR232" s="144">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>-9</v>
       </c>
       <c r="AS232" s="145">
-        <f t="shared" ref="AS232:AS251" si="46">IF(ISERROR((AT232-AT$241)/AT$241*100),"error",(AT232-AT$241)/AT$241*100)</f>
+        <f t="shared" ref="AS232:AS251" si="44">IF(ISERROR((AT232-AT$241)/AT$241*100),"error",(AT232-AT$241)/AT$241*100)</f>
         <v>-70.434782608695642</v>
       </c>
       <c r="AT232" s="155">
@@ -12070,11 +12296,11 @@
         <v>103.01190988806843</v>
       </c>
       <c r="AY232" s="144">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>-9</v>
       </c>
       <c r="AZ232" s="145">
-        <f t="shared" ref="AZ232:AZ251" si="47">IF(ISERROR((BA232-BA$241)/BA$241*100),"error",(BA232-BA$241)/BA$241*100)</f>
+        <f t="shared" ref="AZ232:AZ251" si="45">IF(ISERROR((BA232-BA$241)/BA$241*100),"error",(BA232-BA$241)/BA$241*100)</f>
         <v>-47.647058823529406</v>
       </c>
       <c r="BA232" s="154">
@@ -12094,7 +12320,7 @@
     </row>
     <row r="233" spans="1:56">
       <c r="B233" s="144">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>-8</v>
       </c>
       <c r="C233" s="145">
@@ -12116,11 +12342,11 @@
         <v>-29.658725149476851</v>
       </c>
       <c r="I233" s="144">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>-8</v>
       </c>
       <c r="J233" s="145">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>-80</v>
       </c>
       <c r="K233" s="152">
@@ -12138,11 +12364,11 @@
         <v>-31.123785001448795</v>
       </c>
       <c r="P233" s="144">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>-8</v>
       </c>
       <c r="Q233" s="145">
-        <f t="shared" si="42"/>
+        <f t="shared" si="40"/>
         <v>-80</v>
       </c>
       <c r="R233" s="153">
@@ -12160,11 +12386,11 @@
         <v>20.777457439611421</v>
       </c>
       <c r="W233" s="144">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>-8</v>
       </c>
       <c r="X233" s="145">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>-80</v>
       </c>
       <c r="Y233" s="145">
@@ -12182,11 +12408,11 @@
         <v>37.054732981414958</v>
       </c>
       <c r="AD233" s="144">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>-8</v>
       </c>
       <c r="AE233" s="145">
-        <f t="shared" si="44"/>
+        <f t="shared" si="42"/>
         <v>-64</v>
       </c>
       <c r="AF233" s="154">
@@ -12204,11 +12430,11 @@
         <v>-6.4979072783123328</v>
       </c>
       <c r="AK233" s="144">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>-8</v>
       </c>
       <c r="AL233" s="145">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v>-74.666666666666657</v>
       </c>
       <c r="AM233" s="154">
@@ -12226,11 +12452,11 @@
         <v>-7.4029426037286283</v>
       </c>
       <c r="AR233" s="144">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>-8</v>
       </c>
       <c r="AS233" s="145">
-        <f t="shared" si="46"/>
+        <f t="shared" si="44"/>
         <v>-62.608695652173921</v>
       </c>
       <c r="AT233" s="155">
@@ -12248,11 +12474,11 @@
         <v>72.401135631924092</v>
       </c>
       <c r="AY233" s="144">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>-8</v>
       </c>
       <c r="AZ233" s="145">
-        <f t="shared" si="47"/>
+        <f t="shared" si="45"/>
         <v>-42.352941176470587</v>
       </c>
       <c r="BA233" s="154">
@@ -12272,7 +12498,7 @@
     </row>
     <row r="234" spans="1:56">
       <c r="B234" s="144">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>-7</v>
       </c>
       <c r="C234" s="145">
@@ -12294,11 +12520,11 @@
         <v>-25.95138450579223</v>
       </c>
       <c r="I234" s="144">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>-7</v>
       </c>
       <c r="J234" s="145">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>-70</v>
       </c>
       <c r="K234" s="152">
@@ -12316,11 +12542,11 @@
         <v>-27.233311876267674</v>
       </c>
       <c r="P234" s="144">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>-7</v>
       </c>
       <c r="Q234" s="145">
-        <f t="shared" si="42"/>
+        <f t="shared" si="40"/>
         <v>-70</v>
       </c>
       <c r="R234" s="153">
@@ -12338,11 +12564,11 @@
         <v>18.180275259659957</v>
       </c>
       <c r="W234" s="144">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>-7</v>
       </c>
       <c r="X234" s="145">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>-70</v>
       </c>
       <c r="Y234" s="145">
@@ -12360,11 +12586,11 @@
         <v>32.422891358738134</v>
       </c>
       <c r="AD234" s="144">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>-7</v>
       </c>
       <c r="AE234" s="145">
-        <f t="shared" si="44"/>
+        <f t="shared" si="42"/>
         <v>-55.999999999999993</v>
       </c>
       <c r="AF234" s="154">
@@ -12382,11 +12608,11 @@
         <v>-5.7603160943744971</v>
       </c>
       <c r="AK234" s="144">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>-7</v>
       </c>
       <c r="AL234" s="145">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v>-65.333333333333343</v>
       </c>
       <c r="AM234" s="154">
@@ -12404,11 +12630,11 @@
         <v>-6.5927488938245959</v>
       </c>
       <c r="AR234" s="144">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>-7</v>
       </c>
       <c r="AS234" s="145">
-        <f t="shared" si="46"/>
+        <f t="shared" si="44"/>
         <v>-54.782608695652172</v>
       </c>
       <c r="AT234" s="155">
@@ -12426,11 +12652,11 @@
         <v>52.386398618291217</v>
       </c>
       <c r="AY234" s="144">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>-7</v>
       </c>
       <c r="AZ234" s="145">
-        <f t="shared" si="47"/>
+        <f t="shared" si="45"/>
         <v>-37.058823529411768</v>
       </c>
       <c r="BA234" s="154">
@@ -12450,7 +12676,7 @@
     </row>
     <row r="235" spans="1:56">
       <c r="B235" s="144">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>-6</v>
       </c>
       <c r="C235" s="145">
@@ -12472,11 +12698,11 @@
         <v>-22.244043862107613</v>
       </c>
       <c r="I235" s="144">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>-6</v>
       </c>
       <c r="J235" s="145">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>-60</v>
       </c>
       <c r="K235" s="152">
@@ -12494,11 +12720,11 @@
         <v>-23.3428387510866</v>
       </c>
       <c r="P235" s="144">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>-6</v>
       </c>
       <c r="Q235" s="145">
-        <f t="shared" si="42"/>
+        <f t="shared" si="40"/>
         <v>-60</v>
       </c>
       <c r="R235" s="153">
@@ -12516,11 +12742,11 @@
         <v>15.583093079708593</v>
       </c>
       <c r="W235" s="144">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>-6</v>
       </c>
       <c r="X235" s="145">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>-60</v>
       </c>
       <c r="Y235" s="145">
@@ -12538,11 +12764,11 @@
         <v>27.791049736061268</v>
       </c>
       <c r="AD235" s="144">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>-6</v>
       </c>
       <c r="AE235" s="145">
-        <f t="shared" si="44"/>
+        <f t="shared" si="42"/>
         <v>-48</v>
       </c>
       <c r="AF235" s="154">
@@ -12560,11 +12786,11 @@
         <v>-5.0009482945695103</v>
       </c>
       <c r="AK235" s="144">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>-6</v>
       </c>
       <c r="AL235" s="145">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v>-56.000000000000007</v>
       </c>
       <c r="AM235" s="154">
@@ -12582,11 +12808,11 @@
         <v>-5.7465532324316486</v>
       </c>
       <c r="AR235" s="144">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>-6</v>
       </c>
       <c r="AS235" s="145">
-        <f t="shared" si="46"/>
+        <f t="shared" si="44"/>
         <v>-46.956521739130437</v>
       </c>
       <c r="AT235" s="155">
@@ -12604,11 +12830,11 @@
         <v>38.277649575894323</v>
       </c>
       <c r="AY235" s="144">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>-6</v>
       </c>
       <c r="AZ235" s="145">
-        <f t="shared" si="47"/>
+        <f t="shared" si="45"/>
         <v>-31.764705882352938</v>
       </c>
       <c r="BA235" s="154">
@@ -12628,7 +12854,7 @@
     </row>
     <row r="236" spans="1:56">
       <c r="B236" s="144">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>-5</v>
       </c>
       <c r="C236" s="145">
@@ -12650,11 +12876,11 @@
         <v>-18.536703218423032</v>
       </c>
       <c r="I236" s="144">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>-5</v>
       </c>
       <c r="J236" s="145">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>-50</v>
       </c>
       <c r="K236" s="152">
@@ -12672,11 +12898,11 @@
         <v>-19.45236562590549</v>
       </c>
       <c r="P236" s="144">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>-5</v>
       </c>
       <c r="Q236" s="145">
-        <f t="shared" si="42"/>
+        <f t="shared" si="40"/>
         <v>-50</v>
       </c>
       <c r="R236" s="153">
@@ -12694,11 +12920,11 @@
         <v>12.98591089975713</v>
       </c>
       <c r="W236" s="144">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>-5</v>
       </c>
       <c r="X236" s="145">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>-50</v>
       </c>
       <c r="Y236" s="145">
@@ -12716,11 +12942,11 @@
         <v>23.159208113384423</v>
       </c>
       <c r="AD236" s="144">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>-5</v>
       </c>
       <c r="AE236" s="145">
-        <f t="shared" si="44"/>
+        <f t="shared" si="42"/>
         <v>-40</v>
       </c>
       <c r="AF236" s="154">
@@ -12738,11 +12964,11 @@
         <v>-4.2200002232234679</v>
       </c>
       <c r="AK236" s="144">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>-5</v>
       </c>
       <c r="AL236" s="145">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v>-46.666666666666664</v>
       </c>
       <c r="AM236" s="154">
@@ -12760,11 +12986,11 @@
         <v>-4.8654760945129842</v>
       </c>
       <c r="AR236" s="144">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>-5</v>
       </c>
       <c r="AS236" s="145">
-        <f t="shared" si="46"/>
+        <f t="shared" si="44"/>
         <v>-39.130434782608695</v>
       </c>
       <c r="AT236" s="155">
@@ -12782,11 +13008,11 @@
         <v>27.796864572970829</v>
       </c>
       <c r="AY236" s="144">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>-5</v>
       </c>
       <c r="AZ236" s="145">
-        <f t="shared" si="47"/>
+        <f t="shared" si="45"/>
         <v>-26.47058823529412</v>
       </c>
       <c r="BA236" s="154">
@@ -12806,7 +13032,7 @@
     </row>
     <row r="237" spans="1:56">
       <c r="B237" s="144">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>-4</v>
       </c>
       <c r="C237" s="145">
@@ -12828,11 +13054,11 @@
         <v>-14.829362574738388</v>
       </c>
       <c r="I237" s="144">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>-4</v>
       </c>
       <c r="J237" s="145">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>-40</v>
       </c>
       <c r="K237" s="152">
@@ -12850,11 +13076,11 @@
         <v>-15.561892500724392</v>
       </c>
       <c r="P237" s="144">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>-4</v>
       </c>
       <c r="Q237" s="145">
-        <f t="shared" si="42"/>
+        <f t="shared" si="40"/>
         <v>-40</v>
       </c>
       <c r="R237" s="153">
@@ -12872,11 +13098,11 @@
         <v>10.388728719805716</v>
       </c>
       <c r="W237" s="144">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>-4</v>
       </c>
       <c r="X237" s="145">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>-40</v>
       </c>
       <c r="Y237" s="145">
@@ -12894,11 +13120,11 @@
         <v>18.527366490707532</v>
       </c>
       <c r="AD237" s="144">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>-4</v>
       </c>
       <c r="AE237" s="145">
-        <f t="shared" si="44"/>
+        <f t="shared" si="42"/>
         <v>-32</v>
       </c>
       <c r="AF237" s="154">
@@ -12916,11 +13142,11 @@
         <v>-3.417691693145942</v>
       </c>
       <c r="AK237" s="144">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>-4</v>
       </c>
       <c r="AL237" s="145">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v>-37.333333333333329</v>
       </c>
       <c r="AM237" s="154">
@@ -12938,11 +13164,11 @@
         <v>-3.9510480519953095</v>
       </c>
       <c r="AR237" s="144">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>-4</v>
       </c>
       <c r="AS237" s="145">
-        <f t="shared" si="46"/>
+        <f t="shared" si="44"/>
         <v>-31.304347826086953</v>
       </c>
       <c r="AT237" s="155">
@@ -12960,11 +13186,11 @@
         <v>19.704106532738848</v>
       </c>
       <c r="AY237" s="144">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>-4</v>
       </c>
       <c r="AZ237" s="145">
-        <f t="shared" si="47"/>
+        <f t="shared" si="45"/>
         <v>-21.176470588235293</v>
       </c>
       <c r="BA237" s="154">
@@ -12984,7 +13210,7 @@
     </row>
     <row r="238" spans="1:56">
       <c r="B238" s="144">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>-3</v>
       </c>
       <c r="C238" s="145">
@@ -13006,11 +13232,11 @@
         <v>-11.122021931053769</v>
       </c>
       <c r="I238" s="144">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>-3</v>
       </c>
       <c r="J238" s="145">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>-30</v>
       </c>
       <c r="K238" s="152">
@@ -13028,11 +13254,11 @@
         <v>-11.67141937554327</v>
       </c>
       <c r="P238" s="144">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>-3</v>
       </c>
       <c r="Q238" s="145">
-        <f t="shared" si="42"/>
+        <f t="shared" si="40"/>
         <v>-30</v>
       </c>
       <c r="R238" s="153">
@@ -13050,11 +13276,11 @@
         <v>7.7915465398542896</v>
       </c>
       <c r="W238" s="144">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>-3</v>
       </c>
       <c r="X238" s="145">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>-30</v>
       </c>
       <c r="Y238" s="145">
@@ -13072,11 +13298,11 @@
         <v>13.895524868030664</v>
       </c>
       <c r="AD238" s="144">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>-3</v>
       </c>
       <c r="AE238" s="145">
-        <f t="shared" si="44"/>
+        <f t="shared" si="42"/>
         <v>-24.000000000000004</v>
       </c>
       <c r="AF238" s="154">
@@ -13094,11 +13320,11 @@
         <v>-2.5942647496131048</v>
       </c>
       <c r="AK238" s="144">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>-3</v>
       </c>
       <c r="AL238" s="145">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v>-27.999999999999996</v>
       </c>
       <c r="AM238" s="154">
@@ -13116,11 +13342,11 @@
         <v>-3.00512466176338</v>
       </c>
       <c r="AR238" s="144">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>-3</v>
       </c>
       <c r="AS238" s="145">
-        <f t="shared" si="46"/>
+        <f t="shared" si="44"/>
         <v>-23.478260869565212</v>
       </c>
       <c r="AT238" s="155">
@@ -13138,11 +13364,11 @@
         <v>13.266685364372494</v>
       </c>
       <c r="AY238" s="144">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>-3</v>
       </c>
       <c r="AZ238" s="145">
-        <f t="shared" si="47"/>
+        <f t="shared" si="45"/>
         <v>-15.882352941176469</v>
       </c>
       <c r="BA238" s="154">
@@ -13188,7 +13414,7 @@
         <v>-2</v>
       </c>
       <c r="J239" s="145">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>-20</v>
       </c>
       <c r="K239" s="152">
@@ -13210,7 +13436,7 @@
         <v>-2</v>
       </c>
       <c r="Q239" s="145">
-        <f t="shared" si="42"/>
+        <f t="shared" si="40"/>
         <v>-20</v>
       </c>
       <c r="R239" s="153">
@@ -13232,7 +13458,7 @@
         <v>-2</v>
       </c>
       <c r="X239" s="145">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>-20</v>
       </c>
       <c r="Y239" s="145">
@@ -13254,7 +13480,7 @@
         <v>-2</v>
       </c>
       <c r="AE239" s="145">
-        <f t="shared" si="44"/>
+        <f t="shared" si="42"/>
         <v>-15.999999999999998</v>
       </c>
       <c r="AF239" s="154">
@@ -13276,7 +13502,7 @@
         <v>-2</v>
       </c>
       <c r="AL239" s="145">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v>-18.666666666666671</v>
       </c>
       <c r="AM239" s="154">
@@ -13298,7 +13524,7 @@
         <v>-2</v>
       </c>
       <c r="AS239" s="145">
-        <f t="shared" si="46"/>
+        <f t="shared" si="44"/>
         <v>-15.652173913043486</v>
       </c>
       <c r="AT239" s="155">
@@ -13320,7 +13546,7 @@
         <v>-2</v>
       </c>
       <c r="AZ239" s="145">
-        <f t="shared" si="47"/>
+        <f t="shared" si="45"/>
         <v>-10.588235294117647</v>
       </c>
       <c r="BA239" s="154">
@@ -13364,7 +13590,7 @@
         <v>-1</v>
       </c>
       <c r="J240" s="145">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>-10.000000000000007</v>
       </c>
       <c r="K240" s="152">
@@ -13385,7 +13611,7 @@
         <v>-1</v>
       </c>
       <c r="Q240" s="145">
-        <f t="shared" si="42"/>
+        <f t="shared" si="40"/>
         <v>-9.9999999999999911</v>
       </c>
       <c r="R240" s="153">
@@ -13406,7 +13632,7 @@
         <v>-1</v>
       </c>
       <c r="X240" s="145">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>-10</v>
       </c>
       <c r="Y240" s="145">
@@ -13427,7 +13653,7 @@
         <v>-1</v>
       </c>
       <c r="AE240" s="145">
-        <f t="shared" si="44"/>
+        <f t="shared" si="42"/>
         <v>-8.0000000000000071</v>
       </c>
       <c r="AF240" s="154">
@@ -13448,7 +13674,7 @@
         <v>-1</v>
       </c>
       <c r="AL240" s="145">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v>-9.3333333333333357</v>
       </c>
       <c r="AM240" s="154">
@@ -13469,7 +13695,7 @@
         <v>-1</v>
       </c>
       <c r="AS240" s="145">
-        <f t="shared" si="46"/>
+        <f t="shared" si="44"/>
         <v>-7.8260869565217428</v>
       </c>
       <c r="AT240" s="155">
@@ -13490,7 +13716,7 @@
         <v>-1</v>
       </c>
       <c r="AZ240" s="145">
-        <f t="shared" si="47"/>
+        <f t="shared" si="45"/>
         <v>-5.2941176470588234</v>
       </c>
       <c r="BA240" s="154">
@@ -13510,7 +13736,7 @@
     </row>
     <row r="241" spans="2:56">
       <c r="B241" s="144" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="C241" s="145">
         <f>IF(ISERROR((D241-D241)/D241*100),"error",(D241-D241)/D241*100)</f>
@@ -13530,10 +13756,10 @@
         <v>0</v>
       </c>
       <c r="I241" s="144" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="J241" s="145">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="K241" s="149">
@@ -13550,10 +13776,10 @@
         <v>0</v>
       </c>
       <c r="P241" s="144" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="Q241" s="145">
-        <f t="shared" si="42"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="R241" s="150">
@@ -13570,10 +13796,10 @@
         <v>0</v>
       </c>
       <c r="W241" s="144" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="X241" s="145">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="Y241" s="146">
@@ -13590,10 +13816,10 @@
         <v>0</v>
       </c>
       <c r="AD241" s="144" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="AE241" s="145">
-        <f t="shared" si="44"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AF241" s="151">
@@ -13610,10 +13836,10 @@
         <v>0</v>
       </c>
       <c r="AK241" s="144" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="AL241" s="145">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AM241" s="151">
@@ -13630,10 +13856,10 @@
         <v>0</v>
       </c>
       <c r="AR241" s="144" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="AS241" s="145">
-        <f t="shared" si="46"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AT241" s="151">
@@ -13650,10 +13876,10 @@
         <v>0</v>
       </c>
       <c r="AY241" s="144" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="AZ241" s="145">
-        <f t="shared" si="47"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="BA241" s="151">
@@ -13696,7 +13922,7 @@
         <v>1</v>
       </c>
       <c r="J242" s="145">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>35.351473922902485</v>
       </c>
       <c r="K242" s="152">
@@ -13717,7 +13943,7 @@
         <v>1</v>
       </c>
       <c r="Q242" s="145">
-        <f t="shared" si="42"/>
+        <f t="shared" si="40"/>
         <v>40</v>
       </c>
       <c r="R242" s="153">
@@ -13738,7 +13964,7 @@
         <v>1</v>
       </c>
       <c r="X242" s="145">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>1.1111111111111112</v>
       </c>
       <c r="Y242" s="145">
@@ -13759,7 +13985,7 @@
         <v>1</v>
       </c>
       <c r="AE242" s="145">
-        <f t="shared" si="44"/>
+        <f t="shared" si="42"/>
         <v>20</v>
       </c>
       <c r="AF242" s="154">
@@ -13780,7 +14006,7 @@
         <v>1</v>
       </c>
       <c r="AL242" s="145">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v>23.333333333333332</v>
       </c>
       <c r="AM242" s="154">
@@ -13801,7 +14027,7 @@
         <v>1</v>
       </c>
       <c r="AS242" s="145">
-        <f t="shared" si="46"/>
+        <f t="shared" si="44"/>
         <v>11.739130434782606</v>
       </c>
       <c r="AT242" s="155">
@@ -13822,7 +14048,7 @@
         <v>1</v>
       </c>
       <c r="AZ242" s="145">
-        <f t="shared" si="47"/>
+        <f t="shared" si="45"/>
         <v>1.7647058823529411</v>
       </c>
       <c r="BA242" s="154">
@@ -13868,7 +14094,7 @@
         <v>2</v>
       </c>
       <c r="J243" s="145">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>70.702947845804985</v>
       </c>
       <c r="K243" s="152">
@@ -13890,7 +14116,7 @@
         <v>2</v>
       </c>
       <c r="Q243" s="145">
-        <f t="shared" si="42"/>
+        <f t="shared" si="40"/>
         <v>80.000000000000014</v>
       </c>
       <c r="R243" s="153">
@@ -13912,7 +14138,7 @@
         <v>2</v>
       </c>
       <c r="X243" s="145">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>2.2222222222222223</v>
       </c>
       <c r="Y243" s="145">
@@ -13934,7 +14160,7 @@
         <v>2</v>
       </c>
       <c r="AE243" s="145">
-        <f t="shared" si="44"/>
+        <f t="shared" si="42"/>
         <v>40</v>
       </c>
       <c r="AF243" s="154">
@@ -13956,7 +14182,7 @@
         <v>2</v>
       </c>
       <c r="AL243" s="145">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v>46.666666666666664</v>
       </c>
       <c r="AM243" s="154">
@@ -13978,7 +14204,7 @@
         <v>2</v>
       </c>
       <c r="AS243" s="145">
-        <f t="shared" si="46"/>
+        <f t="shared" si="44"/>
         <v>23.478260869565212</v>
       </c>
       <c r="AT243" s="155">
@@ -14000,7 +14226,7 @@
         <v>2</v>
       </c>
       <c r="AZ243" s="145">
-        <f t="shared" si="47"/>
+        <f t="shared" si="45"/>
         <v>3.5294117647058822</v>
       </c>
       <c r="BA243" s="154">
@@ -14020,7 +14246,7 @@
     </row>
     <row r="244" spans="2:56">
       <c r="B244" s="144">
-        <f t="shared" ref="B244:B251" si="48">B243+1</f>
+        <f t="shared" ref="B244:B251" si="46">B243+1</f>
         <v>3</v>
       </c>
       <c r="C244" s="145">
@@ -14042,11 +14268,11 @@
         <v>14.299742482783518</v>
       </c>
       <c r="I244" s="144">
-        <f t="shared" ref="I244:I251" si="49">I243+1</f>
+        <f t="shared" ref="I244:I251" si="47">I243+1</f>
         <v>3</v>
       </c>
       <c r="J244" s="145">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>106.0544217687075</v>
       </c>
       <c r="K244" s="152">
@@ -14064,11 +14290,11 @@
         <v>41.260187769777865</v>
       </c>
       <c r="P244" s="144">
-        <f t="shared" ref="P244:P251" si="50">P243+1</f>
+        <f t="shared" ref="P244:P251" si="48">P243+1</f>
         <v>3</v>
       </c>
       <c r="Q244" s="145">
-        <f t="shared" si="42"/>
+        <f t="shared" si="40"/>
         <v>119.99999999999997</v>
       </c>
       <c r="R244" s="153">
@@ -14086,11 +14312,11 @@
         <v>-31.166186159417052</v>
       </c>
       <c r="W244" s="144">
-        <f t="shared" ref="W244:W251" si="51">W243+1</f>
+        <f t="shared" ref="W244:W251" si="49">W243+1</f>
         <v>3</v>
       </c>
       <c r="X244" s="145">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="Y244" s="145">
@@ -14108,11 +14334,11 @@
         <v>-1.5439472075589158</v>
       </c>
       <c r="AD244" s="144">
-        <f t="shared" ref="AD244:AD251" si="52">AD243+1</f>
+        <f t="shared" ref="AD244:AD251" si="50">AD243+1</f>
         <v>3</v>
       </c>
       <c r="AE244" s="145">
-        <f t="shared" si="44"/>
+        <f t="shared" si="42"/>
         <v>60</v>
       </c>
       <c r="AF244" s="154">
@@ -14130,11 +14356,11 @@
         <v>7.2502747313807641</v>
       </c>
       <c r="AK244" s="144">
-        <f t="shared" ref="AK244:AK251" si="53">AK243+1</f>
+        <f t="shared" ref="AK244:AK251" si="51">AK243+1</f>
         <v>3</v>
       </c>
       <c r="AL244" s="145">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v>70</v>
       </c>
       <c r="AM244" s="154">
@@ -14152,11 +14378,11 @@
         <v>8.2740922035827591</v>
       </c>
       <c r="AR244" s="144">
-        <f t="shared" ref="AR244:AR251" si="54">AR243+1</f>
+        <f t="shared" ref="AR244:AR251" si="52">AR243+1</f>
         <v>3</v>
       </c>
       <c r="AS244" s="145">
-        <f t="shared" si="46"/>
+        <f t="shared" si="44"/>
         <v>35.217391304347835</v>
       </c>
       <c r="AT244" s="155">
@@ -14174,11 +14400,11 @@
         <v>-11.261752206412599</v>
       </c>
       <c r="AY244" s="144">
-        <f t="shared" ref="AY244:AY251" si="55">AY243+1</f>
+        <f t="shared" ref="AY244:AY251" si="53">AY243+1</f>
         <v>3</v>
       </c>
       <c r="AZ244" s="145">
-        <f t="shared" si="47"/>
+        <f t="shared" si="45"/>
         <v>5.2941176470588234</v>
       </c>
       <c r="BA244" s="154">
@@ -14198,7 +14424,7 @@
     </row>
     <row r="245" spans="2:56">
       <c r="B245" s="144">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>4</v>
       </c>
       <c r="C245" s="145">
@@ -14220,11 +14446,11 @@
         <v>19.066323310377985</v>
       </c>
       <c r="I245" s="144">
-        <f t="shared" si="49"/>
+        <f t="shared" si="47"/>
         <v>4</v>
       </c>
       <c r="J245" s="145">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>141.40589569161</v>
       </c>
       <c r="K245" s="152">
@@ -14242,11 +14468,11 @@
         <v>55.013583693037127</v>
       </c>
       <c r="P245" s="144">
-        <f t="shared" si="50"/>
+        <f t="shared" si="48"/>
         <v>4</v>
       </c>
       <c r="Q245" s="145">
-        <f t="shared" si="42"/>
+        <f t="shared" si="40"/>
         <v>160</v>
       </c>
       <c r="R245" s="153">
@@ -14264,11 +14490,11 @@
         <v>-41.554914879222757</v>
       </c>
       <c r="W245" s="144">
-        <f t="shared" si="51"/>
+        <f t="shared" si="49"/>
         <v>4</v>
       </c>
       <c r="X245" s="145">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>4.4444444444444446</v>
       </c>
       <c r="Y245" s="145">
@@ -14286,11 +14512,11 @@
         <v>-2.058596276745241</v>
       </c>
       <c r="AD245" s="144">
-        <f t="shared" si="52"/>
+        <f t="shared" si="50"/>
         <v>4</v>
       </c>
       <c r="AE245" s="145">
-        <f t="shared" si="44"/>
+        <f t="shared" si="42"/>
         <v>80</v>
       </c>
       <c r="AF245" s="154">
@@ -14308,11 +14534,11 @@
         <v>9.8897949418599538</v>
       </c>
       <c r="AK245" s="144">
-        <f t="shared" si="53"/>
+        <f t="shared" si="51"/>
         <v>4</v>
       </c>
       <c r="AL245" s="145">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v>93.333333333333329</v>
       </c>
       <c r="AM245" s="154">
@@ -14330,11 +14556,11 @@
         <v>11.170664313055628</v>
       </c>
       <c r="AR245" s="144">
-        <f t="shared" si="54"/>
+        <f t="shared" si="52"/>
         <v>4</v>
       </c>
       <c r="AS245" s="145">
-        <f t="shared" si="46"/>
+        <f t="shared" si="44"/>
         <v>46.956521739130423</v>
       </c>
       <c r="AT245" s="155">
@@ -14352,11 +14578,11 @@
         <v>-13.816193042186677</v>
       </c>
       <c r="AY245" s="144">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v>4</v>
       </c>
       <c r="AZ245" s="145">
-        <f t="shared" si="47"/>
+        <f t="shared" si="45"/>
         <v>7.0588235294117645</v>
       </c>
       <c r="BA245" s="154">
@@ -14376,7 +14602,7 @@
     </row>
     <row r="246" spans="2:56">
       <c r="B246" s="144">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>5</v>
       </c>
       <c r="C246" s="145">
@@ -14398,11 +14624,11 @@
         <v>23.832904137972506</v>
       </c>
       <c r="I246" s="144">
-        <f t="shared" si="49"/>
+        <f t="shared" si="47"/>
         <v>5</v>
       </c>
       <c r="J246" s="145">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>176.7573696145125</v>
       </c>
       <c r="K246" s="152">
@@ -14420,11 +14646,11 @@
         <v>68.766979616296439</v>
       </c>
       <c r="P246" s="144">
-        <f t="shared" si="50"/>
+        <f t="shared" si="48"/>
         <v>5</v>
       </c>
       <c r="Q246" s="145">
-        <f t="shared" si="42"/>
+        <f t="shared" si="40"/>
         <v>199.99999999999994</v>
       </c>
       <c r="R246" s="153">
@@ -14442,11 +14668,11 @@
         <v>-51.943643599028412</v>
       </c>
       <c r="W246" s="144">
-        <f t="shared" si="51"/>
+        <f t="shared" si="49"/>
         <v>5</v>
       </c>
       <c r="X246" s="145">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>5.5555555555555554</v>
       </c>
       <c r="Y246" s="145">
@@ -14464,11 +14690,11 @@
         <v>-2.5732453459315665</v>
       </c>
       <c r="AD246" s="144">
-        <f t="shared" si="52"/>
+        <f t="shared" si="50"/>
         <v>5</v>
       </c>
       <c r="AE246" s="145">
-        <f t="shared" si="44"/>
+        <f t="shared" si="42"/>
         <v>100</v>
       </c>
       <c r="AF246" s="154">
@@ -14486,11 +14712,11 @@
         <v>12.630276906537446</v>
       </c>
       <c r="AK246" s="144">
-        <f t="shared" si="53"/>
+        <f t="shared" si="51"/>
         <v>5</v>
       </c>
       <c r="AL246" s="145">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v>116.66666666666667</v>
       </c>
       <c r="AM246" s="154">
@@ -14508,11 +14734,11 @@
         <v>14.100807703906614</v>
       </c>
       <c r="AR246" s="144">
-        <f t="shared" si="54"/>
+        <f t="shared" si="52"/>
         <v>5</v>
       </c>
       <c r="AS246" s="145">
-        <f t="shared" si="46"/>
+        <f t="shared" si="44"/>
         <v>58.695652173913047</v>
       </c>
       <c r="AT246" s="155">
@@ -14530,11 +14756,11 @@
         <v>-15.992716603627045</v>
       </c>
       <c r="AY246" s="144">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v>5</v>
       </c>
       <c r="AZ246" s="145">
-        <f t="shared" si="47"/>
+        <f t="shared" si="45"/>
         <v>8.8235294117647065</v>
       </c>
       <c r="BA246" s="154">
@@ -14554,7 +14780,7 @@
     </row>
     <row r="247" spans="2:56">
       <c r="B247" s="144">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>6</v>
       </c>
       <c r="C247" s="145">
@@ -14576,11 +14802,11 @@
         <v>28.599484965566997</v>
       </c>
       <c r="I247" s="144">
-        <f t="shared" si="49"/>
+        <f t="shared" si="47"/>
         <v>6</v>
       </c>
       <c r="J247" s="145">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>212.108843537415</v>
       </c>
       <c r="K247" s="152">
@@ -14598,11 +14824,11 @@
         <v>82.520375539555729</v>
       </c>
       <c r="P247" s="144">
-        <f t="shared" si="50"/>
+        <f t="shared" si="48"/>
         <v>6</v>
       </c>
       <c r="Q247" s="145">
-        <f t="shared" si="42"/>
+        <f t="shared" si="40"/>
         <v>240</v>
       </c>
       <c r="R247" s="153">
@@ -14620,11 +14846,11 @@
         <v>-62.332372318834132</v>
       </c>
       <c r="W247" s="144">
-        <f t="shared" si="51"/>
+        <f t="shared" si="49"/>
         <v>6</v>
       </c>
       <c r="X247" s="145">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>6.666666666666667</v>
       </c>
       <c r="Y247" s="145">
@@ -14642,11 +14868,11 @@
         <v>-3.087894415117904</v>
       </c>
       <c r="AD247" s="144">
-        <f t="shared" si="52"/>
+        <f t="shared" si="50"/>
         <v>6</v>
       </c>
       <c r="AE247" s="145">
-        <f t="shared" si="44"/>
+        <f t="shared" si="42"/>
         <v>120</v>
       </c>
       <c r="AF247" s="154">
@@ -14664,11 +14890,11 @@
         <v>15.465255779482828</v>
       </c>
       <c r="AK247" s="144">
-        <f t="shared" si="53"/>
+        <f t="shared" si="51"/>
         <v>6</v>
       </c>
       <c r="AL247" s="145">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v>140</v>
       </c>
       <c r="AM247" s="154">
@@ -14686,11 +14912,11 @@
         <v>17.0505509977054</v>
       </c>
       <c r="AR247" s="144">
-        <f t="shared" si="54"/>
+        <f t="shared" si="52"/>
         <v>6</v>
       </c>
       <c r="AS247" s="145">
-        <f t="shared" si="46"/>
+        <f t="shared" si="44"/>
         <v>70.43478260869567</v>
       </c>
       <c r="AT247" s="155">
@@ -14708,11 +14934,11 @@
         <v>-17.869412939766942</v>
       </c>
       <c r="AY247" s="144">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v>6</v>
       </c>
       <c r="AZ247" s="145">
-        <f t="shared" si="47"/>
+        <f t="shared" si="45"/>
         <v>10.588235294117647</v>
       </c>
       <c r="BA247" s="154">
@@ -14732,7 +14958,7 @@
     </row>
     <row r="248" spans="2:56">
       <c r="B248" s="144">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>7</v>
       </c>
       <c r="C248" s="145">
@@ -14754,11 +14980,11 @@
         <v>33.366065793161468</v>
       </c>
       <c r="I248" s="144">
-        <f t="shared" si="49"/>
+        <f t="shared" si="47"/>
         <v>7</v>
       </c>
       <c r="J248" s="145">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>247.46031746031741</v>
       </c>
       <c r="K248" s="152">
@@ -14776,11 +15002,11 @@
         <v>96.273771462814977</v>
       </c>
       <c r="P248" s="144">
-        <f t="shared" si="50"/>
+        <f t="shared" si="48"/>
         <v>7</v>
       </c>
       <c r="Q248" s="145">
-        <f t="shared" si="42"/>
+        <f t="shared" si="40"/>
         <v>280</v>
       </c>
       <c r="R248" s="153">
@@ -14798,11 +15024,11 @@
         <v>-72.72110103863983</v>
       </c>
       <c r="W248" s="144">
-        <f t="shared" si="51"/>
+        <f t="shared" si="49"/>
         <v>7</v>
       </c>
       <c r="X248" s="145">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>7.7777777777777777</v>
       </c>
       <c r="Y248" s="145">
@@ -14820,11 +15046,11 @@
         <v>-3.6025434843042055</v>
       </c>
       <c r="AD248" s="144">
-        <f t="shared" si="52"/>
+        <f t="shared" si="50"/>
         <v>7</v>
       </c>
       <c r="AE248" s="145">
-        <f t="shared" si="44"/>
+        <f t="shared" si="42"/>
         <v>140</v>
       </c>
       <c r="AF248" s="154">
@@ -14842,11 +15068,11 @@
         <v>18.388271490858894</v>
       </c>
       <c r="AK248" s="144">
-        <f t="shared" si="53"/>
+        <f t="shared" si="51"/>
         <v>7</v>
       </c>
       <c r="AL248" s="145">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v>163.33333333333334</v>
       </c>
       <c r="AM248" s="154">
@@ -14864,11 +15090,11 @@
         <v>20.00962735623397</v>
       </c>
       <c r="AR248" s="144">
-        <f t="shared" si="54"/>
+        <f t="shared" si="52"/>
         <v>7</v>
       </c>
       <c r="AS248" s="145">
-        <f t="shared" si="46"/>
+        <f t="shared" si="44"/>
         <v>82.173913043478251</v>
       </c>
       <c r="AT248" s="155">
@@ -14886,11 +15112,11 @@
         <v>-19.504243876977103</v>
       </c>
       <c r="AY248" s="144">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v>7</v>
       </c>
       <c r="AZ248" s="145">
-        <f t="shared" si="47"/>
+        <f t="shared" si="45"/>
         <v>12.352941176470589</v>
       </c>
       <c r="BA248" s="154">
@@ -14910,7 +15136,7 @@
     </row>
     <row r="249" spans="2:56">
       <c r="B249" s="144">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>8</v>
       </c>
       <c r="C249" s="145">
@@ -14932,11 +15158,11 @@
         <v>38.132646620755985</v>
       </c>
       <c r="I249" s="144">
-        <f t="shared" si="49"/>
+        <f t="shared" si="47"/>
         <v>8</v>
       </c>
       <c r="J249" s="145">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>282.81179138321994</v>
       </c>
       <c r="K249" s="152">
@@ -14954,11 +15180,11 @@
         <v>110.02716738607418</v>
       </c>
       <c r="P249" s="144">
-        <f t="shared" si="50"/>
+        <f t="shared" si="48"/>
         <v>8</v>
       </c>
       <c r="Q249" s="145">
-        <f t="shared" si="42"/>
+        <f t="shared" si="40"/>
         <v>320</v>
       </c>
       <c r="R249" s="153">
@@ -14976,11 +15202,11 @@
         <v>-83.109829758445514</v>
       </c>
       <c r="W249" s="144">
-        <f t="shared" si="51"/>
+        <f t="shared" si="49"/>
         <v>8</v>
       </c>
       <c r="X249" s="145">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>8.8888888888888893</v>
       </c>
       <c r="Y249" s="145">
@@ -14998,11 +15224,11 @@
         <v>-4.1171925534905185</v>
       </c>
       <c r="AD249" s="144">
-        <f t="shared" si="52"/>
+        <f t="shared" si="50"/>
         <v>8</v>
       </c>
       <c r="AE249" s="145">
-        <f t="shared" si="44"/>
+        <f t="shared" si="42"/>
         <v>160</v>
       </c>
       <c r="AF249" s="154">
@@ -15020,11 +15246,11 @@
         <v>21.392955290119062</v>
       </c>
       <c r="AK249" s="144">
-        <f t="shared" si="53"/>
+        <f t="shared" si="51"/>
         <v>8</v>
       </c>
       <c r="AL249" s="145">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v>186.66666666666666</v>
       </c>
       <c r="AM249" s="154">
@@ -15042,11 +15268,11 @@
         <v>22.970590840644213</v>
       </c>
       <c r="AR249" s="144">
-        <f t="shared" si="54"/>
+        <f t="shared" si="52"/>
         <v>8</v>
       </c>
       <c r="AS249" s="145">
-        <f t="shared" si="46"/>
+        <f t="shared" si="44"/>
         <v>93.913043478260875</v>
       </c>
       <c r="AT249" s="155">
@@ -15064,11 +15290,11 @@
         <v>-20.941135642417454</v>
       </c>
       <c r="AY249" s="144">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v>8</v>
       </c>
       <c r="AZ249" s="145">
-        <f t="shared" si="47"/>
+        <f t="shared" si="45"/>
         <v>14.117647058823529</v>
       </c>
       <c r="BA249" s="154">
@@ -15088,7 +15314,7 @@
     </row>
     <row r="250" spans="2:56">
       <c r="B250" s="144">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>9</v>
       </c>
       <c r="C250" s="145">
@@ -15110,11 +15336,11 @@
         <v>42.899227448350459</v>
       </c>
       <c r="I250" s="144">
-        <f t="shared" si="49"/>
+        <f t="shared" si="47"/>
         <v>9</v>
       </c>
       <c r="J250" s="145">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>318.16326530612241</v>
       </c>
       <c r="K250" s="152">
@@ -15132,11 +15358,11 @@
         <v>123.78056330933343</v>
       </c>
       <c r="P250" s="144">
-        <f t="shared" si="50"/>
+        <f t="shared" si="48"/>
         <v>9</v>
       </c>
       <c r="Q250" s="145">
-        <f t="shared" si="42"/>
+        <f t="shared" si="40"/>
         <v>359.99999999999994</v>
       </c>
       <c r="R250" s="153">
@@ -15154,11 +15380,11 @@
         <v>-93.498558478251198</v>
       </c>
       <c r="W250" s="144">
-        <f t="shared" si="51"/>
+        <f t="shared" si="49"/>
         <v>9</v>
       </c>
       <c r="X250" s="145">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>10</v>
       </c>
       <c r="Y250" s="145">
@@ -15176,11 +15402,11 @@
         <v>-4.6318416226768679</v>
       </c>
       <c r="AD250" s="144">
-        <f t="shared" si="52"/>
+        <f t="shared" si="50"/>
         <v>9</v>
       </c>
       <c r="AE250" s="145">
-        <f t="shared" si="44"/>
+        <f t="shared" si="42"/>
         <v>180</v>
       </c>
       <c r="AF250" s="154">
@@ -15198,11 +15424,11 @@
         <v>24.473101737019391</v>
       </c>
       <c r="AK250" s="144">
-        <f t="shared" si="53"/>
+        <f t="shared" si="51"/>
         <v>9</v>
       </c>
       <c r="AL250" s="145">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v>210</v>
       </c>
       <c r="AM250" s="154">
@@ -15220,11 +15446,11 @@
         <v>25.928095002942953</v>
       </c>
       <c r="AR250" s="144">
-        <f t="shared" si="54"/>
+        <f t="shared" si="52"/>
         <v>9</v>
       </c>
       <c r="AS250" s="145">
-        <f t="shared" si="46"/>
+        <f t="shared" si="44"/>
         <v>105.65217391304347</v>
       </c>
       <c r="AT250" s="155">
@@ -15242,11 +15468,11 @@
         <v>-22.213984796158474</v>
       </c>
       <c r="AY250" s="144">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v>9</v>
       </c>
       <c r="AZ250" s="145">
-        <f t="shared" si="47"/>
+        <f t="shared" si="45"/>
         <v>15.882352941176469</v>
       </c>
       <c r="BA250" s="154">
@@ -15266,7 +15492,7 @@
     </row>
     <row r="251" spans="2:56" ht="12.75" thickBot="1">
       <c r="B251" s="156">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>10</v>
       </c>
       <c r="C251" s="157">
@@ -15287,11 +15513,11 @@
         <v>47.665808275945039</v>
       </c>
       <c r="I251" s="156">
-        <f t="shared" si="49"/>
+        <f t="shared" si="47"/>
         <v>10</v>
       </c>
       <c r="J251" s="157">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>353.51473922902494</v>
       </c>
       <c r="K251" s="161">
@@ -15308,11 +15534,11 @@
         <v>137.53395923259282</v>
       </c>
       <c r="P251" s="156">
-        <f t="shared" si="50"/>
+        <f t="shared" si="48"/>
         <v>10</v>
       </c>
       <c r="Q251" s="157">
-        <f t="shared" si="42"/>
+        <f t="shared" si="40"/>
         <v>400</v>
       </c>
       <c r="R251" s="162">
@@ -15329,11 +15555,11 @@
         <v>-103.88728719805688</v>
       </c>
       <c r="W251" s="156">
-        <f t="shared" si="51"/>
+        <f t="shared" si="49"/>
         <v>10</v>
       </c>
       <c r="X251" s="157">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>11.111111111111111</v>
       </c>
       <c r="Y251" s="158">
@@ -15350,11 +15576,11 @@
         <v>-5.146490691863133</v>
       </c>
       <c r="AD251" s="156">
-        <f t="shared" si="52"/>
+        <f t="shared" si="50"/>
         <v>10</v>
       </c>
       <c r="AE251" s="157">
-        <f t="shared" si="44"/>
+        <f t="shared" si="42"/>
         <v>200</v>
       </c>
       <c r="AF251" s="163">
@@ -15371,11 +15597,11 @@
         <v>27.622726447358225</v>
       </c>
       <c r="AK251" s="156">
-        <f t="shared" si="53"/>
+        <f t="shared" si="51"/>
         <v>10</v>
       </c>
       <c r="AL251" s="157">
-        <f t="shared" si="45"/>
+        <f t="shared" si="43"/>
         <v>233.33333333333334</v>
       </c>
       <c r="AM251" s="163">
@@ -15392,11 +15618,11 @@
         <v>28.878337657112969</v>
       </c>
       <c r="AR251" s="156">
-        <f t="shared" si="54"/>
+        <f t="shared" si="52"/>
         <v>10</v>
       </c>
       <c r="AS251" s="157">
-        <f t="shared" si="46"/>
+        <f t="shared" si="44"/>
         <v>117.39130434782609</v>
       </c>
       <c r="AT251" s="163">
@@ -15413,11 +15639,11 @@
         <v>-23.349366241295506</v>
       </c>
       <c r="AY251" s="156">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v>10</v>
       </c>
       <c r="AZ251" s="157">
-        <f t="shared" si="47"/>
+        <f t="shared" si="45"/>
         <v>17.647058823529413</v>
       </c>
       <c r="BA251" s="163">
@@ -15634,11 +15860,10 @@
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.5" right="0.5" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
     <ignoredError sqref="B160" unlockedFormula="1"/>
-    <ignoredError sqref="B96" formulaRange="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/docs/10-31-2013-energy-cost-calculator-gasification-power-generation-model.xlsx
+++ b/docs/10-31-2013-energy-cost-calculator-gasification-power-generation-model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkai\Documents\Github\technoeconomic-assessment\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD5FF20-857A-4712-BF3B-CE031D1D29D2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86BD1185-AB4E-4E54-98B5-A12DCAA6E243}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
     <definedName name="BiomassFeedRate">Gasifier_EconomicExample!$B$67</definedName>
     <definedName name="BiomassFuelCost">Gasifier_EconomicExample!$B$87</definedName>
     <definedName name="BiomassFuelCostCF">Gasifier_EconomicExample!$B$194</definedName>
-    <definedName name="BiomassFuelCostPerKwh">Gasifier_EconomicExample!$C$87</definedName>
+    <definedName name="BiomassFuelCostKwh">Gasifier_EconomicExample!$C$87</definedName>
     <definedName name="BtuPerCubicFoot">Gasifier_EconomicExample!$C$12</definedName>
     <definedName name="BtuPerPound">Gasifier_EconomicExample!$C$14</definedName>
     <definedName name="CapacityFactor">Gasifier_EconomicExample!$B$39</definedName>
@@ -92,7 +92,7 @@
     <definedName name="DualFuelCost">Gasifier_EconomicExample!$B$88</definedName>
     <definedName name="DualFuelCostCF">Gasifier_EconomicExample!$B$195</definedName>
     <definedName name="DualFuelFlowRate">Gasifier_EconomicExample!$B$63</definedName>
-    <definedName name="DualFuelPerKwh">Gasifier_EconomicExample!$C$88</definedName>
+    <definedName name="DualFuelKwh">Gasifier_EconomicExample!$C$88</definedName>
     <definedName name="DualFuelPowerInput">Gasifier_EconomicExample!$B$59</definedName>
     <definedName name="EconomicLife">Gasifier_EconomicExample!$B$126</definedName>
     <definedName name="ElectricityCapacityPayment">Gasifier_EconomicExample!$B$106</definedName>
@@ -122,7 +122,6 @@
     <definedName name="GasolineLowerHeatingValueKjPerL">Gasifier_EconomicExample!$L$11</definedName>
     <definedName name="GasolineLowerHeatingValueMjPerKg">Gasifier_EconomicExample!$K$11</definedName>
     <definedName name="GeneralInflation">Gasifier_EconomicExample!$B$114</definedName>
-    <definedName name="GrossCHPEfficiency">Gasifier_EconomicExample!$B$83</definedName>
     <definedName name="GrossElectricalCapacity">Gasifier_EconomicExample!$B$36</definedName>
     <definedName name="H2Density">Gasifier_EconomicExample!$H$21</definedName>
     <definedName name="H2HigherHeatingValueKjPerM">Gasifier_EconomicExample!$J$21</definedName>
@@ -130,7 +129,7 @@
     <definedName name="H2LowerHeatingValueKjPerM">Gasifier_EconomicExample!$L$21</definedName>
     <definedName name="H2LowerHeatingValueMjPerKg">Gasifier_EconomicExample!$K$21</definedName>
     <definedName name="HeatIncome">Gasifier_EconomicExample!$B$200</definedName>
-    <definedName name="HeatIncomePerUnitElecEnergy">Gasifier_EconomicExample!$B$82</definedName>
+    <definedName name="HeatIncomePerUnitNEE">Gasifier_EconomicExample!$B$82</definedName>
     <definedName name="HeatRecoverySystemCapitalCost">Gasifier_EconomicExample!$B$32</definedName>
     <definedName name="HeatRecoverySystemCapitalCostPerKwe">Gasifier_EconomicExample!$C$32</definedName>
     <definedName name="HeavyDieselDensity">Gasifier_EconomicExample!$H$15</definedName>
@@ -143,14 +142,14 @@
     <definedName name="Hydrocarbons">Gasifier_EconomicExample!$B$49</definedName>
     <definedName name="HydrogenGas">Gasifier_EconomicExample!$B$48</definedName>
     <definedName name="Insurance">Gasifier_EconomicExample!$B$92</definedName>
-    <definedName name="InsurancePerKwh">Gasifier_EconomicExample!$C$92</definedName>
+    <definedName name="InsurancePropertyTaxKwh">Gasifier_EconomicExample!$C$92</definedName>
     <definedName name="InterestRateOnDebt">Gasifier_EconomicExample!$B$125</definedName>
     <definedName name="InterestRateOnDebtReserve">Gasifier_EconomicExample!$B$107</definedName>
     <definedName name="InterstOnDebtReserve">Gasifier_EconomicExample!$B$202</definedName>
     <definedName name="KjPerCubicMeter">Gasifier_EconomicExample!$E$12</definedName>
     <definedName name="KjPerKg">Gasifier_EconomicExample!$E$14</definedName>
     <definedName name="LaborCost">Gasifier_EconomicExample!$B$89</definedName>
-    <definedName name="LaborCostPerKwh">Gasifier_EconomicExample!$C$89</definedName>
+    <definedName name="LaborCostKwh">Gasifier_EconomicExample!$C$89</definedName>
     <definedName name="LAC">Gasifier_EconomicExample!$E$237</definedName>
     <definedName name="LACCostOfMoney">Gasifier_EconomicExample!$B$209</definedName>
     <definedName name="LightDieselDensity">Gasifier_EconomicExample!$H$13</definedName>
@@ -159,9 +158,9 @@
     <definedName name="LightDieselLowerHeatingValueKjPerL">Gasifier_EconomicExample!$L$13</definedName>
     <definedName name="LightDieselLowerHeatingValueMjPerKg">Gasifier_EconomicExample!$K$13</definedName>
     <definedName name="MaintenanceCost">Gasifier_EconomicExample!$B$90</definedName>
-    <definedName name="MaintenanceCostPerKwh">Gasifier_EconomicExample!$C$90</definedName>
+    <definedName name="MaintenanceCostKwh">Gasifier_EconomicExample!$C$90</definedName>
     <definedName name="Management">Gasifier_EconomicExample!$B$94</definedName>
-    <definedName name="ManagementPerKwh">Gasifier_EconomicExample!$C$94</definedName>
+    <definedName name="ManagementKwh">Gasifier_EconomicExample!$C$94</definedName>
     <definedName name="MetricTonsPerHour">Gasifier_EconomicExample!$E$16</definedName>
     <definedName name="MoistureContent">Gasifier_EconomicExample!$B$66</definedName>
     <definedName name="NaturalGasDensity">Gasifier_EconomicExample!$H$17</definedName>
@@ -169,13 +168,14 @@
     <definedName name="NaturalGasHigherHeatingValueMjPerKg">Gasifier_EconomicExample!$I$17</definedName>
     <definedName name="NaturalGasLowerHeatingValueKjPerL">Gasifier_EconomicExample!$L$17</definedName>
     <definedName name="NaturalGasLowerHeatingValueMjPerKg">Gasifier_EconomicExample!$K$17</definedName>
-    <definedName name="NetCHPEfficiency">Gasifier_EconomicExample!$B$84</definedName>
     <definedName name="NetElectricalCapacity">Gasifier_EconomicExample!$B$37</definedName>
     <definedName name="NetHHVEfficiencyofPowerGeneration">Gasifier_EconomicExample!$B$43</definedName>
     <definedName name="NitrogenGas">Gasifier_EconomicExample!$B$52</definedName>
     <definedName name="NonFuelExpensesCF">Gasifier_EconomicExample!$B$196</definedName>
     <definedName name="OtherOperatingExpenses">Gasifier_EconomicExample!$B$95</definedName>
-    <definedName name="OtherOperatingExpensesPerKwh">Gasifier_EconomicExample!$C$95</definedName>
+    <definedName name="OtherOperatingExpensesKwh">Gasifier_EconomicExample!$C$95</definedName>
+    <definedName name="OverallCHPefficiencyGross">Gasifier_EconomicExample!$B$83</definedName>
+    <definedName name="OverallCHPefficiencyNet">Gasifier_EconomicExample!$B$84</definedName>
     <definedName name="OverallNetSystemEfficiency">Gasifier_EconomicExample!$B$44</definedName>
     <definedName name="Oxygen">Gasifier_EconomicExample!$B$51</definedName>
     <definedName name="ParasiticLoad">Gasifier_EconomicExample!$B$38</definedName>
@@ -196,27 +196,28 @@
     <definedName name="TotalDebtCost">Gasifier_EconomicExample!$B$131</definedName>
     <definedName name="TotalEquityCost">Gasifier_EconomicExample!$B$130</definedName>
     <definedName name="TotalExpensesIncludingFuel">Gasifier_EconomicExample!$B$97</definedName>
-    <definedName name="TotalExpensesIncludingFuelPerKwh">Gasifier_EconomicExample!$C$97</definedName>
+    <definedName name="TotalExpensesIncludingFuelKwh">Gasifier_EconomicExample!$C$97</definedName>
     <definedName name="TotalFacilityCapitalCost">Gasifier_EconomicExample!$B$33</definedName>
     <definedName name="TotalFacilityCapitalCostPerKwe">Gasifier_EconomicExample!$C$33</definedName>
     <definedName name="TotalFuelPowerInput">Gasifier_EconomicExample!$B$57</definedName>
-    <definedName name="TotalHearProductionRate">Gasifier_EconomicExample!$B$76</definedName>
+    <definedName name="TotalHeatProductionRate">Gasifier_EconomicExample!$B$76</definedName>
     <definedName name="TotalIncomeFromHeatSales">Gasifier_EconomicExample!$B$81</definedName>
     <definedName name="TotalNonFuelExpenses">Gasifier_EconomicExample!$B$96</definedName>
-    <definedName name="TotalNonFuelExpensesPerKwh">Gasifier_EconomicExample!$C$96</definedName>
+    <definedName name="TotalNonFuelExpensesKwh">Gasifier_EconomicExample!$C$96</definedName>
     <definedName name="TotalPresentWorth">Gasifier_EconomicExample!$B$211</definedName>
     <definedName name="USTonsPerHour">Gasifier_EconomicExample!$C$16</definedName>
     <definedName name="Utilities">Gasifier_EconomicExample!$B$93</definedName>
-    <definedName name="UtilitiesPerKwh">Gasifier_EconomicExample!$C$93</definedName>
+    <definedName name="UtilitiesKwh">Gasifier_EconomicExample!$C$93</definedName>
     <definedName name="WasteTreatment">Gasifier_EconomicExample!$B$91</definedName>
-    <definedName name="WasteTreatmentPerKwh">Gasifier_EconomicExample!$C$91</definedName>
+    <definedName name="WasteTreatmentKwh">Gasifier_EconomicExample!$C$91</definedName>
     <definedName name="Year">Gasifier_EconomicExample!$C$185</definedName>
   </definedNames>
-  <calcPr calcId="181029" iterate="1" iterateCount="1000" iterateDelta="10000" calcOnSave="0"/>
+  <calcPr calcId="191029" iterate="1" iterateCount="1000" iterateDelta="10000" calcOnSave="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -2284,6 +2285,9 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="3" fontId="7" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2291,9 +2295,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -6606,8 +6607,8 @@
   </sheetPr>
   <dimension ref="A1:BE291"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="A201" workbookViewId="0">
+      <selection activeCell="U191" sqref="U191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12"/>
@@ -6670,7 +6671,7 @@
       <c r="D6" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="H6" s="169" t="s">
+      <c r="H6" s="166" t="s">
         <v>278</v>
       </c>
     </row>
@@ -7534,7 +7535,7 @@
         <v>114</v>
       </c>
       <c r="B78" s="24">
-        <f>TotalHearProductionRate*AggregateFractionOfHeatRecovered/100</f>
+        <f>TotalHeatProductionRate*AggregateFractionOfHeatRecovered/100</f>
         <v>761.95652173913049</v>
       </c>
       <c r="D78" s="2" t="s">
@@ -7753,7 +7754,7 @@
         <v>30000</v>
       </c>
       <c r="C96" s="36">
-        <f>LaborCostPerKwh+MaintenanceCostPerKwh+WasteTreatmentPerKwh+InsurancePerKwh+UtilitiesPerKwh+ManagementPerKwh+OtherOperatingExpensesPerKwh</f>
+        <f>LaborCostKwh+MaintenanceCostKwh+WasteTreatmentKwh+InsurancePropertyTaxKwh+UtilitiesKwh+ManagementKwh+OtherOperatingExpensesKwh</f>
         <v>8.0580177276390001E-3</v>
       </c>
     </row>
@@ -7766,7 +7767,7 @@
         <v>205391.34707305481</v>
       </c>
       <c r="C97" s="36">
-        <f>BiomassFuelCostPerKwh+DualFuelPerKwh+TotalNonFuelExpensesPerKwh</f>
+        <f>BiomassFuelCostKwh+DualFuelKwh+TotalNonFuelExpensesKwh</f>
         <v>5.5168237193944349E-2</v>
       </c>
     </row>
@@ -11518,54 +11519,54 @@
       <c r="AE226" s="4"/>
     </row>
     <row r="227" spans="1:56">
-      <c r="B227" s="166" t="s">
+      <c r="B227" s="167" t="s">
         <v>112</v>
       </c>
-      <c r="C227" s="167"/>
-      <c r="D227" s="167"/>
-      <c r="E227" s="167"/>
-      <c r="F227" s="167"/>
-      <c r="G227" s="168"/>
-      <c r="I227" s="166" t="s">
+      <c r="C227" s="168"/>
+      <c r="D227" s="168"/>
+      <c r="E227" s="168"/>
+      <c r="F227" s="168"/>
+      <c r="G227" s="169"/>
+      <c r="I227" s="167" t="s">
         <v>233</v>
       </c>
-      <c r="J227" s="167"/>
-      <c r="K227" s="167"/>
-      <c r="L227" s="167"/>
-      <c r="M227" s="167"/>
-      <c r="N227" s="168"/>
-      <c r="P227" s="166" t="s">
+      <c r="J227" s="168"/>
+      <c r="K227" s="168"/>
+      <c r="L227" s="168"/>
+      <c r="M227" s="168"/>
+      <c r="N227" s="169"/>
+      <c r="P227" s="167" t="s">
         <v>234</v>
       </c>
-      <c r="Q227" s="167"/>
-      <c r="R227" s="167"/>
-      <c r="S227" s="167"/>
-      <c r="T227" s="167"/>
-      <c r="U227" s="168"/>
-      <c r="W227" s="166" t="s">
+      <c r="Q227" s="168"/>
+      <c r="R227" s="168"/>
+      <c r="S227" s="168"/>
+      <c r="T227" s="168"/>
+      <c r="U227" s="169"/>
+      <c r="W227" s="167" t="s">
         <v>235</v>
       </c>
-      <c r="X227" s="167"/>
-      <c r="Y227" s="167"/>
-      <c r="Z227" s="167"/>
-      <c r="AA227" s="167"/>
-      <c r="AB227" s="168"/>
-      <c r="AD227" s="166" t="s">
+      <c r="X227" s="168"/>
+      <c r="Y227" s="168"/>
+      <c r="Z227" s="168"/>
+      <c r="AA227" s="168"/>
+      <c r="AB227" s="169"/>
+      <c r="AD227" s="167" t="s">
         <v>236</v>
       </c>
-      <c r="AE227" s="167"/>
-      <c r="AF227" s="167"/>
-      <c r="AG227" s="167"/>
-      <c r="AH227" s="167"/>
-      <c r="AI227" s="168"/>
-      <c r="AK227" s="166" t="s">
+      <c r="AE227" s="168"/>
+      <c r="AF227" s="168"/>
+      <c r="AG227" s="168"/>
+      <c r="AH227" s="168"/>
+      <c r="AI227" s="169"/>
+      <c r="AK227" s="167" t="s">
         <v>237</v>
       </c>
-      <c r="AL227" s="167"/>
-      <c r="AM227" s="167"/>
-      <c r="AN227" s="167"/>
-      <c r="AO227" s="167"/>
-      <c r="AP227" s="168"/>
+      <c r="AL227" s="168"/>
+      <c r="AM227" s="168"/>
+      <c r="AN227" s="168"/>
+      <c r="AO227" s="168"/>
+      <c r="AP227" s="169"/>
       <c r="AR227" s="133" t="s">
         <v>252</v>
       </c>
@@ -11577,14 +11578,14 @@
         <f>B80</f>
         <v>0.01</v>
       </c>
-      <c r="AY227" s="166" t="s">
+      <c r="AY227" s="167" t="s">
         <v>238</v>
       </c>
-      <c r="AZ227" s="167"/>
-      <c r="BA227" s="167"/>
-      <c r="BB227" s="167"/>
-      <c r="BC227" s="167"/>
-      <c r="BD227" s="168"/>
+      <c r="AZ227" s="168"/>
+      <c r="BA227" s="168"/>
+      <c r="BB227" s="168"/>
+      <c r="BC227" s="168"/>
+      <c r="BD227" s="169"/>
     </row>
     <row r="228" spans="1:56" ht="36">
       <c r="A228" s="136"/>
@@ -12014,7 +12015,7 @@
         <v>0</v>
       </c>
       <c r="L231" s="145">
-        <f t="dataTable" ref="L231:M251" dt2D="0" dtr="0" r1="B87"/>
+        <f t="dataTable" ref="L231:M251" dt2D="0" dtr="0" r1="B87" ca="1"/>
         <v>4.0285788510028633E-2</v>
       </c>
       <c r="M231" s="145">
@@ -12146,7 +12147,7 @@
         <v>40</v>
       </c>
       <c r="BB231" s="145">
-        <f t="dataTable" ref="BB231:BC251" dt2D="0" dtr="0" r1="B39" ca="1"/>
+        <f t="dataTable" ref="BB231:BC251" dt2D="0" dtr="0" r1="B39"/>
         <v>0.1036284698833688</v>
       </c>
       <c r="BC231" s="145">

--- a/docs/10-31-2013-energy-cost-calculator-gasification-power-generation-model.xlsx
+++ b/docs/10-31-2013-energy-cost-calculator-gasification-power-generation-model.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
-  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <workbookPr date1904="1" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkai\Documents\Github\technoeconomic-assessment\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86BD1185-AB4E-4E54-98B5-A12DCAA6E243}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C83A2E9-75FB-4987-82A4-2B9BF0E01932}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,11 +46,11 @@
     <definedName name="CapitalRecoveryFactorEquity">Gasifier_EconomicExample!$B$132</definedName>
     <definedName name="CarbonConcentration">Gasifier_EconomicExample!$B$71</definedName>
     <definedName name="CarbonDioxide">Gasifier_EconomicExample!$B$50</definedName>
+    <definedName name="CH4_HHV">Gasifier_EconomicExample!$I$23</definedName>
+    <definedName name="CH4_HHV_KJL">Gasifier_EconomicExample!$J$23</definedName>
+    <definedName name="CH4_LHV">Gasifier_EconomicExample!$K$23</definedName>
+    <definedName name="CH4_LHV_KJL">Gasifier_EconomicExample!$L$23</definedName>
     <definedName name="CH4Density">Gasifier_EconomicExample!$H$23</definedName>
-    <definedName name="CH4HigherHeatingValueKjPerM">Gasifier_EconomicExample!$J$23</definedName>
-    <definedName name="CH4HigherHeatingValueMjPerKg">Gasifier_EconomicExample!$I$23</definedName>
-    <definedName name="CH4LowerHeatingValueKjPerM">Gasifier_EconomicExample!$L$23</definedName>
-    <definedName name="CH4LowerHeatingValueMjPerKg">Gasifier_EconomicExample!$K$23</definedName>
     <definedName name="CharIncome">Gasifier_EconomicExample!$B$201</definedName>
     <definedName name="CharProductionRate">Gasifier_EconomicExample!$B$72</definedName>
     <definedName name="CleanGasComposition">Gasifier_EconomicExample!$B$46</definedName>
@@ -62,11 +62,11 @@
     <definedName name="CleanGasMolecularMass">Gasifier_EconomicExample!$B$53</definedName>
     <definedName name="CleanGasPowerInput">Gasifier_EconomicExample!$B$58</definedName>
     <definedName name="CO">Gasifier_EconomicExample!$B$47</definedName>
+    <definedName name="CO_HHV">Gasifier_EconomicExample!$I$19</definedName>
+    <definedName name="CO_HHV_KJL">Gasifier_EconomicExample!$J$19</definedName>
+    <definedName name="CO_LHV">Gasifier_EconomicExample!$K$19</definedName>
+    <definedName name="CO_LHV_KJL">Gasifier_EconomicExample!$L$19</definedName>
     <definedName name="CODensity">Gasifier_EconomicExample!$H$19</definedName>
-    <definedName name="COHigherHeatingValueKjPerM">Gasifier_EconomicExample!$J$19</definedName>
-    <definedName name="COHigherHeatingValueMjPerKg">Gasifier_EconomicExample!$I$19</definedName>
-    <definedName name="COLowerHeatingValueKjPerM">Gasifier_EconomicExample!$L$19</definedName>
-    <definedName name="COLowerHeatingValueMjPerKg">Gasifier_EconomicExample!$K$19</definedName>
     <definedName name="CombinedTaxRate">Gasifier_EconomicExample!$B$103</definedName>
     <definedName name="ConstantCapitalRecoveryFactor">Gasifier_EconomicExample!$B$218</definedName>
     <definedName name="ConstantLACPerKwh">Gasifier_EconomicExample!$B$220</definedName>
@@ -123,18 +123,18 @@
     <definedName name="GasolineLowerHeatingValueMjPerKg">Gasifier_EconomicExample!$K$11</definedName>
     <definedName name="GeneralInflation">Gasifier_EconomicExample!$B$114</definedName>
     <definedName name="GrossElectricalCapacity">Gasifier_EconomicExample!$B$36</definedName>
+    <definedName name="H2_HHV">Gasifier_EconomicExample!$I$21</definedName>
+    <definedName name="H2_HHV_KJL">Gasifier_EconomicExample!$J$21</definedName>
+    <definedName name="H2_LHV">Gasifier_EconomicExample!$K$21</definedName>
+    <definedName name="H2_LHV_KJL">Gasifier_EconomicExample!$L$21</definedName>
     <definedName name="H2Density">Gasifier_EconomicExample!$H$21</definedName>
-    <definedName name="H2HigherHeatingValueKjPerM">Gasifier_EconomicExample!$J$21</definedName>
-    <definedName name="H2HigherHeatingValueMjPerKg">Gasifier_EconomicExample!$I$21</definedName>
-    <definedName name="H2LowerHeatingValueKjPerM">Gasifier_EconomicExample!$L$21</definedName>
-    <definedName name="H2LowerHeatingValueMjPerKg">Gasifier_EconomicExample!$K$21</definedName>
     <definedName name="HeatIncome">Gasifier_EconomicExample!$B$200</definedName>
     <definedName name="HeatIncomePerUnitNEE">Gasifier_EconomicExample!$B$82</definedName>
     <definedName name="HeatRecoverySystemCapitalCost">Gasifier_EconomicExample!$B$32</definedName>
     <definedName name="HeatRecoverySystemCapitalCostPerKwe">Gasifier_EconomicExample!$C$32</definedName>
     <definedName name="HeavyDieselDensity">Gasifier_EconomicExample!$H$15</definedName>
-    <definedName name="HeavyDieselHigherHeatingValueKjPerL">Gasifier_EconomicExample!$J$15</definedName>
-    <definedName name="HeavyDieselHigherHeatingValueMjPerKg">Gasifier_EconomicExample!$I$15</definedName>
+    <definedName name="HeavyDieselHHV">Gasifier_EconomicExample!$I$15</definedName>
+    <definedName name="HeavyDieselHHVkJL">Gasifier_EconomicExample!$J$15</definedName>
     <definedName name="HeavyDieselLowerHeatingValueKjPerL">Gasifier_EconomicExample!$L$15</definedName>
     <definedName name="HeavyDieselLowerHeatingValueMjPerKg">Gasifier_EconomicExample!$K$15</definedName>
     <definedName name="HHVEfficiencyOfGasificationSystem">Gasifier_EconomicExample!$B$42</definedName>
@@ -212,7 +212,7 @@
     <definedName name="WasteTreatmentKwh">Gasifier_EconomicExample!$C$91</definedName>
     <definedName name="Year">Gasifier_EconomicExample!$C$185</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterate="1" iterateCount="1000" iterateDelta="10000" calcOnSave="0"/>
+  <calcPr calcId="181029" iterate="1" iterateCount="1000" iterateDelta="10000" calcOnSave="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -5421,7 +5421,7 @@
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Chart2">
     <tabColor indexed="12"/>
   </sheetPr>
   <sheetViews>
@@ -5435,7 +5435,7 @@
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Chart3">
     <tabColor indexed="13"/>
   </sheetPr>
   <sheetViews>
@@ -6602,13 +6602,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Sheet1">
     <tabColor indexed="10"/>
   </sheetPr>
   <dimension ref="A1:BE291"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A201" workbookViewId="0">
-      <selection activeCell="U191" sqref="U191"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12"/>
@@ -6835,7 +6835,7 @@
         <v>45.5</v>
       </c>
       <c r="J15" s="110">
-        <f>HeavyDieselHigherHeatingValueMjPerKg*HeavyDieselDensity</f>
+        <f>HeavyDieselHHV*HeavyDieselDensity</f>
         <v>38675</v>
       </c>
       <c r="K15" s="111">
@@ -6934,14 +6934,14 @@
         <v>10.1</v>
       </c>
       <c r="J19" s="121">
-        <f>COHigherHeatingValueMjPerKg*CODensity*1000</f>
+        <f>CO_HHV*CODensity*1000</f>
         <v>11565.641684681616</v>
       </c>
       <c r="K19" s="113">
         <v>10.1</v>
       </c>
       <c r="L19" s="122">
-        <f>COLowerHeatingValueMjPerKg*CODensity*1000</f>
+        <f>CO_LHV*CODensity*1000</f>
         <v>11565.641684681616</v>
       </c>
     </row>
@@ -6975,14 +6975,14 @@
         <v>142</v>
       </c>
       <c r="J21" s="121">
-        <f>H2HigherHeatingValueMjPerKg*H2Density*1000</f>
+        <f>H2_HHV*H2Density*1000</f>
         <v>11614.717957742499</v>
       </c>
       <c r="K21" s="113">
         <v>120</v>
       </c>
       <c r="L21" s="122">
-        <f>H2LowerHeatingValueMjPerKg*H2Density*1000</f>
+        <f>H2_LHV*H2Density*1000</f>
         <v>9815.2546121767609</v>
       </c>
     </row>
@@ -7018,14 +7018,14 @@
         <v>55.5</v>
       </c>
       <c r="J23" s="123">
-        <f>CH4HigherHeatingValueMjPerKg*CH4Density*1000</f>
+        <f>CH4_HHV*CH4Density*1000</f>
         <v>36316.442065054012</v>
       </c>
       <c r="K23" s="118">
         <v>50</v>
       </c>
       <c r="L23" s="124">
-        <f>CH4LowerHeatingValueMjPerKg*CH4Density*1000</f>
+        <f>CH4_LHV*CH4Density*1000</f>
         <v>32717.515373922539</v>
       </c>
     </row>
@@ -7321,7 +7321,7 @@
         <v>275</v>
       </c>
       <c r="B55" s="40">
-        <f>(CO*COHigherHeatingValueKjPerM+HydrogenGas*H2HigherHeatingValueKjPerM+Hydrocarbons*CH4HigherHeatingValueKjPerM)/100</f>
+        <f>(CO*CO_HHV_KJL+HydrogenGas*H2_HHV_KJL+Hydrocarbons*CH4_HHV_KJL)/100</f>
         <v>5522.7165951181241</v>
       </c>
     </row>
@@ -7330,7 +7330,7 @@
         <v>276</v>
       </c>
       <c r="B56" s="40">
-        <f>(CO*COLowerHeatingValueKjPerM+HydrogenGas*H2LowerHeatingValueKjPerM+Hydrocarbons*CH4LowerHeatingValueKjPerM)/100</f>
+        <f>(CO*CO_LHV_KJL+HydrogenGas*H2_LHV_KJL+Hydrocarbons*CH4_LHV_KJL)/100</f>
         <v>5126.8346590936617</v>
       </c>
     </row>
@@ -7396,7 +7396,7 @@
         <v>187</v>
       </c>
       <c r="B63" s="40">
-        <f>DualFuelPowerInput/HeavyDieselHigherHeatingValueKjPerL*3600</f>
+        <f>DualFuelPowerInput/HeavyDieselHHVkJL*3600</f>
         <v>40.471037913493163</v>
       </c>
       <c r="D63" s="130" t="s">
@@ -11993,7 +11993,7 @@
         <v>0</v>
       </c>
       <c r="E231" s="145">
-        <f t="dataTable" ref="E231:F251" dt2D="0" dtr="0" r1="B33" ca="1"/>
+        <f t="dataTable" ref="E231:F251" dt2D="0" dtr="0" r1="B33"/>
         <v>4.1493351152774714E-2</v>
       </c>
       <c r="F231" s="145">
@@ -12147,7 +12147,7 @@
         <v>40</v>
       </c>
       <c r="BB231" s="145">
-        <f t="dataTable" ref="BB231:BC251" dt2D="0" dtr="0" r1="B39"/>
+        <f t="dataTable" ref="BB231:BC251" dt2D="0" dtr="0" r1="B39" ca="1"/>
         <v>0.1036284698833688</v>
       </c>
       <c r="BC231" s="145">

--- a/docs/10-31-2013-energy-cost-calculator-gasification-power-generation-model.xlsx
+++ b/docs/10-31-2013-energy-cost-calculator-gasification-power-generation-model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr date1904="1" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkai\Documents\Github\technoeconomic-assessment\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C83A2E9-75FB-4987-82A4-2B9BF0E01932}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D28065-B858-422A-A5D3-A4AE7DBB8631}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gasifier_EconomicExample" sheetId="1" r:id="rId1"/>
@@ -225,7 +225,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="281">
   <si>
     <t>Federal Tax Rate (%)</t>
   </si>
@@ -1358,6 +1358,9 @@
   </si>
   <si>
     <t>different variables from generic-power-only are hightlighted in:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> turns to wet basis, and thus all the rest are on a wet basis</t>
   </si>
 </sst>
 </file>
@@ -1432,7 +1435,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1484,6 +1487,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1922,7 +1931,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2297,6 +2306,10 @@
     <xf numFmtId="3" fontId="7" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2453,67 +2466,67 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>3.616314996148394E-2</c:v>
+                  <c:v>5.8521227060611705E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.8293713655851359E-2</c:v>
+                  <c:v>6.0651790754979118E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0424277350218786E-2</c:v>
+                  <c:v>6.2782354449346559E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.255484104458622E-2</c:v>
+                  <c:v>6.4912918143713999E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.4685404738953653E-2</c:v>
+                  <c:v>6.7043481838081398E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.6815968433321066E-2</c:v>
+                  <c:v>6.9174045532448852E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.8946532127688513E-2</c:v>
+                  <c:v>7.1304609226816251E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.1077095822055947E-2</c:v>
+                  <c:v>7.343517292118372E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.3207659516423339E-2</c:v>
+                  <c:v>7.5565736615551118E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.5338223210790786E-2</c:v>
+                  <c:v>7.7696300309918559E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.7468786905158199E-2</c:v>
+                  <c:v>7.9826864004285986E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.020808308363064E-2</c:v>
+                  <c:v>8.2566160182758377E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.2947379262103031E-2</c:v>
+                  <c:v>8.5305456361230825E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.5686675440575437E-2</c:v>
+                  <c:v>8.8044752539703203E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.8425971619047829E-2</c:v>
+                  <c:v>9.0784048718175595E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.1165267797520249E-2</c:v>
+                  <c:v>9.3523344896648042E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.3904563975992654E-2</c:v>
+                  <c:v>9.6262641075120448E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.6643860154465046E-2</c:v>
+                  <c:v>9.9001937253592853E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.9383156332937466E-2</c:v>
+                  <c:v>0.1017412334320652</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8.2122452511409857E-2</c:v>
+                  <c:v>0.10448052961053765</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8.4861748689882319E-2</c:v>
+                  <c:v>0.10721982578901007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2636,64 +2649,64 @@
                   <c:v>3.5110709806030455E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.7346517515943214E-2</c:v>
+                  <c:v>3.9582325225856002E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.9582325225856002E-2</c:v>
+                  <c:v>4.405394064568155E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.181813293576879E-2</c:v>
+                  <c:v>4.8525556065507104E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.405394064568155E-2</c:v>
+                  <c:v>5.2997171485332659E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.628974835559433E-2</c:v>
+                  <c:v>5.7468786905158199E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.8525556065507104E-2</c:v>
+                  <c:v>6.1940402324983761E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.0761363775419892E-2</c:v>
+                  <c:v>6.6412017744809315E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.2997171485332659E-2</c:v>
+                  <c:v>7.0883633164634877E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.5232979195245425E-2</c:v>
+                  <c:v>7.5355248584460424E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.7468786905158199E-2</c:v>
+                  <c:v>7.9826864004285986E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.5372696700518818E-2</c:v>
+                  <c:v>9.5634683595007181E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.3276606495879387E-2</c:v>
+                  <c:v>0.11144250318572832</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.1180516291239985E-2</c:v>
+                  <c:v>0.12725032277644954</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.9084426086600568E-2</c:v>
+                  <c:v>0.14305814236717068</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.698833588196118E-2</c:v>
+                  <c:v>0.1588659619578919</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.10489224567732178</c:v>
+                  <c:v>0.17467378154861302</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.11279615547268235</c:v>
+                  <c:v>0.19048160113933413</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.1207000652680429</c:v>
+                  <c:v>0.20628942073005538</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.12860397506340346</c:v>
+                  <c:v>0.2220972403207766</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.13650788485876411</c:v>
+                  <c:v>0.23790505991149766</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2811,67 +2824,67 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>8.408741882436413E-2</c:v>
+                  <c:v>0.10644549592349191</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.1425555632443539E-2</c:v>
+                  <c:v>0.1037836327315713</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.8763692440522934E-2</c:v>
+                  <c:v>0.10112176953965071</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.6101829248602371E-2</c:v>
+                  <c:v>9.8459906347730122E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.343996605668178E-2</c:v>
+                  <c:v>9.5798043155809517E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.0778102864761203E-2</c:v>
+                  <c:v>9.3136179963888954E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.8116239672840598E-2</c:v>
+                  <c:v>9.0474316771968349E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.5454376480920007E-2</c:v>
+                  <c:v>8.7812453580047758E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.2792513288999402E-2</c:v>
+                  <c:v>8.5150590388127181E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.0130650097078804E-2</c:v>
+                  <c:v>8.248872719620659E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.7468786905158199E-2</c:v>
+                  <c:v>7.9826864004285986E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.7173024328278144E-2</c:v>
+                  <c:v>7.9531101427405923E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.6877261751398088E-2</c:v>
+                  <c:v>7.9235338850525847E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.6581499174518025E-2</c:v>
+                  <c:v>7.8939576273645784E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.6285736597637956E-2</c:v>
+                  <c:v>7.8643813696765735E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.5989974020757886E-2</c:v>
+                  <c:v>7.8348051119885673E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.569421144387781E-2</c:v>
+                  <c:v>7.805228854300561E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.5398448866997754E-2</c:v>
+                  <c:v>7.775652596612552E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.5102686290117692E-2</c:v>
+                  <c:v>7.7460763389245443E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.4806923713237608E-2</c:v>
+                  <c:v>7.7165000812365409E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.4511161136357573E-2</c:v>
+                  <c:v>7.6869238235485332E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2989,67 +3002,67 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>5.2924673191010164E-2</c:v>
+                  <c:v>7.5282750290137951E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.3323247145504064E-2</c:v>
+                  <c:v>7.5681324244631823E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.373451841809012E-2</c:v>
+                  <c:v>7.6092595517217892E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.4158403123818588E-2</c:v>
+                  <c:v>7.6516480222946368E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.4594802586514904E-2</c:v>
+                  <c:v>7.6952879685642669E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.5043603969476704E-2</c:v>
+                  <c:v>7.7401681068604469E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.5504680948948865E-2</c:v>
+                  <c:v>7.786275804807663E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.5977894424447408E-2</c:v>
+                  <c:v>7.8335971523575187E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.6463093259959865E-2</c:v>
+                  <c:v>7.8821170359087658E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.6960115050071966E-2</c:v>
+                  <c:v>7.9318192149199745E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.7468786905158199E-2</c:v>
+                  <c:v>7.9826864004285986E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.8790215774409522E-2</c:v>
+                  <c:v>8.1148292873537323E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.0180213209400563E-2</c:v>
+                  <c:v>8.2538290308528342E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.1635431840573941E-2</c:v>
+                  <c:v>8.39935089397017E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.315233208565281E-2</c:v>
+                  <c:v>8.5510409184780589E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.4727253826107611E-2</c:v>
+                  <c:v>8.7085330925235405E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.6356481793406849E-2</c:v>
+                  <c:v>8.8714558892534642E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.8036303463781853E-2</c:v>
+                  <c:v>9.0394380562909604E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.976305879355249E-2</c:v>
+                  <c:v>9.2121135892680242E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.1533181591488443E-2</c:v>
+                  <c:v>9.3891258690616194E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.3343232704585273E-2</c:v>
+                  <c:v>9.5701309803713067E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3169,67 +3182,67 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>5.2346404942881383E-2</c:v>
+                  <c:v>7.4704482042009121E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.2769851826194515E-2</c:v>
+                  <c:v>7.5127928925322621E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.3214405595510224E-2</c:v>
+                  <c:v>7.5572482694638024E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.3680014092173968E-2</c:v>
+                  <c:v>7.6038091191301699E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.4166312473620574E-2</c:v>
+                  <c:v>7.6524389572748347E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.4672656816481119E-2</c:v>
+                  <c:v>7.7030733915608884E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.5198167519636611E-2</c:v>
+                  <c:v>7.7556244618764383E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.5741778217055046E-2</c:v>
+                  <c:v>7.8099855316182812E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.6302286153879701E-2</c:v>
+                  <c:v>7.8660363253007501E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.6878400620948788E-2</c:v>
+                  <c:v>7.923647772007654E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.7468786905158199E-2</c:v>
+                  <c:v>7.9826864004285986E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.8998459341663194E-2</c:v>
+                  <c:v>8.1356536440790994E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.0589190417322407E-2</c:v>
+                  <c:v>8.2947267516450152E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.2223807321971483E-2</c:v>
+                  <c:v>8.4581884421099263E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.3888432175118692E-2</c:v>
+                  <c:v>8.6246509274246458E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.5572350036422422E-2</c:v>
+                  <c:v>8.7930427135550229E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.7267531724184843E-2</c:v>
+                  <c:v>8.9625608823312594E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.8968077011028542E-2</c:v>
+                  <c:v>9.1326154110156293E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.0669706806223809E-2</c:v>
+                  <c:v>9.3027783905351574E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.2369348570966455E-2</c:v>
+                  <c:v>9.4727425670094262E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.4064817235076505E-2</c:v>
+                  <c:v>9.6422894334204284E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3347,67 +3360,67 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.14692610376459195</c:v>
+                  <c:v>0.24977325842057971</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.11666848188566584</c:v>
+                  <c:v>0.19229138972095092</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.9076841258383216E-2</c:v>
+                  <c:v>0.15887169861651562</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.7574614694390721E-2</c:v>
+                  <c:v>0.13702036212515406</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.94664877722321E-2</c:v>
+                  <c:v>0.12161696099189923</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.3443307772914218E-2</c:v>
+                  <c:v>0.11017443443576699</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.8792497900023244E-2</c:v>
+                  <c:v>0.10133906582913328</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.5092990046587237E-2</c:v>
+                  <c:v>9.4310931710220092E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.2079988805129049E-2</c:v>
+                  <c:v>8.858698742780631E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.9578629283918452E-2</c:v>
+                  <c:v>8.3835033683915539E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.7468786905158199E-2</c:v>
+                  <c:v>7.9826864004285986E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.4858164817820639E-2</c:v>
+                  <c:v>7.4867338875405837E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.2743928620328971E-2</c:v>
+                  <c:v>7.0850822045678941E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.099679452786799E-2</c:v>
+                  <c:v>6.7531706851981774E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.9528788367338643E-2</c:v>
+                  <c:v>6.4742864499881217E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.827796667987392E-2</c:v>
+                  <c:v>6.2366618002611972E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.7199452061600769E-2</c:v>
+                  <c:v>6.0317711584048202E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.6259934554035861E-2</c:v>
+                  <c:v>5.8532864703915062E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.5434170287297182E-2</c:v>
+                  <c:v>5.6964120360838394E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.4702679319509643E-2</c:v>
+                  <c:v>5.5574471566442817E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.4050189376243137E-2</c:v>
+                  <c:v>5.4334904841841926E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3525,67 +3538,67 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>9.031644329891117E-2</c:v>
+                  <c:v>0.11267452039803895</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.4042171852913364E-2</c:v>
+                  <c:v>0.10640024895204118</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.892031761128257E-2</c:v>
+                  <c:v>0.10127839471041034</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.4660083709365374E-2</c:v>
+                  <c:v>9.7018160808493153E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.1060920585331838E-2</c:v>
+                  <c:v>9.3418997684459645E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.7980036951159145E-2</c:v>
+                  <c:v>9.0338114050286925E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.5313003357397745E-2</c:v>
+                  <c:v>8.767108045652551E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.2981680285927932E-2</c:v>
+                  <c:v>8.5339757385055698E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.0926434946605906E-2</c:v>
+                  <c:v>8.3284512045733672E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.9100968589319847E-2</c:v>
+                  <c:v>8.145904568844764E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.7468786905158199E-2</c:v>
+                  <c:v>7.9826864004285986E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.6962464648607117E-2</c:v>
+                  <c:v>7.9320541747734868E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.6473403378074806E-2</c:v>
+                  <c:v>7.8831480477202565E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.6000735222755865E-2</c:v>
+                  <c:v>7.8358812321883631E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.5543649534095775E-2</c:v>
+                  <c:v>7.7901726633223575E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.5101388246148998E-2</c:v>
+                  <c:v>7.7459465345276757E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.4673241680157962E-2</c:v>
+                  <c:v>7.7031318779285748E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.4258544744512208E-2</c:v>
+                  <c:v>7.6616621843639987E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.3856673487288481E-2</c:v>
+                  <c:v>7.6214750586416261E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.34670419637873E-2</c:v>
+                  <c:v>7.5825119062915072E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.3089099385991163E-2</c:v>
+                  <c:v>7.5447176485118922E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4005,67 +4018,67 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>-37.073406436846049</c:v>
+                  <c:v>-26.68980826120184</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-33.366065793161454</c:v>
+                  <c:v>-24.020827435081678</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-29.658725149476851</c:v>
+                  <c:v>-21.351846608961477</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-25.95138450579223</c:v>
+                  <c:v>-18.682865782841276</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-22.244043862107613</c:v>
+                  <c:v>-16.013884956721132</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-18.536703218423032</c:v>
+                  <c:v>-13.344904130600913</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-14.829362574738388</c:v>
+                  <c:v>-10.675923304480763</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-11.122021931053769</c:v>
+                  <c:v>-8.0069424783605303</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-7.4146812873692252</c:v>
+                  <c:v>-5.3379616522403817</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-3.7073406436845819</c:v>
+                  <c:v>-2.6689808261201824</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.766580827594554</c:v>
+                  <c:v>3.431546776440217</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.5331616551890228</c:v>
+                  <c:v>6.8630935528805042</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14.299742482783518</c:v>
+                  <c:v>10.294640329320703</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>19.066323310377985</c:v>
+                  <c:v>13.726187105760919</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>23.832904137972506</c:v>
+                  <c:v>17.157733882201207</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>28.599484965566997</c:v>
+                  <c:v>20.589280658641442</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>33.366065793161468</c:v>
+                  <c:v>24.020827435081678</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>38.132646620755985</c:v>
+                  <c:v>27.452374211521839</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>42.899227448350459</c:v>
+                  <c:v>30.883920987962128</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>47.665808275945039</c:v>
+                  <c:v>34.315467764402378</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4185,67 +4198,67 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>-38.904731251810993</c:v>
+                  <c:v>-56.016423488532233</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-35.014258126629919</c:v>
+                  <c:v>-50.414781139679008</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-31.123785001448795</c:v>
+                  <c:v>-44.813138790825796</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-27.233311876267674</c:v>
+                  <c:v>-39.211496441972571</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-23.3428387510866</c:v>
+                  <c:v>-33.609854093119345</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-19.45236562590549</c:v>
+                  <c:v>-28.008211744266138</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-15.561892500724392</c:v>
+                  <c:v>-22.406569395412905</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-11.67141937554327</c:v>
+                  <c:v>-16.80492704655968</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-7.7809462503621836</c:v>
+                  <c:v>-11.203284697706449</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-3.890473125181098</c:v>
+                  <c:v>-5.6016423488532325</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13.75339592325933</c:v>
+                  <c:v>19.802631342091125</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>27.506791846518571</c:v>
+                  <c:v>39.605262684182179</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>41.260187769777865</c:v>
+                  <c:v>59.407894026273347</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>55.013583693037127</c:v>
+                  <c:v>79.210525368364387</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>68.766979616296439</c:v>
+                  <c:v>99.013156710455547</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>82.520375539555729</c:v>
+                  <c:v>118.81578805254658</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>96.273771462814977</c:v>
+                  <c:v>138.61841939463758</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>110.02716738607418</c:v>
+                  <c:v>158.42105073672877</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>123.78056330933343</c:v>
+                  <c:v>178.22368207881996</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>137.53395923259282</c:v>
+                  <c:v>198.0263134209109</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4363,67 +4376,67 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>46.318416226768719</c:v>
+                  <c:v>33.345456133384801</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41.686574604091845</c:v>
+                  <c:v>30.010910520046302</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37.054732981414958</c:v>
+                  <c:v>26.676364906707828</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32.422891358738134</c:v>
+                  <c:v>23.341819293369348</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27.791049736061268</c:v>
+                  <c:v>20.007273680030853</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23.159208113384423</c:v>
+                  <c:v>16.672728066692407</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18.527366490707532</c:v>
+                  <c:v>13.338182453353914</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13.895524868030664</c:v>
+                  <c:v>10.003636840015433</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.2636832453537732</c:v>
+                  <c:v>6.669091226676974</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.6318416226768928</c:v>
+                  <c:v>3.3345456133384959</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.51464906918630127</c:v>
+                  <c:v>-0.37050506814871592</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-1.0292981383726025</c:v>
+                  <c:v>-0.74101013629744916</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-1.5439472075589158</c:v>
+                  <c:v>-1.1115152044461651</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-2.058596276745241</c:v>
+                  <c:v>-1.4820202725948637</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-2.5732453459315665</c:v>
+                  <c:v>-1.8525253407435796</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-3.087894415117904</c:v>
+                  <c:v>-2.2230304088922956</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-3.6025434843042055</c:v>
+                  <c:v>-2.5935354770410464</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-4.1171925534905185</c:v>
+                  <c:v>-2.9640405451897793</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-4.6318416226768679</c:v>
+                  <c:v>-3.3345456133384603</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-5.146490691863133</c:v>
+                  <c:v>-3.7050506814871937</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4541,67 +4554,67 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>-7.9070987206451209</c:v>
+                  <c:v>-5.692461768138676</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-7.2135501424374855</c:v>
+                  <c:v>-5.1931637442648189</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-6.4979072783123328</c:v>
+                  <c:v>-4.6779596488565511</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-5.7603160943744971</c:v>
+                  <c:v>-4.1469545655230551</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-5.0009482945695103</c:v>
+                  <c:v>-3.6002721070052424</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-4.2200002232234679</c:v>
+                  <c:v>-3.038053625094562</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-3.417691693145942</c:v>
+                  <c:v>-2.4604573669634582</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-2.5942647496131048</c:v>
+                  <c:v>-1.8676575853346193</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.7499823806235011</c:v>
+                  <c:v>-1.2598436099711128</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.885127183780134</c:v>
+                  <c:v>-0.63721888794094306</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.2993853540568061</c:v>
+                  <c:v>1.6553686352759494</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.7180851558900665</c:v>
+                  <c:v>3.396633875153579</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.2502747313807641</c:v>
+                  <c:v>5.2196024325745816</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.8897949418599538</c:v>
+                  <c:v>7.1198402334700859</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>12.630276906537446</c:v>
+                  <c:v>9.0927622066673006</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>15.465255779482828</c:v>
+                  <c:v>11.133714193972931</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18.388271490858894</c:v>
+                  <c:v>13.238045475588567</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>21.392955290119062</c:v>
+                  <c:v>15.401171074106287</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>24.473101737019391</c:v>
+                  <c:v>17.618623582125281</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>27.622726447358225</c:v>
+                  <c:v>19.886094734442739</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4721,67 +4734,67 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>-8.9133288488068807</c:v>
+                  <c:v>-6.4168648313703507</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-8.1764995087131798</c:v>
+                  <c:v>-5.886408213043512</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-7.4029426037286283</c:v>
+                  <c:v>-5.3295107639698083</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-6.5927488938245959</c:v>
+                  <c:v>-4.7462378238745089</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-5.7465532324316486</c:v>
+                  <c:v>-4.1370464350952405</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-4.8654760945129842</c:v>
+                  <c:v>-3.5027432475951628</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-3.9510480519953095</c:v>
+                  <c:v>-2.8444301474747777</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-3.00512466176338</c:v>
+                  <c:v>-2.163442983317557</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-2.0297988074876128</c:v>
+                  <c:v>-1.461288459503876</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.0273164199267624</c:v>
+                  <c:v>-0.73958346175010392</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.6617447816141331</c:v>
+                  <c:v>1.9162376670877099</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.429736175419654</c:v>
+                  <c:v>3.9089641702530473</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.2740922035827591</c:v>
+                  <c:v>5.9566669392874747</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>11.170664313055628</c:v>
+                  <c:v>8.0419609990138099</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>14.100807703906614</c:v>
+                  <c:v>10.151423624544684</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17.0505509977054</c:v>
+                  <c:v>12.274996570703948</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>20.00962735623397</c:v>
+                  <c:v>14.405288557061317</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>22.970590840644213</c:v>
+                  <c:v>16.536939119087553</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>25.928095002942953</c:v>
+                  <c:v>18.666099253264225</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>28.878337657112969</c:v>
+                  <c:v>20.790031697884615</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4899,67 +4912,67 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>155.66244160863673</c:v>
+                  <c:v>212.89373763595313</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>103.01190988806843</c:v>
+                  <c:v>140.8855616708513</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>72.401135631924092</c:v>
+                  <c:v>99.020343086489831</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>52.386398618291217</c:v>
+                  <c:v>71.646930935176528</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>38.277649575894323</c:v>
+                  <c:v>52.350919090808191</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27.796864572970829</c:v>
+                  <c:v>38.016738863563042</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19.704106532738848</c:v>
+                  <c:v>26.948574384297853</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13.266685364372494</c:v>
+                  <c:v>18.144352639427801</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.023837196321546</c:v>
+                  <c:v>10.973904001853292</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.6712840002037366</c:v>
+                  <c:v>5.021078717829063</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-4.5426782570613824</c:v>
+                  <c:v>-6.2128522656406329</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-8.2216078314420482</c:v>
+                  <c:v>-11.244387551194686</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-11.261752206412599</c:v>
+                  <c:v>-15.402280054048061</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-13.816193042186677</c:v>
+                  <c:v>-18.895893873013591</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-15.992716603627045</c:v>
+                  <c:v>-21.872644277666421</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-17.869412939766942</c:v>
+                  <c:v>-24.439332126576232</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-19.504243876977103</c:v>
+                  <c:v>-26.675229656056171</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-20.941135642417454</c:v>
+                  <c:v>-28.640413134881591</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-22.213984796158474</c:v>
+                  <c:v>-30.381241628809363</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-23.349366241295506</c:v>
+                  <c:v>-31.934060645392968</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5077,67 +5090,67 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>57.15738605716885</c:v>
+                  <c:v>41.14862434278934</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46.23968310242865</c:v>
+                  <c:v>33.288774749222824</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37.327272527130646</c:v>
+                  <c:v>26.872570999372584</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29.9141459738454</c:v>
+                  <c:v>21.535728628001909</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23.651332161587106</c:v>
+                  <c:v>17.027016969430093</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.290363538294024</c:v>
+                  <c:v>13.167559789692577</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.649525028577688</c:v>
+                  <c:v>9.826537156487019</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.5928480095947783</c:v>
+                  <c:v>6.9060628267618274</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.0165669533862394</c:v>
+                  <c:v>4.3314341413462536</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.8401185618469151</c:v>
+                  <c:v>2.0446521412566336</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.88103870608348744</c:v>
+                  <c:v>-0.63427551973472518</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-1.7320420017323372</c:v>
+                  <c:v>-1.2469280103875531</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-2.5545200472477116</c:v>
+                  <c:v>-1.8390446633648714</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-3.3498834319219477</c:v>
+                  <c:v>-2.4116409871231417</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-4.1194512473634823</c:v>
+                  <c:v>-2.9656666193001406</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-4.8644583878441301</c:v>
+                  <c:v>-3.5020105823650312</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-5.5860621626552049</c:v>
+                  <c:v>-4.021506043972412</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-6.2853482949463606</c:v>
+                  <c:v>-4.524934635633171</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-6.963336372446931</c:v>
+                  <c:v>-5.013030376786511</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-7.6209848076224667</c:v>
+                  <c:v>-5.486483245705247</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6607,8 +6620,8 @@
   </sheetPr>
   <dimension ref="A1:BE291"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12"/>
@@ -7419,6 +7432,10 @@
       <c r="B65" s="12">
         <v>18608</v>
       </c>
+      <c r="C65" s="2">
+        <f>HigherHeatingValue*(1-MoistureContent/100)</f>
+        <v>9304</v>
+      </c>
       <c r="D65" s="2" t="s">
         <v>196</v>
       </c>
@@ -7428,7 +7445,7 @@
         <v>197</v>
       </c>
       <c r="B66" s="38">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>198</v>
@@ -7439,8 +7456,8 @@
         <v>199</v>
       </c>
       <c r="B67" s="40">
-        <f>CleanGasPowerInput/(HHVEfficiencyOfGasificationSystem/100)/HigherHeatingValue*3600</f>
-        <v>517.6325786442053</v>
+        <f>CleanGasPowerInput/(HHVEfficiencyOfGasificationSystem/100)/C65*3600</f>
+        <v>1035.2651572884106</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -7449,16 +7466,19 @@
       </c>
       <c r="B68" s="40">
         <f>BiomassFeedRate*AnnualHours/1000</f>
-        <v>3854.2921805847523</v>
+        <v>7708.5843611695045</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="32" t="s">
+      <c r="A69" s="170" t="s">
         <v>201</v>
       </c>
-      <c r="B69" s="40">
+      <c r="B69" s="171">
         <f>AnnualBiomassConsumptionDryMass/(1-MoistureContent/100)</f>
-        <v>4534.4613889232378</v>
+        <v>15417.168722339009</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -7483,7 +7503,7 @@
       </c>
       <c r="B72" s="40">
         <f>AshContent/100*BiomassFeedRate/(1-CarbonConcentration/100)</f>
-        <v>36.973755617443238</v>
+        <v>73.947511234886477</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -7492,7 +7512,7 @@
       </c>
       <c r="B73" s="40">
         <f>CharProductionRate*AnnualHours/1000</f>
-        <v>275.30658432748231</v>
+        <v>550.61316865496462</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>207</v>
@@ -7622,7 +7642,7 @@
       </c>
       <c r="C87" s="36">
         <f>AnnualBiomassConsumptionDryMass*BiomassFuelCost/AnnualNetElectricityGeneration</f>
-        <v>2.2827596718209452E-2</v>
+        <v>4.5655193436418905E-2</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>224</v>
@@ -7764,11 +7784,11 @@
       </c>
       <c r="B97" s="24">
         <f>BiomassFuelCost*AnnualBiomassConsumptionDryMass+DualFuelCost*AnnualDualFuelConsumption+TotalNonFuelExpenses</f>
-        <v>205391.34707305481</v>
+        <v>290378.48965494859</v>
       </c>
       <c r="C97" s="36">
         <f>BiomassFuelCostKwh+DualFuelKwh+TotalNonFuelExpensesKwh</f>
-        <v>5.5168237193944349E-2</v>
+        <v>7.7995833912153811E-2</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -9629,87 +9649,87 @@
       </c>
       <c r="B194" s="43">
         <f>AnnualBiomassConsumptionDryMass*BiomassFuelCost</f>
-        <v>84987.142581893786</v>
+        <v>169974.28516378757</v>
       </c>
       <c r="C194" s="43">
         <f>BiomassFuelCostCF*(1+EscalationBiomassFuel/100)^(Year-1)</f>
-        <v>86771.872576113543</v>
+        <v>173543.74515222709</v>
       </c>
       <c r="D194" s="43">
         <f t="shared" ref="D194:U194" si="20">$B$194*(1+$B$115/100)^(D185-1)</f>
-        <v>88594.081900211924</v>
+        <v>177188.16380042385</v>
       </c>
       <c r="E194" s="43">
         <f t="shared" si="20"/>
-        <v>90454.557620116364</v>
+        <v>180909.11524023273</v>
       </c>
       <c r="F194" s="43">
         <f t="shared" si="20"/>
-        <v>92354.103330138794</v>
+        <v>184708.20666027759</v>
       </c>
       <c r="G194" s="43">
         <f t="shared" si="20"/>
-        <v>94293.539500071696</v>
+        <v>188587.07900014339</v>
       </c>
       <c r="H194" s="43">
         <f t="shared" si="20"/>
-        <v>96273.703829573191</v>
+        <v>192547.40765914638</v>
       </c>
       <c r="I194" s="43">
         <f t="shared" si="20"/>
-        <v>98295.451609994212</v>
+        <v>196590.90321998842</v>
       </c>
       <c r="J194" s="43">
         <f t="shared" si="20"/>
-        <v>100359.65609380408</v>
+        <v>200719.31218760816</v>
       </c>
       <c r="K194" s="43">
         <f t="shared" si="20"/>
-        <v>102467.20887177394</v>
+        <v>204934.41774354788</v>
       </c>
       <c r="L194" s="43">
         <f t="shared" si="20"/>
-        <v>104619.02025808119</v>
+        <v>209238.04051616238</v>
       </c>
       <c r="M194" s="43">
         <f t="shared" si="20"/>
-        <v>106816.0196835009</v>
+        <v>213632.03936700179</v>
       </c>
       <c r="N194" s="43">
         <f t="shared" si="20"/>
-        <v>109059.15609685438</v>
+        <v>218118.31219370876</v>
       </c>
       <c r="O194" s="43">
         <f t="shared" si="20"/>
-        <v>111349.3983748883</v>
+        <v>222698.79674977661</v>
       </c>
       <c r="P194" s="43">
         <f t="shared" si="20"/>
-        <v>113687.73574076097</v>
+        <v>227375.47148152193</v>
       </c>
       <c r="Q194" s="43">
         <f t="shared" si="20"/>
-        <v>116075.17819131693</v>
+        <v>232150.35638263385</v>
       </c>
       <c r="R194" s="43">
         <f t="shared" si="20"/>
-        <v>118512.75693333457</v>
+        <v>237025.51386666915</v>
       </c>
       <c r="S194" s="43">
         <f t="shared" si="20"/>
-        <v>121001.52482893459</v>
+        <v>242003.04965786918</v>
       </c>
       <c r="T194" s="43">
         <f t="shared" si="20"/>
-        <v>123542.55685034218</v>
+        <v>247085.11370068436</v>
       </c>
       <c r="U194" s="59">
         <f t="shared" si="20"/>
-        <v>126136.95054419937</v>
+        <v>252273.90108839874</v>
       </c>
       <c r="V194" s="64">
         <f t="shared" si="7"/>
-        <v>2085651.6154159051</v>
+        <v>4171303.2308318103</v>
       </c>
       <c r="Y194" s="4"/>
       <c r="Z194" s="4"/>
@@ -10799,87 +10819,87 @@
       </c>
       <c r="B206" s="60">
         <f>EquityRecovery+RebtRecovery+BiomassFuelCostCF+DualFuelCostCF+NonFuelExpensesCF+Taxes+DebtReserveCF-CapacityIncome-InterstOnDebtReserve-HeatIncome-CharIncome</f>
-        <v>303795.63598923758</v>
+        <v>388782.77857113141</v>
       </c>
       <c r="C206" s="60">
         <f t="shared" ref="C206:U206" si="29">C186+C190+C194+C195+C196+C205+C197-C199-C202-C200-C201</f>
-        <v>201335.25555261195</v>
+        <v>288107.12812872545</v>
       </c>
       <c r="D206" s="60">
         <f t="shared" si="29"/>
-        <v>204882.1950119221</v>
+        <v>293476.27691213402</v>
       </c>
       <c r="E206" s="60">
         <f t="shared" si="29"/>
-        <v>208528.13380960113</v>
+        <v>298982.69142971747</v>
       </c>
       <c r="F206" s="60">
         <f t="shared" si="29"/>
-        <v>212276.3766122408</v>
+        <v>304630.47994237958</v>
       </c>
       <c r="G206" s="60">
         <f t="shared" si="29"/>
-        <v>241263.38117428799</v>
+        <v>335556.92067435966</v>
       </c>
       <c r="H206" s="60">
         <f t="shared" si="29"/>
-        <v>245754.46799376199</v>
+        <v>342028.17182333517</v>
       </c>
       <c r="I206" s="60">
         <f t="shared" si="29"/>
-        <v>250369.66408227367</v>
+        <v>348665.11569226789</v>
       </c>
       <c r="J206" s="60">
         <f t="shared" si="29"/>
-        <v>255113.06555676417</v>
+        <v>355472.7216505683</v>
       </c>
       <c r="K206" s="60">
         <f t="shared" si="29"/>
-        <v>259988.92904374521</v>
+        <v>362456.13791551918</v>
       </c>
       <c r="L206" s="60">
         <f t="shared" si="29"/>
-        <v>265001.67877455533</v>
+        <v>369620.69903263653</v>
       </c>
       <c r="M206" s="60">
         <f t="shared" si="29"/>
-        <v>270155.91401584499</v>
+        <v>376971.93369934586</v>
       </c>
       <c r="N206" s="60">
         <f t="shared" si="29"/>
-        <v>275456.41685164097</v>
+        <v>384515.57294849533</v>
       </c>
       <c r="O206" s="60">
         <f t="shared" si="29"/>
-        <v>280908.1603341499</v>
+        <v>392257.55870903819</v>
       </c>
       <c r="P206" s="60">
         <f t="shared" si="29"/>
-        <v>286516.3170213108</v>
+        <v>400204.05276207172</v>
       </c>
       <c r="Q206" s="60">
         <f t="shared" si="29"/>
-        <v>292286.26791999716</v>
+        <v>408361.44611131412</v>
       </c>
       <c r="R206" s="60">
         <f t="shared" si="29"/>
-        <v>298223.61185470596</v>
+        <v>416736.36878804059</v>
       </c>
       <c r="S206" s="60">
         <f t="shared" si="29"/>
-        <v>304334.17528255121</v>
+        <v>425335.70011148578</v>
       </c>
       <c r="T206" s="60">
         <f t="shared" si="29"/>
-        <v>310624.02257641393</v>
+        <v>434166.57942675613</v>
       </c>
       <c r="U206" s="60">
         <f t="shared" si="29"/>
-        <v>211187.9667109056</v>
+        <v>337324.91725510504</v>
       </c>
       <c r="V206" s="55">
         <f t="shared" si="7"/>
-        <v>5178001.6361685218</v>
+        <v>7263653.2515844265</v>
       </c>
       <c r="Y206" s="4"/>
       <c r="Z206" s="4"/>
@@ -11004,83 +11024,83 @@
       </c>
       <c r="B210" s="24">
         <f>EnergyRevenueRequired*(1+LACCostOfMoney)^-B185</f>
-        <v>264170.11825151095</v>
+        <v>338071.98136620125</v>
       </c>
       <c r="C210" s="24">
         <f>C206*(1+$B$209)^-C185</f>
-        <v>152238.37848968769</v>
+        <v>217850.38043759961</v>
       </c>
       <c r="D210" s="24">
         <f t="shared" ref="D210:U210" si="30">D206*(1+$B$209)^-D185</f>
-        <v>134713.36895663492</v>
+        <v>192965.41590343328</v>
       </c>
       <c r="E210" s="24">
         <f>E206*(1+$B$209)^-E185</f>
-        <v>119226.63730309781</v>
+        <v>170944.32420108138</v>
       </c>
       <c r="F210" s="24">
         <f t="shared" si="30"/>
-        <v>105538.87590502414</v>
+        <v>151455.18749010345</v>
       </c>
       <c r="G210" s="24">
         <f t="shared" si="30"/>
-        <v>104304.8175645734</v>
+        <v>145070.51680663077</v>
       </c>
       <c r="H210" s="24">
         <f t="shared" si="30"/>
-        <v>92388.207245449303</v>
+        <v>128581.05848557156</v>
       </c>
       <c r="I210" s="24">
         <f t="shared" si="30"/>
-        <v>81846.287305764359</v>
+        <v>113979.24479808159</v>
       </c>
       <c r="J210" s="24">
         <f t="shared" si="30"/>
-        <v>72519.055358121608</v>
+        <v>101047.53327086588</v>
       </c>
       <c r="K210" s="24">
         <f t="shared" si="30"/>
-        <v>64265.287020616794</v>
+        <v>89593.613932714085</v>
       </c>
       <c r="L210" s="24">
         <f t="shared" si="30"/>
-        <v>56960.314860599618</v>
+        <v>79447.464232122526</v>
       </c>
       <c r="M210" s="24">
         <f t="shared" si="30"/>
-        <v>50494.071994775593</v>
+        <v>70458.749828101572</v>
       </c>
       <c r="N210" s="24">
         <f t="shared" si="30"/>
-        <v>44769.368586409182</v>
+        <v>62494.530384518592</v>
       </c>
       <c r="O210" s="24">
         <f t="shared" si="30"/>
-        <v>39700.373317379992</v>
+        <v>55437.234357266694</v>
       </c>
       <c r="P210" s="24">
         <f t="shared" si="30"/>
-        <v>35211.275283262978</v>
+        <v>49182.871041284132</v>
       </c>
       <c r="Q210" s="24">
         <f t="shared" si="30"/>
-        <v>31235.104720536623</v>
+        <v>43639.451910918884</v>
       </c>
       <c r="R210" s="24">
         <f t="shared" si="30"/>
-        <v>27712.69357652944</v>
+        <v>38725.596603816652</v>
       </c>
       <c r="S210" s="24">
         <f t="shared" si="30"/>
-        <v>24591.759218699626</v>
+        <v>34369.301819447661</v>
       </c>
       <c r="T210" s="24">
         <f t="shared" si="30"/>
-        <v>21826.096588813922</v>
+        <v>30506.853976086742</v>
       </c>
       <c r="U210" s="47">
         <f t="shared" si="30"/>
-        <v>12903.643674924595</v>
+        <v>20610.646537885947</v>
       </c>
       <c r="V210" s="66"/>
       <c r="Y210" s="4"/>
@@ -11100,7 +11120,7 @@
       </c>
       <c r="B211" s="55">
         <f>SUM(B210:U210)</f>
-        <v>1536615.7352224123</v>
+        <v>2134431.9573837323</v>
       </c>
       <c r="C211" s="42"/>
       <c r="D211" s="42"/>
@@ -11158,7 +11178,7 @@
       </c>
       <c r="B213" s="63">
         <f>TotalPresentWorth*CurrentCapitalRecoveryFactor</f>
-        <v>245491.98930773581</v>
+        <v>340999.98799263517</v>
       </c>
       <c r="C213" s="42"/>
       <c r="D213" s="42"/>
@@ -11181,7 +11201,7 @@
       <c r="U213" s="42"/>
       <c r="V213" s="64">
         <f>B213*B126</f>
-        <v>4909839.7861547163</v>
+        <v>6819999.7598527037</v>
       </c>
       <c r="Z213" s="4"/>
       <c r="AA213" s="4"/>
@@ -11200,7 +11220,7 @@
       </c>
       <c r="B214" s="129">
         <f>CurrentAnnualRevenueRequirements/AnnualNetElectricityGeneration</f>
-        <v>6.5939293394503301E-2</v>
+        <v>9.1592798278978024E-2</v>
       </c>
       <c r="C214" s="61"/>
       <c r="D214" s="61"/>
@@ -11223,7 +11243,7 @@
       <c r="U214" s="61"/>
       <c r="V214" s="55">
         <f>B214*B126*B41</f>
-        <v>4909839.7861547163</v>
+        <v>6819999.7598527037</v>
       </c>
       <c r="Z214" s="4"/>
       <c r="AA214" s="4"/>
@@ -11321,7 +11341,7 @@
       </c>
       <c r="B219" s="63">
         <f>TotalPresentWorth*ConstantCapitalRecoveryFactor</f>
-        <v>213956.29364790398</v>
+        <v>297195.41468795674</v>
       </c>
       <c r="F219" s="4"/>
       <c r="G219" s="4"/>
@@ -11343,7 +11363,7 @@
       </c>
       <c r="B220" s="129">
         <f>ConstantLevelAnnualRevenue/AnnualNetElectricityGeneration</f>
-        <v>5.7468786905158199E-2</v>
+        <v>7.9826864004285986E-2</v>
       </c>
       <c r="F220" s="4"/>
       <c r="G220" s="4"/>
@@ -11874,11 +11894,11 @@
       <c r="D230" s="139"/>
       <c r="E230" s="140">
         <f>$B$214</f>
-        <v>6.5939293394503301E-2</v>
+        <v>9.1592798278978024E-2</v>
       </c>
       <c r="F230" s="140">
         <f>$B$220</f>
-        <v>5.7468786905158199E-2</v>
+        <v>7.9826864004285986E-2</v>
       </c>
       <c r="G230" s="141"/>
       <c r="I230" s="138" t="s">
@@ -11888,11 +11908,11 @@
       <c r="K230" s="139"/>
       <c r="L230" s="140">
         <f>$B$214</f>
-        <v>6.5939293394503301E-2</v>
+        <v>9.1592798278978024E-2</v>
       </c>
       <c r="M230" s="140">
         <f>$B$220</f>
-        <v>5.7468786905158199E-2</v>
+        <v>7.9826864004285986E-2</v>
       </c>
       <c r="N230" s="141"/>
       <c r="P230" s="138" t="s">
@@ -11902,11 +11922,11 @@
       <c r="R230" s="139"/>
       <c r="S230" s="140">
         <f>$B$214</f>
-        <v>6.5939293394503301E-2</v>
+        <v>9.1592798278978024E-2</v>
       </c>
       <c r="T230" s="140">
         <f>$B$220</f>
-        <v>5.7468786905158199E-2</v>
+        <v>7.9826864004285986E-2</v>
       </c>
       <c r="U230" s="141"/>
       <c r="W230" s="138" t="s">
@@ -11916,11 +11936,11 @@
       <c r="Y230" s="139"/>
       <c r="Z230" s="140">
         <f>$B$214</f>
-        <v>6.5939293394503301E-2</v>
+        <v>9.1592798278978024E-2</v>
       </c>
       <c r="AA230" s="140">
         <f>$B$220</f>
-        <v>5.7468786905158199E-2</v>
+        <v>7.9826864004285986E-2</v>
       </c>
       <c r="AB230" s="141"/>
       <c r="AD230" s="138" t="s">
@@ -11930,11 +11950,11 @@
       <c r="AF230" s="139"/>
       <c r="AG230" s="140">
         <f>$B$214</f>
-        <v>6.5939293394503301E-2</v>
+        <v>9.1592798278978024E-2</v>
       </c>
       <c r="AH230" s="140">
         <f>$B$220</f>
-        <v>5.7468786905158199E-2</v>
+        <v>7.9826864004285986E-2</v>
       </c>
       <c r="AI230" s="141"/>
       <c r="AK230" s="138" t="s">
@@ -11944,11 +11964,11 @@
       <c r="AM230" s="139"/>
       <c r="AN230" s="140">
         <f>$B$214</f>
-        <v>6.5939293394503301E-2</v>
+        <v>9.1592798278978024E-2</v>
       </c>
       <c r="AO230" s="140">
         <f>$B$220</f>
-        <v>5.7468786905158199E-2</v>
+        <v>7.9826864004285986E-2</v>
       </c>
       <c r="AP230" s="141"/>
       <c r="AR230" s="138" t="s">
@@ -11958,11 +11978,11 @@
       <c r="AT230" s="139"/>
       <c r="AU230" s="140">
         <f>$B$214</f>
-        <v>6.5939293394503301E-2</v>
+        <v>9.1592798278978024E-2</v>
       </c>
       <c r="AV230" s="140">
         <f>$B$220</f>
-        <v>5.7468786905158199E-2</v>
+        <v>7.9826864004285986E-2</v>
       </c>
       <c r="AW230" s="141"/>
       <c r="AY230" s="138" t="s">
@@ -11972,11 +11992,11 @@
       <c r="BA230" s="139"/>
       <c r="BB230" s="140">
         <f>$B$214</f>
-        <v>6.5939293394503301E-2</v>
+        <v>9.1592798278978024E-2</v>
       </c>
       <c r="BC230" s="140">
         <f>$B$220</f>
-        <v>5.7468786905158199E-2</v>
+        <v>7.9826864004285986E-2</v>
       </c>
       <c r="BD230" s="141"/>
     </row>
@@ -11994,14 +12014,14 @@
       </c>
       <c r="E231" s="145">
         <f t="dataTable" ref="E231:F251" dt2D="0" dtr="0" r1="B33"/>
-        <v>4.1493351152774714E-2</v>
+        <v>6.7146856037249403E-2</v>
       </c>
       <c r="F231" s="145">
-        <v>3.616314996148394E-2</v>
+        <v>5.8521227060611705E-2</v>
       </c>
       <c r="G231" s="146">
         <f>(F231-F241)/F241*100</f>
-        <v>-37.073406436846049</v>
+        <v>-26.68980826120184</v>
       </c>
       <c r="I231" s="142">
         <f t="shared" ref="I231:I238" si="32">I232-1</f>
@@ -12023,7 +12043,7 @@
       </c>
       <c r="N231" s="146">
         <f>(M231-M241)/M241*100</f>
-        <v>-38.904731251810993</v>
+        <v>-56.016423488532233</v>
       </c>
       <c r="P231" s="142">
         <f t="shared" ref="P231:P238" si="33">P232-1</f>
@@ -12038,14 +12058,14 @@
       </c>
       <c r="S231" s="145">
         <f t="dataTable" ref="S231:T251" dt2D="0" dtr="0" r1="B80" ca="1"/>
-        <v>8.3064929170782578E-2</v>
+        <v>0.10871843405525729</v>
       </c>
       <c r="T231" s="145">
-        <v>7.2394477830508466E-2</v>
+        <v>9.475255492963626E-2</v>
       </c>
       <c r="U231" s="146">
         <f>(T231-T241)/T241*100</f>
-        <v>25.971821799514249</v>
+        <v>18.697578956062834</v>
       </c>
       <c r="W231" s="142">
         <f t="shared" ref="W231:W238" si="34">W232-1</f>
@@ -12060,14 +12080,14 @@
       </c>
       <c r="Z231" s="145">
         <f t="dataTable" ref="Z231:AA251" dt2D="0" dtr="0" r1="B123" ca="1"/>
-        <v>9.6481329765959564E-2</v>
+        <v>0.12213483465043426</v>
       </c>
       <c r="AA231" s="145">
-        <v>8.408741882436413E-2</v>
+        <v>0.10644549592349191</v>
       </c>
       <c r="AB231" s="146">
         <f>(AA231-AA241)/AA241*100</f>
-        <v>46.318416226768719</v>
+        <v>33.345456133384801</v>
       </c>
       <c r="AD231" s="142">
         <f t="shared" ref="AD231:AD238" si="35">AD232-1</f>
@@ -12082,14 +12102,14 @@
       </c>
       <c r="AG231" s="145">
         <f t="dataTable" ref="AG231:AH251" dt2D="0" dtr="0" r1="B125" ca="1"/>
-        <v>6.0725408370104095E-2</v>
+        <v>8.6378913254578832E-2</v>
       </c>
       <c r="AH231" s="145">
-        <v>5.2924673191010164E-2</v>
+        <v>7.5282750290137951E-2</v>
       </c>
       <c r="AI231" s="146">
         <f>(AH231-AH241)/AH241*100</f>
-        <v>-7.9070987206451209</v>
+        <v>-5.692461768138676</v>
       </c>
       <c r="AK231" s="142">
         <f t="shared" ref="AK231:AK238" si="36">AK232-1</f>
@@ -12104,14 +12124,14 @@
       </c>
       <c r="AN231" s="145">
         <f t="dataTable" ref="AN231:AO251" dt2D="0" dtr="0" r1="B127" ca="1"/>
-        <v>6.5131245786471073E-2</v>
+        <v>9.2949954949882119E-2</v>
       </c>
       <c r="AO231" s="145">
-        <v>5.2346404942881383E-2</v>
+        <v>7.4704482042009121E-2</v>
       </c>
       <c r="AP231" s="146">
         <f>(AO231-AO241)/AO241*100</f>
-        <v>-8.9133288488068807</v>
+        <v>-6.4168648313703507</v>
       </c>
       <c r="AR231" s="142">
         <f t="shared" ref="AR231:AR238" si="37">AR232-1</f>
@@ -12126,14 +12146,14 @@
       </c>
       <c r="AU231" s="145">
         <f t="dataTable" ref="AU231:AV251" dt2D="0" dtr="0" r1="B43" ca="1"/>
-        <v>0.16858200747186969</v>
+        <v>0.2865881299404533</v>
       </c>
       <c r="AV231" s="145">
-        <v>0.14692610376459195</v>
+        <v>0.24977325842057971</v>
       </c>
       <c r="AW231" s="146">
         <f>(AV231-AV241)/AV241*100</f>
-        <v>155.66244160863673</v>
+        <v>212.89373763595313</v>
       </c>
       <c r="AY231" s="142">
         <f t="shared" ref="AY231:AY238" si="38">AY232-1</f>
@@ -12148,14 +12168,14 @@
       </c>
       <c r="BB231" s="145">
         <f t="dataTable" ref="BB231:BC251" dt2D="0" dtr="0" r1="B39" ca="1"/>
-        <v>0.1036284698833688</v>
+        <v>0.1292819747678435</v>
       </c>
       <c r="BC231" s="145">
-        <v>9.031644329891117E-2</v>
+        <v>0.11267452039803895</v>
       </c>
       <c r="BD231" s="146">
         <f>(BC231-BC241)/BC241*100</f>
-        <v>57.15738605716885</v>
+        <v>41.14862434278934</v>
       </c>
     </row>
     <row r="232" spans="1:56">
@@ -12172,14 +12192,14 @@
         <v>87500</v>
       </c>
       <c r="E232" s="145">
-        <v>4.3937945376947563E-2</v>
+        <v>6.9591450261422258E-2</v>
       </c>
       <c r="F232" s="145">
-        <v>3.8293713655851359E-2</v>
+        <v>6.0651790754979118E-2</v>
       </c>
       <c r="G232" s="146">
         <f>(F232-F241)/F241*100</f>
-        <v>-33.366065793161454</v>
+        <v>-24.020827435081678</v>
       </c>
       <c r="I232" s="142">
         <f t="shared" si="32"/>
@@ -12194,14 +12214,14 @@
         <v>2.2049999999999983</v>
       </c>
       <c r="L232" s="145">
-        <v>4.285113899847609E-2</v>
+        <v>4.5416489486923568E-2</v>
       </c>
       <c r="M232" s="145">
-        <v>3.7346517515943214E-2</v>
+        <v>3.9582325225856002E-2</v>
       </c>
       <c r="N232" s="146">
         <f>(M232-M241)/M241*100</f>
-        <v>-35.014258126629919</v>
+        <v>-50.414781139679008</v>
       </c>
       <c r="P232" s="142">
         <f t="shared" si="33"/>
@@ -12216,14 +12236,14 @@
         <v>1.0000000000000009E-3</v>
       </c>
       <c r="S232" s="145">
-        <v>8.135236559315466E-2</v>
+        <v>0.10700587047762936</v>
       </c>
       <c r="T232" s="145">
-        <v>7.0901908737973446E-2</v>
+        <v>9.3259985837101211E-2</v>
       </c>
       <c r="U232" s="146">
         <f>(T232-T241)/T241*100</f>
-        <v>23.374639619562835</v>
+        <v>16.827821060456525</v>
       </c>
       <c r="W232" s="142">
         <f t="shared" si="34"/>
@@ -12238,14 +12258,14 @@
         <v>9</v>
       </c>
       <c r="Z232" s="145">
-        <v>9.3427126128813945E-2</v>
+        <v>0.11908063101328863</v>
       </c>
       <c r="AA232" s="145">
-        <v>8.1425555632443539E-2</v>
+        <v>0.1037836327315713</v>
       </c>
       <c r="AB232" s="146">
         <f>(AA232-AA241)/AA241*100</f>
-        <v>41.686574604091845</v>
+        <v>30.010910520046302</v>
       </c>
       <c r="AD232" s="142">
         <f t="shared" si="35"/>
@@ -12260,14 +12280,14 @@
         <v>1.4</v>
       </c>
       <c r="AG232" s="145">
-        <v>6.1182729401921841E-2</v>
+        <v>8.683623428639653E-2</v>
       </c>
       <c r="AH232" s="145">
-        <v>5.3323247145504064E-2</v>
+        <v>7.5681324244631823E-2</v>
       </c>
       <c r="AI232" s="146">
         <f>(AH232-AH241)/AH241*100</f>
-        <v>-7.2135501424374855</v>
+        <v>-5.1931637442648189</v>
       </c>
       <c r="AK232" s="142">
         <f t="shared" si="36"/>
@@ -12282,14 +12302,14 @@
         <v>2.4000000000000004</v>
       </c>
       <c r="AN232" s="145">
-        <v>6.5037641297686022E-2</v>
+        <v>9.2593462437158908E-2</v>
       </c>
       <c r="AO232" s="145">
-        <v>5.2769851826194515E-2</v>
+        <v>7.5127928925322621E-2</v>
       </c>
       <c r="AP232" s="146">
         <f>(AO232-AO241)/AO241*100</f>
-        <v>-8.1764995087131798</v>
+        <v>-5.886408213043512</v>
       </c>
       <c r="AR232" s="142">
         <f t="shared" si="37"/>
@@ -12304,14 +12324,14 @@
         <v>6.8000000000000007</v>
       </c>
       <c r="AU232" s="145">
-        <v>0.13386461888687812</v>
+        <v>0.22063382658436601</v>
       </c>
       <c r="AV232" s="145">
-        <v>0.11666848188566584</v>
+        <v>0.19229138972095092</v>
       </c>
       <c r="AW232" s="146">
         <f>(AV232-AV241)/AV241*100</f>
-        <v>103.01190988806843</v>
+        <v>140.8855616708513</v>
       </c>
       <c r="AY232" s="142">
         <f t="shared" si="38"/>
@@ -12326,14 +12346,14 @@
         <v>44.5</v>
       </c>
       <c r="BB232" s="145">
-        <v>9.6429413700102315E-2</v>
+        <v>0.12208291858457705</v>
       </c>
       <c r="BC232" s="145">
-        <v>8.4042171852913364E-2</v>
+        <v>0.10640024895204118</v>
       </c>
       <c r="BD232" s="146">
         <f>(BC232-BC241)/BC241*100</f>
-        <v>46.23968310242865</v>
+        <v>33.288774749222824</v>
       </c>
     </row>
     <row r="233" spans="1:56">
@@ -12350,14 +12370,14 @@
         <v>175000</v>
       </c>
       <c r="E233" s="145">
-        <v>4.6382539601120425E-2</v>
+        <v>7.2036044485595127E-2</v>
       </c>
       <c r="F233" s="145">
-        <v>4.0424277350218786E-2</v>
+        <v>6.2782354449346559E-2</v>
       </c>
       <c r="G233" s="146">
         <f>(F233-F241)/F241*100</f>
-        <v>-29.658725149476851</v>
+        <v>-21.351846608961477</v>
       </c>
       <c r="I233" s="142">
         <f t="shared" si="32"/>
@@ -12372,14 +12392,14 @@
         <v>4.41</v>
       </c>
       <c r="L233" s="145">
-        <v>4.5416489486923568E-2</v>
+        <v>5.0547190463818503E-2</v>
       </c>
       <c r="M233" s="145">
-        <v>3.9582325225856002E-2</v>
+        <v>4.405394064568155E-2</v>
       </c>
       <c r="N233" s="146">
         <f>(M233-M241)/M241*100</f>
-        <v>-31.123785001448795</v>
+        <v>-44.813138790825796</v>
       </c>
       <c r="P233" s="142">
         <f t="shared" si="33"/>
@@ -12394,14 +12414,14 @@
         <v>2E-3</v>
       </c>
       <c r="S233" s="145">
-        <v>7.9639802015526728E-2</v>
+        <v>0.10529330690000141</v>
       </c>
       <c r="T233" s="145">
-        <v>6.9409339645438425E-2</v>
+        <v>9.1767416744566177E-2</v>
       </c>
       <c r="U233" s="146">
         <f>(T233-T241)/T241*100</f>
-        <v>20.777457439611421</v>
+        <v>14.958063164850232</v>
       </c>
       <c r="W233" s="142">
         <f t="shared" si="34"/>
@@ -12416,14 +12436,14 @@
         <v>18</v>
       </c>
       <c r="Z233" s="145">
-        <v>9.0372922491668312E-2</v>
+        <v>0.11602642737614299</v>
       </c>
       <c r="AA233" s="145">
-        <v>7.8763692440522934E-2</v>
+        <v>0.10112176953965071</v>
       </c>
       <c r="AB233" s="146">
         <f>(AA233-AA241)/AA241*100</f>
-        <v>37.054732981414958</v>
+        <v>26.676364906707828</v>
       </c>
       <c r="AD233" s="142">
         <f t="shared" si="35"/>
@@ -12438,14 +12458,14 @@
         <v>1.7999999999999998</v>
       </c>
       <c r="AG233" s="145">
-        <v>6.1654619249754149E-2</v>
+        <v>8.7308124134228851E-2</v>
       </c>
       <c r="AH233" s="145">
-        <v>5.373451841809012E-2</v>
+        <v>7.6092595517217892E-2</v>
       </c>
       <c r="AI233" s="146">
         <f>(AH233-AH241)/AH241*100</f>
-        <v>-6.4979072783123328</v>
+        <v>-4.6779596488565511</v>
       </c>
       <c r="AK233" s="142">
         <f t="shared" si="36"/>
@@ -12460,14 +12480,14 @@
         <v>3.8000000000000007</v>
       </c>
       <c r="AN233" s="145">
-        <v>6.4978515590785643E-2</v>
+        <v>9.2279293361537187E-2</v>
       </c>
       <c r="AO233" s="145">
-        <v>5.3214405595510224E-2</v>
+        <v>7.5572482694638024E-2</v>
       </c>
       <c r="AP233" s="146">
         <f>(AO233-AO241)/AO241*100</f>
-        <v>-7.4029426037286283</v>
+        <v>-5.3295107639698083</v>
       </c>
       <c r="AR233" s="142">
         <f t="shared" si="37"/>
@@ -12482,14 +12502,14 @@
         <v>8.6</v>
       </c>
       <c r="AU233" s="145">
-        <v>0.11368009063979</v>
+        <v>0.18228830137733859</v>
       </c>
       <c r="AV233" s="145">
-        <v>9.9076841258383216E-2</v>
+        <v>0.15887169861651562</v>
       </c>
       <c r="AW233" s="146">
         <f>(AV233-AV241)/AV241*100</f>
-        <v>72.401135631924092</v>
+        <v>99.020343086489831</v>
       </c>
       <c r="AY233" s="142">
         <f t="shared" si="38"/>
@@ -12504,14 +12524,14 @@
         <v>49</v>
       </c>
       <c r="BB233" s="145">
-        <v>9.0552633142333819E-2</v>
+        <v>0.11620613802680851</v>
       </c>
       <c r="BC233" s="145">
-        <v>7.892031761128257E-2</v>
+        <v>0.10127839471041034</v>
       </c>
       <c r="BD233" s="146">
         <f>(BC233-BC241)/BC241*100</f>
-        <v>37.327272527130646</v>
+        <v>26.872570999372584</v>
       </c>
     </row>
     <row r="234" spans="1:56">
@@ -12528,14 +12548,14 @@
         <v>262500</v>
       </c>
       <c r="E234" s="145">
-        <v>4.8827133825293301E-2</v>
+        <v>7.4480638709767996E-2</v>
       </c>
       <c r="F234" s="145">
-        <v>4.255484104458622E-2</v>
+        <v>6.4912918143713999E-2</v>
       </c>
       <c r="G234" s="146">
         <f>(F234-F241)/F241*100</f>
-        <v>-25.95138450579223</v>
+        <v>-18.682865782841276</v>
       </c>
       <c r="I234" s="142">
         <f t="shared" si="32"/>
@@ -12550,14 +12570,14 @@
         <v>6.615000000000002</v>
       </c>
       <c r="L234" s="145">
-        <v>4.7981839975371053E-2</v>
+        <v>5.5677891440713445E-2</v>
       </c>
       <c r="M234" s="145">
-        <v>4.181813293576879E-2</v>
+        <v>4.8525556065507104E-2</v>
       </c>
       <c r="N234" s="146">
         <f>(M234-M241)/M241*100</f>
-        <v>-27.233311876267674</v>
+        <v>-39.211496441972571</v>
       </c>
       <c r="P234" s="142">
         <f t="shared" si="33"/>
@@ -12572,14 +12592,14 @@
         <v>2.9999999999999992E-3</v>
       </c>
       <c r="S234" s="145">
-        <v>7.7927238437898796E-2</v>
+        <v>0.10358074332237349</v>
       </c>
       <c r="T234" s="145">
-        <v>6.7916770552903377E-2</v>
+        <v>9.0274847652031157E-2</v>
       </c>
       <c r="U234" s="146">
         <f>(T234-T241)/T241*100</f>
-        <v>18.180275259659957</v>
+        <v>13.088305269243957</v>
       </c>
       <c r="W234" s="142">
         <f t="shared" si="34"/>
@@ -12594,14 +12614,14 @@
         <v>27</v>
       </c>
       <c r="Z234" s="145">
-        <v>8.7318718854522706E-2</v>
+        <v>0.11297222373899737</v>
       </c>
       <c r="AA234" s="145">
-        <v>7.6101829248602371E-2</v>
+        <v>9.8459906347730122E-2</v>
       </c>
       <c r="AB234" s="146">
         <f>(AA234-AA241)/AA241*100</f>
-        <v>32.422891358738134</v>
+        <v>23.341819293369348</v>
       </c>
       <c r="AD234" s="142">
         <f t="shared" si="35"/>
@@ -12616,14 +12636,14 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="AG234" s="145">
-        <v>6.2140981664582921E-2</v>
+        <v>8.7794486549057624E-2</v>
       </c>
       <c r="AH234" s="145">
-        <v>5.4158403123818588E-2</v>
+        <v>7.6516480222946368E-2</v>
       </c>
       <c r="AI234" s="146">
         <f>(AH234-AH241)/AH241*100</f>
-        <v>-5.7603160943744971</v>
+        <v>-4.1469545655230551</v>
       </c>
       <c r="AK234" s="142">
         <f t="shared" si="36"/>
@@ -12638,14 +12658,14 @@
         <v>5.1999999999999993</v>
       </c>
       <c r="AN234" s="145">
-        <v>6.4956956859175949E-2</v>
+        <v>9.2011954406091695E-2</v>
       </c>
       <c r="AO234" s="145">
-        <v>5.3680014092173968E-2</v>
+        <v>7.6038091191301699E-2</v>
       </c>
       <c r="AP234" s="146">
         <f>(AO234-AO241)/AO241*100</f>
-        <v>-6.5927488938245959</v>
+        <v>-4.7462378238745089</v>
       </c>
       <c r="AR234" s="142">
         <f t="shared" si="37"/>
@@ -12660,14 +12680,14 @@
         <v>10.4</v>
       </c>
       <c r="AU234" s="145">
-        <v>0.10048251447823238</v>
+        <v>0.15721622720351297</v>
       </c>
       <c r="AV234" s="145">
-        <v>8.7574614694390721E-2</v>
+        <v>0.13702036212515406</v>
       </c>
       <c r="AW234" s="146">
         <f>(AV234-AV241)/AV241*100</f>
-        <v>52.386398618291217</v>
+        <v>71.646930935176528</v>
       </c>
       <c r="AY234" s="142">
         <f t="shared" si="38"/>
@@ -12682,14 +12702,14 @@
         <v>53.5</v>
       </c>
       <c r="BB234" s="145">
-        <v>8.5664469874657229E-2</v>
+        <v>0.11131797475913191</v>
       </c>
       <c r="BC234" s="145">
-        <v>7.4660083709365374E-2</v>
+        <v>9.7018160808493153E-2</v>
       </c>
       <c r="BD234" s="146">
         <f>(BC234-BC241)/BC241*100</f>
-        <v>29.9141459738454</v>
+        <v>21.535728628001909</v>
       </c>
     </row>
     <row r="235" spans="1:56">
@@ -12706,14 +12726,14 @@
         <v>350000</v>
       </c>
       <c r="E235" s="145">
-        <v>5.1271728049466163E-2</v>
+        <v>7.6925232933940824E-2</v>
       </c>
       <c r="F235" s="145">
-        <v>4.4685404738953653E-2</v>
+        <v>6.7043481838081398E-2</v>
       </c>
       <c r="G235" s="146">
         <f>(F235-F241)/F241*100</f>
-        <v>-22.244043862107613</v>
+        <v>-16.013884956721132</v>
       </c>
       <c r="I235" s="142">
         <f t="shared" si="32"/>
@@ -12728,14 +12748,14 @@
         <v>8.82</v>
       </c>
       <c r="L235" s="145">
-        <v>5.0547190463818503E-2</v>
+        <v>6.0808592417608387E-2</v>
       </c>
       <c r="M235" s="145">
-        <v>4.405394064568155E-2</v>
+        <v>5.2997171485332659E-2</v>
       </c>
       <c r="N235" s="146">
         <f>(M235-M241)/M241*100</f>
-        <v>-23.3428387510866</v>
+        <v>-33.609854093119345</v>
       </c>
       <c r="P235" s="142">
         <f t="shared" si="33"/>
@@ -12750,14 +12770,14 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="S235" s="145">
-        <v>7.6214674860270878E-2</v>
+        <v>0.10186817974474559</v>
       </c>
       <c r="T235" s="145">
-        <v>6.6424201460368384E-2</v>
+        <v>8.878227855949615E-2</v>
       </c>
       <c r="U235" s="146">
         <f>(T235-T241)/T241*100</f>
-        <v>15.583093079708593</v>
+        <v>11.218547373637701</v>
       </c>
       <c r="W235" s="142">
         <f t="shared" si="34"/>
@@ -12772,14 +12792,14 @@
         <v>36</v>
       </c>
       <c r="Z235" s="145">
-        <v>8.4264515217377073E-2</v>
+        <v>0.10991802010185174</v>
       </c>
       <c r="AA235" s="145">
-        <v>7.343996605668178E-2</v>
+        <v>9.5798043155809517E-2</v>
       </c>
       <c r="AB235" s="146">
         <f>(AA235-AA241)/AA241*100</f>
-        <v>27.791049736061268</v>
+        <v>20.007273680030853</v>
       </c>
       <c r="AD235" s="142">
         <f t="shared" si="35"/>
@@ -12794,14 +12814,14 @@
         <v>2.6</v>
       </c>
       <c r="AG235" s="145">
-        <v>6.264170342603971E-2</v>
+        <v>8.8295208310514392E-2</v>
       </c>
       <c r="AH235" s="145">
-        <v>5.4594802586514904E-2</v>
+        <v>7.6952879685642669E-2</v>
       </c>
       <c r="AI235" s="146">
         <f>(AH235-AH241)/AH241*100</f>
-        <v>-5.0009482945695103</v>
+        <v>-3.6002721070052424</v>
       </c>
       <c r="AK235" s="142">
         <f t="shared" si="36"/>
@@ -12816,14 +12836,14 @@
         <v>6.6</v>
       </c>
       <c r="AN235" s="145">
-        <v>6.4975139893464345E-2</v>
+        <v>9.1794746414993286E-2</v>
       </c>
       <c r="AO235" s="145">
-        <v>5.4166312473620574E-2</v>
+        <v>7.6524389572748347E-2</v>
       </c>
       <c r="AP235" s="146">
         <f>(AO235-AO241)/AO241*100</f>
-        <v>-5.7465532324316486</v>
+        <v>-4.1370464350952405</v>
       </c>
       <c r="AR235" s="142">
         <f t="shared" si="37"/>
@@ -12838,14 +12858,14 @@
         <v>12.2</v>
       </c>
       <c r="AU235" s="145">
-        <v>9.1179305052872126E-2</v>
+        <v>0.13954246999901296</v>
       </c>
       <c r="AV235" s="145">
-        <v>7.94664877722321E-2</v>
+        <v>0.12161696099189923</v>
       </c>
       <c r="AW235" s="146">
         <f>(AV235-AV241)/AV241*100</f>
-        <v>38.277649575894323</v>
+        <v>52.350919090808191</v>
       </c>
       <c r="AY235" s="142">
         <f t="shared" si="38"/>
@@ -12860,14 +12880,14 @@
         <v>58</v>
       </c>
       <c r="BB235" s="145">
-        <v>8.1534814700240751E-2</v>
+        <v>0.10718831958471547</v>
       </c>
       <c r="BC235" s="145">
-        <v>7.1060920585331838E-2</v>
+        <v>9.3418997684459645E-2</v>
       </c>
       <c r="BD235" s="146">
         <f>(BC235-BC241)/BC241*100</f>
-        <v>23.651332161587106</v>
+        <v>17.027016969430093</v>
       </c>
     </row>
     <row r="236" spans="1:56">
@@ -12884,14 +12904,14 @@
         <v>437500</v>
       </c>
       <c r="E236" s="145">
-        <v>5.3716322273639004E-2</v>
+        <v>7.9369827158113734E-2</v>
       </c>
       <c r="F236" s="145">
-        <v>4.6815968433321066E-2</v>
+        <v>6.9174045532448852E-2</v>
       </c>
       <c r="G236" s="146">
         <f>(F236-F241)/F241*100</f>
-        <v>-18.536703218423032</v>
+        <v>-13.344904130600913</v>
       </c>
       <c r="I236" s="142">
         <f t="shared" si="32"/>
@@ -12906,14 +12926,14 @@
         <v>11.025</v>
       </c>
       <c r="L236" s="145">
-        <v>5.3112540952265974E-2</v>
+        <v>6.5939293394503301E-2</v>
       </c>
       <c r="M236" s="145">
-        <v>4.628974835559433E-2</v>
+        <v>5.7468786905158199E-2</v>
       </c>
       <c r="N236" s="146">
         <f>(M236-M241)/M241*100</f>
-        <v>-19.45236562590549</v>
+        <v>-28.008211744266138</v>
       </c>
       <c r="P236" s="142">
         <f t="shared" si="33"/>
@@ -12928,14 +12948,14 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="S236" s="145">
-        <v>7.4502111282642947E-2</v>
+        <v>0.10015561616711767</v>
       </c>
       <c r="T236" s="145">
-        <v>6.4931632367833336E-2</v>
+        <v>8.728970946696113E-2</v>
       </c>
       <c r="U236" s="146">
         <f>(T236-T241)/T241*100</f>
-        <v>12.98591089975713</v>
+        <v>9.348789478031426</v>
       </c>
       <c r="W236" s="142">
         <f t="shared" si="34"/>
@@ -12950,14 +12970,14 @@
         <v>45</v>
       </c>
       <c r="Z236" s="145">
-        <v>8.1210311580231453E-2</v>
+        <v>0.10686381646470616</v>
       </c>
       <c r="AA236" s="145">
-        <v>7.0778102864761203E-2</v>
+        <v>9.3136179963888954E-2</v>
       </c>
       <c r="AB236" s="146">
         <f>(AA236-AA241)/AA241*100</f>
-        <v>23.159208113384423</v>
+        <v>16.672728066692407</v>
       </c>
       <c r="AD236" s="142">
         <f t="shared" si="35"/>
@@ -12972,14 +12992,14 @@
         <v>3</v>
       </c>
       <c r="AG236" s="145">
-        <v>6.3156655066063286E-2</v>
+        <v>8.8810159950537981E-2</v>
       </c>
       <c r="AH236" s="145">
-        <v>5.5043603969476704E-2</v>
+        <v>7.7401681068604469E-2</v>
       </c>
       <c r="AI236" s="146">
         <f>(AH236-AH241)/AH241*100</f>
-        <v>-4.2200002232234679</v>
+        <v>-3.038053625094562</v>
       </c>
       <c r="AK236" s="142">
         <f t="shared" si="36"/>
@@ -12994,14 +13014,14 @@
         <v>8</v>
       </c>
       <c r="AN236" s="145">
-        <v>6.5034353026580186E-2</v>
+        <v>9.1629787814776736E-2</v>
       </c>
       <c r="AO236" s="145">
-        <v>5.4672656816481119E-2</v>
+        <v>7.7030733915608884E-2</v>
       </c>
       <c r="AP236" s="146">
         <f>(AO236-AO241)/AO241*100</f>
-        <v>-4.8654760945129842</v>
+        <v>-3.5027432475951628</v>
       </c>
       <c r="AR236" s="142">
         <f t="shared" si="37"/>
@@ -13016,14 +13036,14 @@
         <v>14</v>
       </c>
       <c r="AU236" s="145">
-        <v>8.426834947974729E-2</v>
+        <v>0.12641339321852715</v>
       </c>
       <c r="AV236" s="145">
-        <v>7.3443307772914218E-2</v>
+        <v>0.11017443443576699</v>
       </c>
       <c r="AW236" s="146">
         <f>(AV236-AV241)/AV241*100</f>
-        <v>27.796864572970829</v>
+        <v>38.016738863563042</v>
       </c>
       <c r="AY236" s="142">
         <f t="shared" si="38"/>
@@ -13038,14 +13058,14 @@
         <v>62.5</v>
       </c>
       <c r="BB236" s="145">
-        <v>7.7999829870940257E-2</v>
+        <v>0.10365333475541495</v>
       </c>
       <c r="BC236" s="145">
-        <v>6.7980036951159145E-2</v>
+        <v>9.0338114050286925E-2</v>
       </c>
       <c r="BD236" s="146">
         <f>(BC236-BC241)/BC241*100</f>
-        <v>18.290363538294024</v>
+        <v>13.167559789692577</v>
       </c>
     </row>
     <row r="237" spans="1:56">
@@ -13062,14 +13082,14 @@
         <v>525000</v>
       </c>
       <c r="E237" s="145">
-        <v>5.6160916497811887E-2</v>
+        <v>8.1814421382286534E-2</v>
       </c>
       <c r="F237" s="145">
-        <v>4.8946532127688513E-2</v>
+        <v>7.1304609226816251E-2</v>
       </c>
       <c r="G237" s="146">
         <f>(F237-F241)/F241*100</f>
-        <v>-14.829362574738388</v>
+        <v>-10.675923304480763</v>
       </c>
       <c r="I237" s="142">
         <f t="shared" si="32"/>
@@ -13084,14 +13104,14 @@
         <v>13.23</v>
       </c>
       <c r="L237" s="145">
-        <v>5.5677891440713445E-2</v>
+        <v>7.1069994371398257E-2</v>
       </c>
       <c r="M237" s="145">
-        <v>4.8525556065507104E-2</v>
+        <v>6.1940402324983761E-2</v>
       </c>
       <c r="N237" s="146">
         <f>(M237-M241)/M241*100</f>
-        <v>-15.561892500724392</v>
+        <v>-22.406569395412905</v>
       </c>
       <c r="P237" s="142">
         <f t="shared" si="33"/>
@@ -13106,14 +13126,14 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="S237" s="145">
-        <v>7.2789547705015015E-2</v>
+        <v>9.8443052589489724E-2</v>
       </c>
       <c r="T237" s="145">
-        <v>6.3439063275298316E-2</v>
+        <v>8.5797140374426081E-2</v>
       </c>
       <c r="U237" s="146">
         <f>(T237-T241)/T241*100</f>
-        <v>10.388728719805716</v>
+        <v>7.4790315824251161</v>
       </c>
       <c r="W237" s="142">
         <f t="shared" si="34"/>
@@ -13128,14 +13148,14 @@
         <v>54</v>
       </c>
       <c r="Z237" s="145">
-        <v>7.8156107943085834E-2</v>
+        <v>0.10380961282756052</v>
       </c>
       <c r="AA237" s="145">
-        <v>6.8116239672840598E-2</v>
+        <v>9.0474316771968349E-2</v>
       </c>
       <c r="AB237" s="146">
         <f>(AA237-AA241)/AA241*100</f>
-        <v>18.527366490707532</v>
+        <v>13.338182453353914</v>
       </c>
       <c r="AD237" s="142">
         <f t="shared" si="35"/>
@@ -13150,14 +13170,14 @@
         <v>3.4</v>
       </c>
       <c r="AG237" s="145">
-        <v>6.368569164164023E-2</v>
+        <v>8.9339196526114911E-2</v>
       </c>
       <c r="AH237" s="145">
-        <v>5.5504680948948865E-2</v>
+        <v>7.786275804807663E-2</v>
       </c>
       <c r="AI237" s="146">
         <f>(AH237-AH241)/AH241*100</f>
-        <v>-3.417691693145942</v>
+        <v>-2.4604573669634582</v>
       </c>
       <c r="AK237" s="142">
         <f t="shared" si="36"/>
@@ -13172,14 +13192,14 @@
         <v>9.4</v>
       </c>
       <c r="AN237" s="145">
-        <v>6.5135064833082651E-2</v>
+        <v>9.1518092872494905E-2</v>
       </c>
       <c r="AO237" s="145">
-        <v>5.5198167519636611E-2</v>
+        <v>7.7556244618764383E-2</v>
       </c>
       <c r="AP237" s="146">
         <f>(AO237-AO241)/AO241*100</f>
-        <v>-3.9510480519953095</v>
+        <v>-2.8444301474747777</v>
       </c>
       <c r="AR237" s="142">
         <f t="shared" si="37"/>
@@ -13194,14 +13214,14 @@
         <v>15.8</v>
       </c>
       <c r="AU237" s="145">
-        <v>7.8932042011891468E-2</v>
+        <v>0.11627575165384828</v>
       </c>
       <c r="AV237" s="145">
-        <v>6.8792497900023244E-2</v>
+        <v>0.10133906582913328</v>
       </c>
       <c r="AW237" s="146">
         <f>(AV237-AV241)/AV241*100</f>
-        <v>19.704106532738848</v>
+        <v>26.948574384297853</v>
       </c>
       <c r="AY237" s="142">
         <f t="shared" si="38"/>
@@ -13216,14 +13236,14 @@
         <v>67</v>
       </c>
       <c r="BB237" s="145">
-        <v>7.4939693750053299E-2</v>
+        <v>0.10059319863452799</v>
       </c>
       <c r="BC237" s="145">
-        <v>6.5313003357397745E-2</v>
+        <v>8.767108045652551E-2</v>
       </c>
       <c r="BD237" s="146">
         <f>(BC237-BC241)/BC241*100</f>
-        <v>13.649525028577688</v>
+        <v>9.826537156487019</v>
       </c>
     </row>
     <row r="238" spans="1:56">
@@ -13240,14 +13260,14 @@
         <v>612500</v>
       </c>
       <c r="E238" s="145">
-        <v>5.8605510721984756E-2</v>
+        <v>8.4259015606459445E-2</v>
       </c>
       <c r="F238" s="145">
-        <v>5.1077095822055947E-2</v>
+        <v>7.343517292118372E-2</v>
       </c>
       <c r="G238" s="146">
         <f>(F238-F241)/F241*100</f>
-        <v>-11.122021931053769</v>
+        <v>-8.0069424783605303</v>
       </c>
       <c r="I238" s="142">
         <f t="shared" si="32"/>
@@ -13262,14 +13282,14 @@
         <v>15.435</v>
       </c>
       <c r="L238" s="145">
-        <v>5.8243241929160923E-2</v>
+        <v>7.6200695348293199E-2</v>
       </c>
       <c r="M238" s="145">
-        <v>5.0761363775419892E-2</v>
+        <v>6.6412017744809315E-2</v>
       </c>
       <c r="N238" s="146">
         <f>(M238-M241)/M241*100</f>
-        <v>-11.67141937554327</v>
+        <v>-16.80492704655968</v>
       </c>
       <c r="P238" s="142">
         <f t="shared" si="33"/>
@@ -13284,14 +13304,14 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="S238" s="145">
-        <v>7.1076984127387083E-2</v>
+        <v>9.6730489011861792E-2</v>
       </c>
       <c r="T238" s="145">
-        <v>6.1946494182763288E-2</v>
+        <v>8.4304571281891061E-2</v>
       </c>
       <c r="U238" s="146">
         <f>(T238-T241)/T241*100</f>
-        <v>7.7915465398542896</v>
+        <v>5.6092736868188418</v>
       </c>
       <c r="W238" s="142">
         <f t="shared" si="34"/>
@@ -13306,14 +13326,14 @@
         <v>63</v>
       </c>
       <c r="Z238" s="145">
-        <v>7.5101904305940201E-2</v>
+        <v>0.1007554091904149</v>
       </c>
       <c r="AA238" s="145">
-        <v>6.5454376480920007E-2</v>
+        <v>8.7812453580047758E-2</v>
       </c>
       <c r="AB238" s="146">
         <f>(AA238-AA241)/AA241*100</f>
-        <v>13.895524868030664</v>
+        <v>10.003636840015433</v>
       </c>
       <c r="AD238" s="142">
         <f t="shared" si="35"/>
@@ -13328,14 +13348,14 @@
         <v>3.8</v>
       </c>
       <c r="AG238" s="145">
-        <v>6.4228653549825737E-2</v>
+        <v>8.9882158434300446E-2</v>
       </c>
       <c r="AH238" s="145">
-        <v>5.5977894424447408E-2</v>
+        <v>7.8335971523575187E-2</v>
       </c>
       <c r="AI238" s="146">
         <f>(AH238-AH241)/AH241*100</f>
-        <v>-2.5942647496131048</v>
+        <v>-1.8676575853346193</v>
       </c>
       <c r="AK238" s="142">
         <f t="shared" si="36"/>
@@ -13350,14 +13370,14 @@
         <v>10.8</v>
       </c>
       <c r="AN238" s="145">
-        <v>6.5277019202687386E-2</v>
+        <v>9.1459689989612167E-2</v>
       </c>
       <c r="AO238" s="145">
-        <v>5.5741778217055046E-2</v>
+        <v>7.8099855316182812E-2</v>
       </c>
       <c r="AP238" s="146">
         <f>(AO238-AO241)/AO241*100</f>
-        <v>-3.00512466176338</v>
+        <v>-2.163442983317557</v>
       </c>
       <c r="AR238" s="142">
         <f t="shared" si="37"/>
@@ -13372,14 +13392,14 @@
         <v>17.600000000000001</v>
       </c>
       <c r="AU238" s="145">
-        <v>7.4687251980642508E-2</v>
+        <v>0.10821171859103554</v>
       </c>
       <c r="AV238" s="145">
-        <v>6.5092990046587237E-2</v>
+        <v>9.4310931710220092E-2</v>
       </c>
       <c r="AW238" s="146">
         <f>(AV238-AV241)/AV241*100</f>
-        <v>13.266685364372494</v>
+        <v>18.144352639427801</v>
       </c>
       <c r="AY238" s="142">
         <f t="shared" si="38"/>
@@ -13394,14 +13414,14 @@
         <v>71.5</v>
       </c>
       <c r="BB238" s="145">
-        <v>7.2264749588438773E-2</v>
+        <v>9.7918254472913482E-2</v>
       </c>
       <c r="BC238" s="145">
-        <v>6.2981680285927932E-2</v>
+        <v>8.5339757385055698E-2</v>
       </c>
       <c r="BD238" s="146">
         <f>(BC238-BC241)/BC241*100</f>
-        <v>9.5928480095947783</v>
+        <v>6.9060628267618274</v>
       </c>
     </row>
     <row r="239" spans="1:56">
@@ -13418,14 +13438,14 @@
         <v>700000</v>
       </c>
       <c r="E239" s="145">
-        <v>6.1050104946157577E-2</v>
+        <v>8.6703609830632286E-2</v>
       </c>
       <c r="F239" s="145">
-        <v>5.3207659516423339E-2</v>
+        <v>7.5565736615551118E-2</v>
       </c>
       <c r="G239" s="146">
         <f>(F239-F241)/F241*100</f>
-        <v>-7.4146812873692252</v>
+        <v>-5.3379616522403817</v>
       </c>
       <c r="I239" s="142">
         <f>I240-1</f>
@@ -13440,14 +13460,14 @@
         <v>17.64</v>
       </c>
       <c r="L239" s="145">
-        <v>6.0808592417608387E-2</v>
+        <v>8.1331396325188141E-2</v>
       </c>
       <c r="M239" s="145">
-        <v>5.2997171485332659E-2</v>
+        <v>7.0883633164634877E-2</v>
       </c>
       <c r="N239" s="146">
         <f>(M239-M241)/M241*100</f>
-        <v>-7.7809462503621836</v>
+        <v>-11.203284697706449</v>
       </c>
       <c r="P239" s="142">
         <f>P240-1</f>
@@ -13462,14 +13482,14 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="S239" s="145">
-        <v>6.9364420549759193E-2</v>
+        <v>9.5017925434233833E-2</v>
       </c>
       <c r="T239" s="145">
-        <v>6.0453925090228275E-2</v>
+        <v>8.2812002189356013E-2</v>
       </c>
       <c r="U239" s="146">
         <f>(T239-T241)/T241*100</f>
-        <v>5.194364359902889</v>
+        <v>3.7395157912125319</v>
       </c>
       <c r="W239" s="142">
         <f>W240-1</f>
@@ -13484,14 +13504,14 @@
         <v>72</v>
       </c>
       <c r="Z239" s="145">
-        <v>7.2047700668794581E-2</v>
+        <v>9.7701205553269277E-2</v>
       </c>
       <c r="AA239" s="145">
-        <v>6.2792513288999402E-2</v>
+        <v>8.5150590388127181E-2</v>
       </c>
       <c r="AB239" s="146">
         <f>(AA239-AA241)/AA241*100</f>
-        <v>9.2636832453537732</v>
+        <v>6.669091226676974</v>
       </c>
       <c r="AD239" s="142">
         <f>AD240-1</f>
@@ -13506,14 +13526,14 @@
         <v>4.2</v>
       </c>
       <c r="AG239" s="145">
-        <v>6.4785367378191863E-2</v>
+        <v>9.0438872262666586E-2</v>
       </c>
       <c r="AH239" s="145">
-        <v>5.6463093259959865E-2</v>
+        <v>7.8821170359087658E-2</v>
       </c>
       <c r="AI239" s="146">
         <f>(AH239-AH241)/AH241*100</f>
-        <v>-1.7499823806235011</v>
+        <v>-1.2598436099711128</v>
       </c>
       <c r="AK239" s="142">
         <f>AK240-1</f>
@@ -13528,14 +13548,14 @@
         <v>12.2</v>
       </c>
       <c r="AN239" s="145">
-        <v>6.5459347261172113E-2</v>
+        <v>9.1453764768906209E-2</v>
       </c>
       <c r="AO239" s="145">
-        <v>5.6302286153879701E-2</v>
+        <v>7.8660363253007501E-2</v>
       </c>
       <c r="AP239" s="146">
         <f>(AO239-AO241)/AO241*100</f>
-        <v>-2.0297988074876128</v>
+        <v>-1.461288459503876</v>
       </c>
       <c r="AR239" s="142">
         <f>AR240-1</f>
@@ -13550,14 +13570,14 @@
         <v>19.399999999999999</v>
       </c>
       <c r="AU239" s="145">
-        <v>7.1230154944883051E-2</v>
+        <v>0.10164410403472419</v>
       </c>
       <c r="AV239" s="145">
-        <v>6.2079988805129049E-2</v>
+        <v>8.858698742780631E-2</v>
       </c>
       <c r="AW239" s="146">
         <f>(AV239-AV241)/AV241*100</f>
-        <v>8.023837196321546</v>
+        <v>10.973904001853292</v>
       </c>
       <c r="AY239" s="142">
         <f>AY240-1</f>
@@ -13572,14 +13592,14 @@
         <v>76</v>
       </c>
       <c r="BB239" s="145">
-        <v>6.9906575130173385E-2</v>
+        <v>9.5560080014648094E-2</v>
       </c>
       <c r="BC239" s="145">
-        <v>6.0926434946605906E-2</v>
+        <v>8.3284512045733672E-2</v>
       </c>
       <c r="BD239" s="146">
         <f>(BC239-BC241)/BC241*100</f>
-        <v>6.0165669533862394</v>
+        <v>4.3314341413462536</v>
       </c>
     </row>
     <row r="240" spans="1:56">
@@ -13595,14 +13615,14 @@
         <v>787500</v>
       </c>
       <c r="E240" s="145">
-        <v>6.349469917033046E-2</v>
+        <v>8.9148204054805169E-2</v>
       </c>
       <c r="F240" s="145">
-        <v>5.5338223210790786E-2</v>
+        <v>7.7696300309918559E-2</v>
       </c>
       <c r="G240" s="146">
         <f>(F240-F241)/F241*100</f>
-        <v>-3.7073406436845819</v>
+        <v>-2.6689808261201824</v>
       </c>
       <c r="I240" s="142">
         <v>-1</v>
@@ -13616,14 +13636,14 @@
         <v>19.844999999999999</v>
       </c>
       <c r="L240" s="145">
-        <v>6.337394290605583E-2</v>
+        <v>8.6462097302083082E-2</v>
       </c>
       <c r="M240" s="145">
-        <v>5.5232979195245425E-2</v>
+        <v>7.5355248584460424E-2</v>
       </c>
       <c r="N240" s="146">
         <f>(M240-M241)/M241*100</f>
-        <v>-3.890473125181098</v>
+        <v>-5.6016423488532325</v>
       </c>
       <c r="P240" s="142">
         <v>-1</v>
@@ -13637,14 +13657,14 @@
         <v>9.0000000000000011E-3</v>
       </c>
       <c r="S240" s="145">
-        <v>6.7651856972131247E-2</v>
+        <v>9.3305361856605956E-2</v>
       </c>
       <c r="T240" s="145">
-        <v>5.8961355997693241E-2</v>
+        <v>8.131943309682102E-2</v>
       </c>
       <c r="U240" s="146">
         <f>(T240-T241)/T241*100</f>
-        <v>2.5971821799514503</v>
+        <v>1.8697578956062924</v>
       </c>
       <c r="W240" s="142">
         <v>-1</v>
@@ -13658,14 +13678,14 @@
         <v>81</v>
       </c>
       <c r="Z240" s="145">
-        <v>6.8993497031648934E-2</v>
+        <v>9.4647001916123658E-2</v>
       </c>
       <c r="AA240" s="145">
-        <v>6.0130650097078804E-2</v>
+        <v>8.248872719620659E-2</v>
       </c>
       <c r="AB240" s="146">
         <f>(AA240-AA241)/AA241*100</f>
-        <v>4.6318416226768928</v>
+        <v>3.3345456133384959</v>
       </c>
       <c r="AD240" s="142">
         <v>-1</v>
@@ -13679,14 +13699,14 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="AG240" s="145">
-        <v>6.5355646783876009E-2</v>
+        <v>9.1009151668350718E-2</v>
       </c>
       <c r="AH240" s="145">
-        <v>5.6960115050071966E-2</v>
+        <v>7.9318192149199745E-2</v>
       </c>
       <c r="AI240" s="146">
         <f>(AH240-AH241)/AH241*100</f>
-        <v>-0.885127183780134</v>
+        <v>-0.63721888794094306</v>
       </c>
       <c r="AK240" s="142">
         <v>-1</v>
@@ -13700,14 +13720,14 @@
         <v>13.6</v>
       </c>
       <c r="AN240" s="145">
-        <v>6.568068574858868E-2</v>
+        <v>9.1498813893170647E-2</v>
       </c>
       <c r="AO240" s="145">
-        <v>5.6878400620948788E-2</v>
+        <v>7.923647772007654E-2</v>
       </c>
       <c r="AP240" s="146">
         <f>(AO240-AO241)/AO241*100</f>
-        <v>-1.0273164199267624</v>
+        <v>-0.73958346175010392</v>
       </c>
       <c r="AR240" s="142">
         <v>-1</v>
@@ -13721,14 +13741,14 @@
         <v>21.2</v>
       </c>
       <c r="AU240" s="145">
-        <v>6.8360112122743094E-2</v>
+        <v>9.6191744780427899E-2</v>
       </c>
       <c r="AV240" s="145">
-        <v>5.9578629283918452E-2</v>
+        <v>8.3835033683915539E-2</v>
       </c>
       <c r="AW240" s="146">
         <f>(AV240-AV241)/AV241*100</f>
-        <v>3.6712840002037366</v>
+        <v>5.021078717829063</v>
       </c>
       <c r="AY240" s="142">
         <v>-1</v>
@@ -13742,14 +13762,14 @@
         <v>80.5</v>
       </c>
       <c r="BB240" s="145">
-        <v>6.7812047505751288E-2</v>
+        <v>9.3465552390226012E-2</v>
       </c>
       <c r="BC240" s="145">
-        <v>5.9100968589319847E-2</v>
+        <v>8.145904568844764E-2</v>
       </c>
       <c r="BD240" s="146">
         <f>(BC240-BC241)/BC241*100</f>
-        <v>2.8401185618469151</v>
+        <v>2.0446521412566336</v>
       </c>
     </row>
     <row r="241" spans="2:56">
@@ -13764,10 +13784,10 @@
         <v>875000</v>
       </c>
       <c r="E241" s="145">
-        <v>6.5939293394503301E-2</v>
+        <v>9.1592798278978024E-2</v>
       </c>
       <c r="F241" s="145">
-        <v>5.7468786905158199E-2</v>
+        <v>7.9826864004285986E-2</v>
       </c>
       <c r="G241" s="146">
         <f>(F241-F241)/F241*100</f>
@@ -13784,10 +13804,10 @@
         <v>22.05</v>
       </c>
       <c r="L241" s="145">
-        <v>6.5939293394503301E-2</v>
+        <v>9.1592798278978024E-2</v>
       </c>
       <c r="M241" s="145">
-        <v>5.7468786905158199E-2</v>
+        <v>7.9826864004285986E-2</v>
       </c>
       <c r="N241" s="146">
         <f>(M241-M241)/M241*100</f>
@@ -13804,10 +13824,10 @@
         <v>0.01</v>
       </c>
       <c r="S241" s="145">
-        <v>6.5939293394503301E-2</v>
+        <v>9.1592798278978024E-2</v>
       </c>
       <c r="T241" s="145">
-        <v>5.7468786905158199E-2</v>
+        <v>7.9826864004285986E-2</v>
       </c>
       <c r="U241" s="146">
         <f>(T241-T241)/T241*100</f>
@@ -13824,10 +13844,10 @@
         <v>90</v>
       </c>
       <c r="Z241" s="145">
-        <v>6.5939293394503301E-2</v>
+        <v>9.1592798278978024E-2</v>
       </c>
       <c r="AA241" s="145">
-        <v>5.7468786905158199E-2</v>
+        <v>7.9826864004285986E-2</v>
       </c>
       <c r="AB241" s="146">
         <f>(AA241-AA241)/AA241*100</f>
@@ -13844,10 +13864,10 @@
         <v>5</v>
       </c>
       <c r="AG241" s="145">
-        <v>6.5939293394503301E-2</v>
+        <v>9.1592798278978024E-2</v>
       </c>
       <c r="AH241" s="145">
-        <v>5.7468786905158199E-2</v>
+        <v>7.9826864004285986E-2</v>
       </c>
       <c r="AI241" s="146">
         <f>(AH241-AH241)/AH241*100</f>
@@ -13864,10 +13884,10 @@
         <v>15</v>
       </c>
       <c r="AN241" s="145">
-        <v>6.5939293394503301E-2</v>
+        <v>9.1592798278978024E-2</v>
       </c>
       <c r="AO241" s="145">
-        <v>5.7468786905158199E-2</v>
+        <v>7.9826864004285986E-2</v>
       </c>
       <c r="AP241" s="146">
         <f>(AO241-AO241)/AO241*100</f>
@@ -13884,10 +13904,10 @@
         <v>23</v>
       </c>
       <c r="AU241" s="145">
-        <v>6.5939293394503301E-2</v>
+        <v>9.1592798278978024E-2</v>
       </c>
       <c r="AV241" s="145">
-        <v>5.7468786905158199E-2</v>
+        <v>7.9826864004285986E-2</v>
       </c>
       <c r="AW241" s="146">
         <f>(AV241-AV241)/AV241*100</f>
@@ -13904,10 +13924,10 @@
         <v>85</v>
       </c>
       <c r="BB241" s="145">
-        <v>6.5939293394503301E-2</v>
+        <v>9.1592798278978024E-2</v>
       </c>
       <c r="BC241" s="145">
-        <v>5.7468786905158199E-2</v>
+        <v>7.9826864004285986E-2</v>
       </c>
       <c r="BD241" s="146">
         <f>(BC241-BC241)/BC241*100</f>
@@ -13927,14 +13947,14 @@
         <v>987500</v>
       </c>
       <c r="E242" s="145">
-        <v>6.9082343111297018E-2</v>
+        <v>9.4735847995771685E-2</v>
       </c>
       <c r="F242" s="145">
-        <v>6.020808308363064E-2</v>
+        <v>8.2566160182758377E-2</v>
       </c>
       <c r="G242" s="146">
         <f>(F242-F241)/F241*100</f>
-        <v>4.766580827594554</v>
+        <v>3.431546776440217</v>
       </c>
       <c r="I242" s="142">
         <v>1</v>
@@ -13948,14 +13968,14 @@
         <v>29.844999999999999</v>
       </c>
       <c r="L242" s="145">
-        <v>7.5008185484048917E-2</v>
+        <v>0.10973058245806923</v>
       </c>
       <c r="M242" s="145">
-        <v>6.5372696700518818E-2</v>
+        <v>9.5634683595007181E-2</v>
       </c>
       <c r="N242" s="146">
         <f>(M242-M241)/M241*100</f>
-        <v>13.75339592325933</v>
+        <v>19.802631342091125</v>
       </c>
       <c r="P242" s="142">
         <v>1</v>
@@ -13969,14 +13989,14 @@
         <v>1.4E-2</v>
       </c>
       <c r="S242" s="145">
-        <v>5.9089039083991643E-2</v>
+        <v>8.4742543968466325E-2</v>
       </c>
       <c r="T242" s="145">
-        <v>5.1498510535018131E-2</v>
+        <v>7.385658763414589E-2</v>
       </c>
       <c r="U242" s="146">
         <f>(T242-T241)/T241*100</f>
-        <v>-10.388728719805632</v>
+        <v>-7.4790315824251161</v>
       </c>
       <c r="W242" s="142">
         <v>1</v>
@@ -13990,14 +14010,14 @@
         <v>91</v>
       </c>
       <c r="Z242" s="145">
-        <v>6.5599937434820468E-2</v>
+        <v>9.1253442319295178E-2</v>
       </c>
       <c r="AA242" s="145">
-        <v>5.7173024328278144E-2</v>
+        <v>7.9531101427405923E-2</v>
       </c>
       <c r="AB242" s="146">
         <f>(AA242-AA241)/AA241*100</f>
-        <v>-0.51464906918630127</v>
+        <v>-0.37050506814871592</v>
       </c>
       <c r="AD242" s="142">
         <v>1</v>
@@ -14011,14 +14031,14 @@
         <v>6</v>
       </c>
       <c r="AG242" s="145">
-        <v>6.7455491849385069E-2</v>
+        <v>9.3108996733859792E-2</v>
       </c>
       <c r="AH242" s="145">
-        <v>5.8790215774409522E-2</v>
+        <v>8.1148292873537323E-2</v>
       </c>
       <c r="AI242" s="146">
         <f>(AH242-AH241)/AH241*100</f>
-        <v>2.2993853540568061</v>
+        <v>1.6553686352759494</v>
       </c>
       <c r="AK242" s="142">
         <v>1</v>
@@ -14032,14 +14052,14 @@
         <v>18.5</v>
       </c>
       <c r="AN242" s="145">
-        <v>6.6735259693327151E-2</v>
+        <v>9.2025277400621094E-2</v>
       </c>
       <c r="AO242" s="145">
-        <v>5.8998459341663194E-2</v>
+        <v>8.1356536440790994E-2</v>
       </c>
       <c r="AP242" s="146">
         <f>(AO242-AO241)/AO241*100</f>
-        <v>2.6617447816141331</v>
+        <v>1.9162376670877099</v>
       </c>
       <c r="AR242" s="142">
         <v>1</v>
@@ -14053,14 +14073,14 @@
         <v>25.7</v>
       </c>
       <c r="AU242" s="145">
-        <v>6.294388345061129E-2</v>
+        <v>8.5902273035938878E-2</v>
       </c>
       <c r="AV242" s="145">
-        <v>5.4858164817820639E-2</v>
+        <v>7.4867338875405837E-2</v>
       </c>
       <c r="AW242" s="146">
         <f>(AV242-AV241)/AV241*100</f>
-        <v>-4.5426782570613824</v>
+        <v>-6.2128522656406329</v>
       </c>
       <c r="AY242" s="142">
         <v>1</v>
@@ -14074,14 +14094,14 @@
         <v>86.5</v>
       </c>
       <c r="BB242" s="145">
-        <v>6.5358342697179772E-2</v>
+        <v>9.1011847581654468E-2</v>
       </c>
       <c r="BC242" s="145">
-        <v>5.6962464648607117E-2</v>
+        <v>7.9320541747734868E-2</v>
       </c>
       <c r="BD242" s="146">
         <f>(BC242-BC241)/BC241*100</f>
-        <v>-0.88103870608348744</v>
+        <v>-0.63427551973472518</v>
       </c>
     </row>
     <row r="243" spans="2:56">
@@ -14098,14 +14118,14 @@
         <v>1100000</v>
       </c>
       <c r="E243" s="145">
-        <v>7.2225392828090679E-2</v>
+        <v>9.7878897712565402E-2</v>
       </c>
       <c r="F243" s="145">
-        <v>6.2947379262103031E-2</v>
+        <v>8.5305456361230825E-2</v>
       </c>
       <c r="G243" s="146">
         <f>(F243-F241)/F241*100</f>
-        <v>9.5331616551890228</v>
+        <v>6.8630935528805042</v>
       </c>
       <c r="I243" s="142">
         <f>I242+1</f>
@@ -14120,14 +14140,14 @@
         <v>37.64</v>
       </c>
       <c r="L243" s="145">
-        <v>8.4077077573594478E-2</v>
+        <v>0.12786836663716036</v>
       </c>
       <c r="M243" s="145">
-        <v>7.3276606495879387E-2</v>
+        <v>0.11144250318572832</v>
       </c>
       <c r="N243" s="146">
         <f>(M243-M241)/M241*100</f>
-        <v>27.506791846518571</v>
+        <v>39.605262684182179</v>
       </c>
       <c r="P243" s="142">
         <f>P242+1</f>
@@ -14142,14 +14162,14 @@
         <v>1.8000000000000002E-2</v>
       </c>
       <c r="S243" s="145">
-        <v>5.2238784773479922E-2</v>
+        <v>7.7892289657954611E-2</v>
       </c>
       <c r="T243" s="145">
-        <v>4.5528234164878008E-2</v>
+        <v>6.788631126400578E-2</v>
       </c>
       <c r="U243" s="146">
         <f>(T243-T241)/T241*100</f>
-        <v>-20.777457439611361</v>
+        <v>-14.95806316485025</v>
       </c>
       <c r="W243" s="142">
         <f>W242+1</f>
@@ -14164,14 +14184,14 @@
         <v>92</v>
       </c>
       <c r="Z243" s="145">
-        <v>6.5260581475137622E-2</v>
+        <v>9.0914086359612331E-2</v>
       </c>
       <c r="AA243" s="145">
-        <v>5.6877261751398088E-2</v>
+        <v>7.9235338850525847E-2</v>
       </c>
       <c r="AB243" s="146">
         <f>(AA243-AA241)/AA241*100</f>
-        <v>-1.0292981383726025</v>
+        <v>-0.74101013629744916</v>
       </c>
       <c r="AD243" s="142">
         <f>AD242+1</f>
@@ -14186,14 +14206,14 @@
         <v>7</v>
       </c>
       <c r="AG243" s="145">
-        <v>6.9050365408048153E-2</v>
+        <v>9.4703870292522849E-2</v>
       </c>
       <c r="AH243" s="145">
-        <v>6.0180213209400563E-2</v>
+        <v>8.2538290308528342E-2</v>
       </c>
       <c r="AI243" s="146">
         <f>(AH243-AH241)/AH241*100</f>
-        <v>4.7180851558900665</v>
+        <v>3.396633875153579</v>
       </c>
       <c r="AK243" s="142">
         <f>AK242+1</f>
@@ -14208,14 +14228,14 @@
         <v>22</v>
       </c>
       <c r="AN243" s="145">
-        <v>6.7716508154240532E-2</v>
+        <v>9.270464382279979E-2</v>
       </c>
       <c r="AO243" s="145">
-        <v>6.0589190417322407E-2</v>
+        <v>8.2947267516450152E-2</v>
       </c>
       <c r="AP243" s="146">
         <f>(AO243-AO241)/AO241*100</f>
-        <v>5.429736175419654</v>
+        <v>3.9089641702530473</v>
       </c>
       <c r="AR243" s="142">
         <f>AR242+1</f>
@@ -14230,14 +14250,14 @@
         <v>28.4</v>
       </c>
       <c r="AU243" s="145">
-        <v>6.0518023284783271E-2</v>
+        <v>8.1293749071505758E-2</v>
       </c>
       <c r="AV243" s="145">
-        <v>5.2743928620328971E-2</v>
+        <v>7.0850822045678941E-2</v>
       </c>
       <c r="AW243" s="146">
         <f>(AV243-AV241)/AV241*100</f>
-        <v>-8.2216078314420482</v>
+        <v>-11.244387551194686</v>
       </c>
       <c r="AY243" s="142">
         <f>AY242+1</f>
@@ -14252,14 +14272,14 @@
         <v>88</v>
       </c>
       <c r="BB243" s="145">
-        <v>6.4797197137264992E-2</v>
+        <v>9.0450702021739687E-2</v>
       </c>
       <c r="BC243" s="145">
-        <v>5.6473403378074806E-2</v>
+        <v>7.8831480477202565E-2</v>
       </c>
       <c r="BD243" s="146">
         <f>(BC243-BC241)/BC241*100</f>
-        <v>-1.7320420017323372</v>
+        <v>-1.2469280103875531</v>
       </c>
     </row>
     <row r="244" spans="2:56">
@@ -14276,14 +14296,14 @@
         <v>1212500</v>
       </c>
       <c r="E244" s="145">
-        <v>7.5368442544884368E-2</v>
+        <v>0.10102194742935906</v>
       </c>
       <c r="F244" s="145">
-        <v>6.5686675440575437E-2</v>
+        <v>8.8044752539703203E-2</v>
       </c>
       <c r="G244" s="146">
         <f>(F244-F241)/F241*100</f>
-        <v>14.299742482783518</v>
+        <v>10.294640329320703</v>
       </c>
       <c r="I244" s="142">
         <f t="shared" ref="I244:I251" si="47">I243+1</f>
@@ -14298,14 +14318,14 @@
         <v>45.435000000000002</v>
       </c>
       <c r="L244" s="145">
-        <v>9.3145969663140094E-2</v>
+        <v>0.14600615081625157</v>
       </c>
       <c r="M244" s="145">
-        <v>8.1180516291239985E-2</v>
+        <v>0.12725032277644954</v>
       </c>
       <c r="N244" s="146">
         <f>(M244-M241)/M241*100</f>
-        <v>41.260187769777865</v>
+        <v>59.407894026273347</v>
       </c>
       <c r="P244" s="142">
         <f t="shared" ref="P244:P251" si="48">P243+1</f>
@@ -14320,14 +14340,14 @@
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="S244" s="145">
-        <v>4.5388530462968216E-2</v>
+        <v>7.1042035347442897E-2</v>
       </c>
       <c r="T244" s="145">
-        <v>3.9557957794737905E-2</v>
+        <v>6.1916034893865671E-2</v>
       </c>
       <c r="U244" s="146">
         <f>(T244-T241)/T241*100</f>
-        <v>-31.166186159417052</v>
+        <v>-22.437094747275381</v>
       </c>
       <c r="W244" s="142">
         <f t="shared" ref="W244:W251" si="49">W243+1</f>
@@ -14342,14 +14362,14 @@
         <v>93</v>
       </c>
       <c r="Z244" s="145">
-        <v>6.4921225515454789E-2</v>
+        <v>9.0574730399929484E-2</v>
       </c>
       <c r="AA244" s="145">
-        <v>5.6581499174518025E-2</v>
+        <v>7.8939576273645784E-2</v>
       </c>
       <c r="AB244" s="146">
         <f>(AA244-AA241)/AA241*100</f>
-        <v>-1.5439472075589158</v>
+        <v>-1.1115152044461651</v>
       </c>
       <c r="AD244" s="142">
         <f t="shared" ref="AD244:AD251" si="50">AD243+1</f>
@@ -14364,14 +14384,14 @@
         <v>8</v>
       </c>
       <c r="AG244" s="145">
-        <v>7.0720073321536014E-2</v>
+        <v>9.6373578206010696E-2</v>
       </c>
       <c r="AH244" s="145">
-        <v>6.1635431840573941E-2</v>
+        <v>8.39935089397017E-2</v>
       </c>
       <c r="AI244" s="146">
         <f>(AH244-AH241)/AH241*100</f>
-        <v>7.2502747313807641</v>
+        <v>5.2196024325745816</v>
       </c>
       <c r="AK244" s="142">
         <f t="shared" ref="AK244:AK251" si="51">AK243+1</f>
@@ -14386,14 +14406,14 @@
         <v>25.5</v>
       </c>
       <c r="AN244" s="145">
-        <v>6.8848090033849216E-2</v>
+        <v>9.3586385090907803E-2</v>
       </c>
       <c r="AO244" s="145">
-        <v>6.2223807321971483E-2</v>
+        <v>8.4581884421099263E-2</v>
       </c>
       <c r="AP244" s="146">
         <f>(AO244-AO241)/AO241*100</f>
-        <v>8.2740922035827591</v>
+        <v>5.9566669392874747</v>
       </c>
       <c r="AR244" s="142">
         <f t="shared" ref="AR244:AR251" si="52">AR243+1</f>
@@ -14408,14 +14428,14 @@
         <v>31.1</v>
       </c>
       <c r="AU244" s="145">
-        <v>5.851337356575495E-2</v>
+        <v>7.7485418978710502E-2</v>
       </c>
       <c r="AV244" s="145">
-        <v>5.099679452786799E-2</v>
+        <v>6.7531706851981774E-2</v>
       </c>
       <c r="AW244" s="146">
         <f>(AV244-AV241)/AV241*100</f>
-        <v>-11.261752206412599</v>
+        <v>-15.402280054048061</v>
       </c>
       <c r="AY244" s="142">
         <f t="shared" ref="AY244:AY251" si="53">AY243+1</f>
@@ -14430,14 +14450,14 @@
         <v>89.5</v>
       </c>
       <c r="BB244" s="145">
-        <v>6.4254860925727228E-2</v>
+        <v>8.990836581020191E-2</v>
       </c>
       <c r="BC244" s="145">
-        <v>5.6000735222755865E-2</v>
+        <v>7.8358812321883631E-2</v>
       </c>
       <c r="BD244" s="146">
         <f>(BC244-BC241)/BC241*100</f>
-        <v>-2.5545200472477116</v>
+        <v>-1.8390446633648714</v>
       </c>
     </row>
     <row r="245" spans="2:56">
@@ -14454,14 +14474,14 @@
         <v>1325000</v>
       </c>
       <c r="E245" s="145">
-        <v>7.8511492261678015E-2</v>
+        <v>0.10416499714615271</v>
       </c>
       <c r="F245" s="145">
-        <v>6.8425971619047829E-2</v>
+        <v>9.0784048718175595E-2</v>
       </c>
       <c r="G245" s="146">
         <f>(F245-F241)/F241*100</f>
-        <v>19.066323310377985</v>
+        <v>13.726187105760919</v>
       </c>
       <c r="I245" s="142">
         <f t="shared" si="47"/>
@@ -14476,14 +14496,14 @@
         <v>53.230000000000004</v>
       </c>
       <c r="L245" s="145">
-        <v>0.1022148617526857</v>
+        <v>0.16414393499534274</v>
       </c>
       <c r="M245" s="145">
-        <v>8.9084426086600568E-2</v>
+        <v>0.14305814236717068</v>
       </c>
       <c r="N245" s="146">
         <f>(M245-M241)/M241*100</f>
-        <v>55.013583693037127</v>
+        <v>79.210525368364387</v>
       </c>
       <c r="P245" s="142">
         <f t="shared" si="48"/>
@@ -14498,14 +14518,14 @@
         <v>2.6000000000000002E-2</v>
       </c>
       <c r="S245" s="145">
-        <v>3.8538276152456502E-2</v>
+        <v>6.4191781036931211E-2</v>
       </c>
       <c r="T245" s="145">
-        <v>3.3587681424597796E-2</v>
+        <v>5.5945758523725568E-2</v>
       </c>
       <c r="U245" s="146">
         <f>(T245-T241)/T241*100</f>
-        <v>-41.554914879222757</v>
+        <v>-29.916126329700511</v>
       </c>
       <c r="W245" s="142">
         <f t="shared" si="49"/>
@@ -14520,14 +14540,14 @@
         <v>94</v>
       </c>
       <c r="Z245" s="145">
-        <v>6.4581869555771942E-2</v>
+        <v>9.0235374440246652E-2</v>
       </c>
       <c r="AA245" s="145">
-        <v>5.6285736597637956E-2</v>
+        <v>7.8643813696765735E-2</v>
       </c>
       <c r="AB245" s="146">
         <f>(AA245-AA241)/AA241*100</f>
-        <v>-2.058596276745241</v>
+        <v>-1.4820202725948637</v>
       </c>
       <c r="AD245" s="142">
         <f t="shared" si="50"/>
@@ -14542,14 +14562,14 @@
         <v>9</v>
       </c>
       <c r="AG245" s="145">
-        <v>7.2460554297331073E-2</v>
+        <v>9.811405918180581E-2</v>
       </c>
       <c r="AH245" s="145">
-        <v>6.315233208565281E-2</v>
+        <v>8.5510409184780589E-2</v>
       </c>
       <c r="AI245" s="146">
         <f>(AH245-AH241)/AH241*100</f>
-        <v>9.8897949418599538</v>
+        <v>7.1198402334700859</v>
       </c>
       <c r="AK245" s="142">
         <f t="shared" si="51"/>
@@ -14564,14 +14584,14 @@
         <v>29</v>
       </c>
       <c r="AN245" s="145">
-        <v>7.0098486489626521E-2</v>
+        <v>9.4629803225829159E-2</v>
       </c>
       <c r="AO245" s="145">
-        <v>6.3888432175118692E-2</v>
+        <v>8.6246509274246458E-2</v>
       </c>
       <c r="AP245" s="146">
         <f>(AO245-AO241)/AO241*100</f>
-        <v>11.170664313055628</v>
+        <v>8.0419609990138099</v>
       </c>
       <c r="AR245" s="142">
         <f t="shared" si="52"/>
@@ -14586,14 +14606,14 @@
         <v>33.799999999999997</v>
       </c>
       <c r="AU245" s="145">
-        <v>5.6828993328464882E-2</v>
+        <v>7.428552032085893E-2</v>
       </c>
       <c r="AV245" s="145">
-        <v>4.9528788367338643E-2</v>
+        <v>6.4742864499881217E-2</v>
       </c>
       <c r="AW245" s="146">
         <f>(AV245-AV241)/AV241*100</f>
-        <v>-13.816193042186677</v>
+        <v>-18.895893873013591</v>
       </c>
       <c r="AY245" s="142">
         <f t="shared" si="53"/>
@@ -14608,14 +14628,14 @@
         <v>91</v>
       </c>
       <c r="BB245" s="145">
-        <v>6.3730403929954438E-2</v>
+        <v>8.9383908814429175E-2</v>
       </c>
       <c r="BC245" s="145">
-        <v>5.5543649534095775E-2</v>
+        <v>7.7901726633223575E-2</v>
       </c>
       <c r="BD245" s="146">
         <f>(BC245-BC241)/BC241*100</f>
-        <v>-3.3498834319219477</v>
+        <v>-2.4116409871231417</v>
       </c>
     </row>
     <row r="246" spans="2:56">
@@ -14632,14 +14652,14 @@
         <v>1437500</v>
       </c>
       <c r="E246" s="145">
-        <v>8.1654541978471717E-2</v>
+        <v>0.10730804686294641</v>
       </c>
       <c r="F246" s="145">
-        <v>7.1165267797520249E-2</v>
+        <v>9.3523344896648042E-2</v>
       </c>
       <c r="G246" s="146">
         <f>(F246-F241)/F241*100</f>
-        <v>23.832904137972506</v>
+        <v>17.157733882201207</v>
       </c>
       <c r="I246" s="142">
         <f t="shared" si="47"/>
@@ -14654,14 +14674,14 @@
         <v>61.025000000000006</v>
       </c>
       <c r="L246" s="145">
-        <v>0.1112837538422313</v>
+        <v>0.18228171917443398</v>
       </c>
       <c r="M246" s="145">
-        <v>9.698833588196118E-2</v>
+        <v>0.1588659619578919</v>
       </c>
       <c r="N246" s="146">
         <f>(M246-M241)/M241*100</f>
-        <v>68.766979616296439</v>
+        <v>99.013156710455547</v>
       </c>
       <c r="P246" s="142">
         <f t="shared" si="48"/>
@@ -14676,14 +14696,14 @@
         <v>0.03</v>
       </c>
       <c r="S246" s="145">
-        <v>3.1688021841944823E-2</v>
+        <v>5.7341526726419519E-2</v>
       </c>
       <c r="T246" s="145">
-        <v>2.7617405054457717E-2</v>
+        <v>4.9975482153585486E-2</v>
       </c>
       <c r="U246" s="146">
         <f>(T246-T241)/T241*100</f>
-        <v>-51.943643599028412</v>
+        <v>-37.395157912125612</v>
       </c>
       <c r="W246" s="142">
         <f t="shared" si="49"/>
@@ -14698,14 +14718,14 @@
         <v>95</v>
       </c>
       <c r="Z246" s="145">
-        <v>6.4242513596089096E-2</v>
+        <v>8.9896018480563805E-2</v>
       </c>
       <c r="AA246" s="145">
-        <v>5.5989974020757886E-2</v>
+        <v>7.8348051119885673E-2</v>
       </c>
       <c r="AB246" s="146">
         <f>(AA246-AA241)/AA241*100</f>
-        <v>-2.5732453459315665</v>
+        <v>-1.8525253407435796</v>
       </c>
       <c r="AD246" s="142">
         <f t="shared" si="50"/>
@@ -14720,14 +14740,14 @@
         <v>10</v>
       </c>
       <c r="AG246" s="145">
-        <v>7.4267608740443233E-2</v>
+        <v>9.9921113624917957E-2</v>
       </c>
       <c r="AH246" s="145">
-        <v>6.4727253826107611E-2</v>
+        <v>8.7085330925235405E-2</v>
       </c>
       <c r="AI246" s="146">
         <f>(AH246-AH241)/AH241*100</f>
-        <v>12.630276906537446</v>
+        <v>9.0927622066673006</v>
       </c>
       <c r="AK246" s="142">
         <f t="shared" si="51"/>
@@ -14742,14 +14762,14 @@
         <v>32.5</v>
       </c>
       <c r="AN246" s="145">
-        <v>7.1441082029881336E-2</v>
+        <v>9.580020930200113E-2</v>
       </c>
       <c r="AO246" s="145">
-        <v>6.5572350036422422E-2</v>
+        <v>8.7930427135550229E-2</v>
       </c>
       <c r="AP246" s="146">
         <f>(AO246-AO241)/AO241*100</f>
-        <v>14.100807703906614</v>
+        <v>10.151423624544684</v>
       </c>
       <c r="AR246" s="142">
         <f t="shared" si="52"/>
@@ -14764,14 +14784,14 @@
         <v>36.5</v>
       </c>
       <c r="AU246" s="145">
-        <v>5.5393809071486222E-2</v>
+        <v>7.1559031327456585E-2</v>
       </c>
       <c r="AV246" s="145">
-        <v>4.827796667987392E-2</v>
+        <v>6.2366618002611972E-2</v>
       </c>
       <c r="AW246" s="146">
         <f>(AV246-AV241)/AV241*100</f>
-        <v>-15.992716603627045</v>
+        <v>-21.872644277666421</v>
       </c>
       <c r="AY246" s="142">
         <f t="shared" si="53"/>
@@ -14786,14 +14806,14 @@
         <v>92.5</v>
       </c>
       <c r="BB246" s="145">
-        <v>6.3222956350260762E-2</v>
+        <v>8.8876461234735457E-2</v>
       </c>
       <c r="BC246" s="145">
-        <v>5.5101388246148998E-2</v>
+        <v>7.7459465345276757E-2</v>
       </c>
       <c r="BD246" s="146">
         <f>(BC246-BC241)/BC241*100</f>
-        <v>-4.1194512473634823</v>
+        <v>-2.9656666193001406</v>
       </c>
     </row>
     <row r="247" spans="2:56">
@@ -14810,14 +14830,14 @@
         <v>1550000</v>
       </c>
       <c r="E247" s="145">
-        <v>8.4797591695265406E-2</v>
+        <v>0.11045109657974012</v>
       </c>
       <c r="F247" s="145">
-        <v>7.3904563975992654E-2</v>
+        <v>9.6262641075120448E-2</v>
       </c>
       <c r="G247" s="146">
         <f>(F247-F241)/F241*100</f>
-        <v>28.599484965566997</v>
+        <v>20.589280658641442</v>
       </c>
       <c r="I247" s="142">
         <f t="shared" si="47"/>
@@ -14832,14 +14852,14 @@
         <v>68.820000000000007</v>
       </c>
       <c r="L247" s="145">
-        <v>0.12035264593177691</v>
+        <v>0.2004195033535251</v>
       </c>
       <c r="M247" s="145">
-        <v>0.10489224567732178</v>
+        <v>0.17467378154861302</v>
       </c>
       <c r="N247" s="146">
         <f>(M247-M241)/M241*100</f>
-        <v>82.520375539555729</v>
+        <v>118.81578805254658</v>
       </c>
       <c r="P247" s="142">
         <f t="shared" si="48"/>
@@ -14854,14 +14874,14 @@
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="S247" s="145">
-        <v>2.4837767531433113E-2</v>
+        <v>5.0491272415907805E-2</v>
       </c>
       <c r="T247" s="145">
-        <v>2.1647128684317601E-2</v>
+        <v>4.400520578344537E-2</v>
       </c>
       <c r="U247" s="146">
         <f>(T247-T241)/T241*100</f>
-        <v>-62.332372318834132</v>
+        <v>-44.874189494550748</v>
       </c>
       <c r="W247" s="142">
         <f t="shared" si="49"/>
@@ -14876,14 +14896,14 @@
         <v>96</v>
       </c>
       <c r="Z247" s="145">
-        <v>6.3903157636406235E-2</v>
+        <v>8.9556662520880945E-2</v>
       </c>
       <c r="AA247" s="145">
-        <v>5.569421144387781E-2</v>
+        <v>7.805228854300561E-2</v>
       </c>
       <c r="AB247" s="146">
         <f>(AA247-AA241)/AA241*100</f>
-        <v>-3.087894415117904</v>
+        <v>-2.2230304088922956</v>
       </c>
       <c r="AD247" s="142">
         <f t="shared" si="50"/>
@@ -14898,14 +14918,14 @@
         <v>11</v>
       </c>
       <c r="AG247" s="145">
-        <v>7.6136973777146857E-2</v>
+        <v>0.10179047866162159</v>
       </c>
       <c r="AH247" s="145">
-        <v>6.6356481793406849E-2</v>
+        <v>8.8714558892534642E-2</v>
       </c>
       <c r="AI247" s="146">
         <f>(AH247-AH241)/AH241*100</f>
-        <v>15.465255779482828</v>
+        <v>11.133714193972931</v>
       </c>
       <c r="AK247" s="142">
         <f t="shared" si="51"/>
@@ -14920,14 +14940,14 @@
         <v>36</v>
       </c>
       <c r="AN247" s="145">
-        <v>7.2854284392198931E-2</v>
+        <v>9.7069261004116544E-2</v>
       </c>
       <c r="AO247" s="145">
-        <v>6.7267531724184843E-2</v>
+        <v>8.9625608823312594E-2</v>
       </c>
       <c r="AP247" s="146">
         <f>(AO247-AO241)/AO241*100</f>
-        <v>17.0505509977054</v>
+        <v>12.274996570703948</v>
       </c>
       <c r="AR247" s="142">
         <f t="shared" si="52"/>
@@ -14942,14 +14962,14 @@
         <v>39.200000000000003</v>
       </c>
       <c r="AU247" s="145">
-        <v>5.4156328768275037E-2</v>
+        <v>6.9208130103553575E-2</v>
       </c>
       <c r="AV247" s="145">
-        <v>4.7199452061600769E-2</v>
+        <v>6.0317711584048202E-2</v>
       </c>
       <c r="AW247" s="146">
         <f>(AV247-AV241)/AV241*100</f>
-        <v>-17.869412939766942</v>
+        <v>-24.439332126576232</v>
       </c>
       <c r="AY247" s="142">
         <f t="shared" si="53"/>
@@ -14964,14 +14984,14 @@
         <v>94</v>
       </c>
       <c r="BB247" s="145">
-        <v>6.2731703906089245E-2</v>
+        <v>8.8385208790563954E-2</v>
       </c>
       <c r="BC247" s="145">
-        <v>5.4673241680157962E-2</v>
+        <v>7.7031318779285748E-2</v>
       </c>
       <c r="BD247" s="146">
         <f>(BC247-BC241)/BC241*100</f>
-        <v>-4.8644583878441301</v>
+        <v>-3.5020105823650312</v>
       </c>
     </row>
     <row r="248" spans="2:56">
@@ -14988,14 +15008,14 @@
         <v>1662500</v>
       </c>
       <c r="E248" s="145">
-        <v>8.7940641412059053E-2</v>
+        <v>0.11359414629653378</v>
       </c>
       <c r="F248" s="145">
-        <v>7.6643860154465046E-2</v>
+        <v>9.9001937253592853E-2</v>
       </c>
       <c r="G248" s="146">
         <f>(F248-F241)/F241*100</f>
-        <v>33.366065793161468</v>
+        <v>24.020827435081678</v>
       </c>
       <c r="I248" s="142">
         <f t="shared" si="47"/>
@@ -15010,14 +15030,14 @@
         <v>76.614999999999995</v>
       </c>
       <c r="L248" s="145">
-        <v>0.12942153802132247</v>
+        <v>0.21855728753261619</v>
       </c>
       <c r="M248" s="145">
-        <v>0.11279615547268235</v>
+        <v>0.19048160113933413</v>
       </c>
       <c r="N248" s="146">
         <f>(M248-M241)/M241*100</f>
-        <v>96.273771462814977</v>
+        <v>138.61841939463758</v>
       </c>
       <c r="P248" s="142">
         <f t="shared" si="48"/>
@@ -15032,14 +15052,14 @@
         <v>3.8000000000000006E-2</v>
       </c>
       <c r="S248" s="145">
-        <v>1.7987513220921396E-2</v>
+        <v>4.3641018105396084E-2</v>
       </c>
       <c r="T248" s="145">
-        <v>1.5676852314177491E-2</v>
+        <v>3.8034929413305253E-2</v>
       </c>
       <c r="U248" s="146">
         <f>(T248-T241)/T241*100</f>
-        <v>-72.72110103863983</v>
+        <v>-52.353221076975899</v>
       </c>
       <c r="W248" s="142">
         <f t="shared" si="49"/>
@@ -15054,14 +15074,14 @@
         <v>97</v>
       </c>
       <c r="Z248" s="145">
-        <v>6.3563801676723389E-2</v>
+        <v>8.9217306561198098E-2</v>
       </c>
       <c r="AA248" s="145">
-        <v>5.5398448866997754E-2</v>
+        <v>7.775652596612552E-2</v>
       </c>
       <c r="AB248" s="146">
         <f>(AA248-AA241)/AA241*100</f>
-        <v>-3.6025434843042055</v>
+        <v>-2.5935354770410464</v>
       </c>
       <c r="AD248" s="142">
         <f t="shared" si="50"/>
@@ -15076,14 +15096,14 @@
         <v>12</v>
       </c>
       <c r="AG248" s="145">
-        <v>7.8064389683038554E-2</v>
+        <v>0.10371789456751324</v>
       </c>
       <c r="AH248" s="145">
-        <v>6.8036303463781853E-2</v>
+        <v>9.0394380562909604E-2</v>
       </c>
       <c r="AI248" s="146">
         <f>(AH248-AH241)/AH241*100</f>
-        <v>18.388271490858894</v>
+        <v>13.238045475588567</v>
       </c>
       <c r="AK248" s="142">
         <f t="shared" si="51"/>
@@ -15098,14 +15118,14 @@
         <v>39.5</v>
       </c>
       <c r="AN248" s="145">
-        <v>7.4320999213989519E-2</v>
+        <v>9.8414387090309113E-2</v>
       </c>
       <c r="AO248" s="145">
-        <v>6.8968077011028542E-2</v>
+        <v>9.1326154110156293E-2</v>
       </c>
       <c r="AP248" s="146">
         <f>(AO248-AO241)/AO241*100</f>
-        <v>20.00962735623397</v>
+        <v>14.405288557061317</v>
       </c>
       <c r="AR248" s="142">
         <f t="shared" si="52"/>
@@ -15120,14 +15140,14 @@
         <v>41.9</v>
       </c>
       <c r="AU248" s="145">
-        <v>5.3078332800083929E-2</v>
+        <v>6.7160208989652373E-2</v>
       </c>
       <c r="AV248" s="145">
-        <v>4.6259934554035861E-2</v>
+        <v>5.8532864703915062E-2</v>
       </c>
       <c r="AW248" s="146">
         <f>(AV248-AV241)/AV241*100</f>
-        <v>-19.504243876977103</v>
+        <v>-26.675229656056171</v>
       </c>
       <c r="AY248" s="142">
         <f t="shared" si="53"/>
@@ -15142,14 +15162,14 @@
         <v>95.5</v>
       </c>
       <c r="BB248" s="145">
-        <v>6.225588347587075E-2</v>
+        <v>8.7909388360345453E-2</v>
       </c>
       <c r="BC248" s="145">
-        <v>5.4258544744512208E-2</v>
+        <v>7.6616621843639987E-2</v>
       </c>
       <c r="BD248" s="146">
         <f>(BC248-BC241)/BC241*100</f>
-        <v>-5.5860621626552049</v>
+        <v>-4.021506043972412</v>
       </c>
     </row>
     <row r="249" spans="2:56">
@@ -15166,14 +15186,14 @@
         <v>1775000</v>
       </c>
       <c r="E249" s="145">
-        <v>9.1083691128852756E-2</v>
+        <v>0.11673719601332741</v>
       </c>
       <c r="F249" s="145">
-        <v>7.9383156332937466E-2</v>
+        <v>0.1017412334320652</v>
       </c>
       <c r="G249" s="146">
         <f>(F249-F241)/F241*100</f>
-        <v>38.132646620755985</v>
+        <v>27.452374211521839</v>
       </c>
       <c r="I249" s="142">
         <f t="shared" si="47"/>
@@ -15188,14 +15208,14 @@
         <v>84.41</v>
       </c>
       <c r="L249" s="145">
-        <v>0.13849043011086803</v>
+        <v>0.23669507171170748</v>
       </c>
       <c r="M249" s="145">
-        <v>0.1207000652680429</v>
+        <v>0.20628942073005538</v>
       </c>
       <c r="N249" s="146">
         <f>(M249-M241)/M241*100</f>
-        <v>110.02716738607418</v>
+        <v>158.42105073672877</v>
       </c>
       <c r="P249" s="142">
         <f t="shared" si="48"/>
@@ -15210,14 +15230,14 @@
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="S249" s="145">
-        <v>1.1137258910409705E-2</v>
+        <v>3.6790763794884405E-2</v>
       </c>
       <c r="T249" s="145">
-        <v>9.7065759440373954E-3</v>
+        <v>3.2064653043165171E-2</v>
       </c>
       <c r="U249" s="146">
         <f>(T249-T241)/T241*100</f>
-        <v>-83.109829758445514</v>
+        <v>-59.832252659400986</v>
       </c>
       <c r="W249" s="142">
         <f t="shared" si="49"/>
@@ -15232,14 +15252,14 @@
         <v>98</v>
       </c>
       <c r="Z249" s="145">
-        <v>6.3224445717040556E-2</v>
+        <v>8.8877950601515238E-2</v>
       </c>
       <c r="AA249" s="145">
-        <v>5.5102686290117692E-2</v>
+        <v>7.7460763389245443E-2</v>
       </c>
       <c r="AB249" s="146">
         <f>(AA249-AA241)/AA241*100</f>
-        <v>-4.1171925534905185</v>
+        <v>-2.9640405451897793</v>
       </c>
       <c r="AD249" s="142">
         <f t="shared" si="50"/>
@@ -15254,14 +15274,14 @@
         <v>13</v>
       </c>
       <c r="AG249" s="145">
-        <v>8.0045656949009822E-2</v>
+        <v>0.1056991618334845</v>
       </c>
       <c r="AH249" s="145">
-        <v>6.976305879355249E-2</v>
+        <v>9.2121135892680242E-2</v>
       </c>
       <c r="AI249" s="146">
         <f>(AH249-AH241)/AH241*100</f>
-        <v>21.392955290119062</v>
+        <v>15.401171074106287</v>
       </c>
       <c r="AK249" s="142">
         <f t="shared" si="51"/>
@@ -15276,14 +15296,14 @@
         <v>43</v>
       </c>
       <c r="AN249" s="145">
-        <v>7.5827886800005365E-2</v>
+        <v>9.9817879343587615E-2</v>
       </c>
       <c r="AO249" s="145">
-        <v>7.0669706806223809E-2</v>
+        <v>9.3027783905351574E-2</v>
       </c>
       <c r="AP249" s="146">
         <f>(AO249-AO241)/AO241*100</f>
-        <v>22.970590840644213</v>
+        <v>16.536939119087553</v>
       </c>
       <c r="AR249" s="142">
         <f t="shared" si="52"/>
@@ -15298,14 +15318,14 @@
         <v>44.6</v>
       </c>
       <c r="AU249" s="145">
-        <v>5.2130856523108754E-2</v>
+        <v>6.536024245008E-2</v>
       </c>
       <c r="AV249" s="145">
-        <v>4.5434170287297182E-2</v>
+        <v>5.6964120360838394E-2</v>
       </c>
       <c r="AW249" s="146">
         <f>(AV249-AV241)/AV241*100</f>
-        <v>-20.941135642417454</v>
+        <v>-28.640413134881591</v>
       </c>
       <c r="AY249" s="142">
         <f t="shared" si="53"/>
@@ -15320,14 +15340,14 @@
         <v>97</v>
       </c>
       <c r="BB249" s="145">
-        <v>6.1794779141432214E-2</v>
+        <v>8.7448284025906931E-2</v>
       </c>
       <c r="BC249" s="145">
-        <v>5.3856673487288481E-2</v>
+        <v>7.6214750586416261E-2</v>
       </c>
       <c r="BD249" s="146">
         <f>(BC249-BC241)/BC241*100</f>
-        <v>-6.2853482949463606</v>
+        <v>-4.524934635633171</v>
       </c>
     </row>
     <row r="250" spans="2:56">
@@ -15344,14 +15364,14 @@
         <v>1887500</v>
       </c>
       <c r="E250" s="145">
-        <v>9.4226740845646403E-2</v>
+        <v>0.11988024573012113</v>
       </c>
       <c r="F250" s="145">
-        <v>8.2122452511409857E-2</v>
+        <v>0.10448052961053765</v>
       </c>
       <c r="G250" s="146">
         <f>(F250-F241)/F241*100</f>
-        <v>42.899227448350459</v>
+        <v>30.883920987962128</v>
       </c>
       <c r="I250" s="142">
         <f t="shared" si="47"/>
@@ -15366,14 +15386,14 @@
         <v>92.204999999999998</v>
       </c>
       <c r="L250" s="145">
-        <v>0.14755932220041357</v>
+        <v>0.25483285589079868</v>
       </c>
       <c r="M250" s="145">
-        <v>0.12860397506340346</v>
+        <v>0.2220972403207766</v>
       </c>
       <c r="N250" s="146">
         <f>(M250-M241)/M241*100</f>
-        <v>123.78056330933343</v>
+        <v>178.22368207881996</v>
       </c>
       <c r="P250" s="142">
         <f t="shared" si="48"/>
@@ -15388,14 +15408,14 @@
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="S250" s="145">
-        <v>4.2870045998980068E-3</v>
+        <v>2.9940509484372709E-2</v>
       </c>
       <c r="T250" s="145">
-        <v>3.7362995738972967E-3</v>
+        <v>2.6094376673025072E-2</v>
       </c>
       <c r="U250" s="146">
         <f>(T250-T241)/T241*100</f>
-        <v>-93.498558478251198</v>
+        <v>-67.311284241826115</v>
       </c>
       <c r="W250" s="142">
         <f t="shared" si="49"/>
@@ -15410,14 +15430,14 @@
         <v>99</v>
       </c>
       <c r="Z250" s="145">
-        <v>6.2885089757357682E-2</v>
+        <v>8.8538594641832419E-2</v>
       </c>
       <c r="AA250" s="145">
-        <v>5.4806923713237608E-2</v>
+        <v>7.7165000812365409E-2</v>
       </c>
       <c r="AB250" s="146">
         <f>(AA250-AA241)/AA241*100</f>
-        <v>-4.6318416226768679</v>
+        <v>-3.3345456133384603</v>
       </c>
       <c r="AD250" s="142">
         <f t="shared" si="50"/>
@@ -15432,14 +15452,14 @@
         <v>14</v>
       </c>
       <c r="AG250" s="145">
-        <v>8.2076683751611812E-2</v>
+        <v>0.10773018863608648</v>
       </c>
       <c r="AH250" s="145">
-        <v>7.1533181591488443E-2</v>
+        <v>9.3891258690616194E-2</v>
       </c>
       <c r="AI250" s="146">
         <f>(AH250-AH241)/AH241*100</f>
-        <v>24.473101737019391</v>
+        <v>17.618623582125281</v>
       </c>
       <c r="AK250" s="142">
         <f t="shared" si="51"/>
@@ -15454,14 +15474,14 @@
         <v>46.5</v>
       </c>
       <c r="AN250" s="145">
-        <v>7.7364619402924786E-2</v>
+        <v>0.10126595552810876</v>
       </c>
       <c r="AO250" s="145">
-        <v>7.2369348570966455E-2</v>
+        <v>9.4727425670094262E-2</v>
       </c>
       <c r="AP250" s="146">
         <f>(AO250-AO241)/AO241*100</f>
-        <v>25.928095002942953</v>
+        <v>18.666099253264225</v>
       </c>
       <c r="AR250" s="142">
         <f t="shared" si="52"/>
@@ -15476,14 +15496,14 @@
         <v>47.3</v>
       </c>
       <c r="AU250" s="145">
-        <v>5.1291548785154017E-2</v>
+        <v>6.3765768919253771E-2</v>
       </c>
       <c r="AV250" s="145">
-        <v>4.4702679319509643E-2</v>
+        <v>5.5574471566442817E-2</v>
       </c>
       <c r="AW250" s="146">
         <f>(AV250-AV241)/AV241*100</f>
-        <v>-22.213984796158474</v>
+        <v>-30.381241628809363</v>
       </c>
       <c r="AY250" s="142">
         <f t="shared" si="53"/>
@@ -15498,14 +15518,14 @@
         <v>98.5</v>
       </c>
       <c r="BB250" s="145">
-        <v>6.1347718593829356E-2</v>
+        <v>8.7001223478304052E-2</v>
       </c>
       <c r="BC250" s="145">
-        <v>5.34670419637873E-2</v>
+        <v>7.5825119062915072E-2</v>
       </c>
       <c r="BD250" s="146">
         <f>(BC250-BC241)/BC241*100</f>
-        <v>-6.963336372446931</v>
+        <v>-5.013030376786511</v>
       </c>
     </row>
     <row r="251" spans="2:56" ht="12.75" thickBot="1">
@@ -15521,14 +15541,14 @@
         <v>2000000</v>
       </c>
       <c r="E251" s="157">
-        <v>9.7369790562440134E-2</v>
+        <v>0.12302329544691483</v>
       </c>
       <c r="F251" s="157">
-        <v>8.4861748689882319E-2</v>
+        <v>0.10721982578901007</v>
       </c>
       <c r="G251" s="158">
         <f>(F251-F241)/F241*100</f>
-        <v>47.665808275945039</v>
+        <v>34.315467764402378</v>
       </c>
       <c r="I251" s="154">
         <f t="shared" si="47"/>
@@ -15542,14 +15562,14 @@
         <v>100</v>
       </c>
       <c r="L251" s="157">
-        <v>0.15662821428995924</v>
+        <v>0.27297064006988975</v>
       </c>
       <c r="M251" s="157">
-        <v>0.13650788485876411</v>
+        <v>0.23790505991149766</v>
       </c>
       <c r="N251" s="158">
         <f>(M251-M241)/M241*100</f>
-        <v>137.53395923259282</v>
+        <v>198.0263134209109</v>
       </c>
       <c r="P251" s="154">
         <f t="shared" si="48"/>
@@ -15563,14 +15583,14 @@
         <v>0.05</v>
       </c>
       <c r="S251" s="157">
-        <v>-2.5632497106136964E-3</v>
+        <v>2.3090255173860996E-2</v>
       </c>
       <c r="T251" s="157">
-        <v>-2.2339767962428069E-3</v>
+        <v>2.0124100302884956E-2</v>
       </c>
       <c r="U251" s="158">
         <f>(T251-T241)/T241*100</f>
-        <v>-103.88728719805688</v>
+        <v>-74.790315824251252</v>
       </c>
       <c r="W251" s="154">
         <f t="shared" si="49"/>
@@ -15584,14 +15604,14 @@
         <v>100</v>
       </c>
       <c r="Z251" s="157">
-        <v>6.2545733797674877E-2</v>
+        <v>8.8199238682149558E-2</v>
       </c>
       <c r="AA251" s="157">
-        <v>5.4511161136357573E-2</v>
+        <v>7.6869238235485332E-2</v>
       </c>
       <c r="AB251" s="158">
         <f>(AA251-AA241)/AA241*100</f>
-        <v>-5.146490691863133</v>
+        <v>-3.7050506814871937</v>
       </c>
       <c r="AD251" s="154">
         <f t="shared" si="50"/>
@@ -15605,14 +15625,14 @@
         <v>15</v>
       </c>
       <c r="AG251" s="157">
-        <v>8.4153524030187915E-2</v>
+        <v>0.10980702891466262</v>
       </c>
       <c r="AH251" s="157">
-        <v>7.3343232704585273E-2</v>
+        <v>9.5701309803713067E-2</v>
       </c>
       <c r="AI251" s="158">
         <f>(AH251-AH241)/AH241*100</f>
-        <v>27.622726447358225</v>
+        <v>19.886094734442739</v>
       </c>
       <c r="AK251" s="154">
         <f t="shared" si="51"/>
@@ -15626,14 +15646,14 @@
         <v>50</v>
       </c>
       <c r="AN251" s="157">
-        <v>7.8923230759338742E-2</v>
+        <v>0.10274792572387127</v>
       </c>
       <c r="AO251" s="157">
-        <v>7.4064817235076505E-2</v>
+        <v>9.6422894334204284E-2</v>
       </c>
       <c r="AP251" s="158">
         <f>(AO251-AO241)/AO241*100</f>
-        <v>28.878337657112969</v>
+        <v>20.790031697884615</v>
       </c>
       <c r="AR251" s="154">
         <f t="shared" si="52"/>
@@ -15647,14 +15667,14 @@
         <v>50</v>
       </c>
       <c r="AU251" s="157">
-        <v>5.0542886282898353E-2</v>
+        <v>6.2343498529756722E-2</v>
       </c>
       <c r="AV251" s="157">
-        <v>4.4050189376243137E-2</v>
+        <v>5.4334904841841926E-2</v>
       </c>
       <c r="AW251" s="158">
         <f>(AV251-AV241)/AV241*100</f>
-        <v>-23.349366241295506</v>
+        <v>-31.934060645392968</v>
       </c>
       <c r="AY251" s="154">
         <f t="shared" si="53"/>
@@ -15668,14 +15688,14 @@
         <v>100</v>
       </c>
       <c r="BB251" s="157">
-        <v>6.0914069862654602E-2</v>
+        <v>8.6567574747129283E-2</v>
       </c>
       <c r="BC251" s="157">
-        <v>5.3089099385991163E-2</v>
+        <v>7.5447176485118922E-2</v>
       </c>
       <c r="BD251" s="158">
         <f>(BC251-BC241)/BC241*100</f>
-        <v>-7.6209848076224667</v>
+        <v>-5.486483245705247</v>
       </c>
     </row>
     <row r="252" spans="2:56">
